--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="870">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3154,6 +3154,13 @@
   <si>
     <t>무모하게 시비를 걸며 욕하다.
 능력이 없으면서 어떤 일을 이루려 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大馬不死</t>
+  </si>
+  <si>
+    <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3819,12 +3826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E503"/>
+  <dimension ref="A1:E504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B503" sqref="B503"/>
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C504" sqref="C504:D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -3848,7 +3854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3946,7 +3952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -4114,7 +4120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -4128,7 +4134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -4254,7 +4260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -4324,7 +4330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -4338,7 +4344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>180</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>181</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>182</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>183</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>184</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>185</v>
       </c>
@@ -4436,7 +4442,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>186</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>188</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>189</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>191</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>192</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>193</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>194</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>195</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>196</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>197</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>200</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>201</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>202</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>203</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>204</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>205</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>206</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>208</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>209</v>
       </c>
@@ -4772,7 +4778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>211</v>
       </c>
@@ -4800,7 +4806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>213</v>
       </c>
@@ -4828,7 +4834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
@@ -4856,7 +4862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>216</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>217</v>
       </c>
@@ -4884,7 +4890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>218</v>
       </c>
@@ -4898,7 +4904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>219</v>
       </c>
@@ -4912,7 +4918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>221</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>222</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>223</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>224</v>
       </c>
@@ -4982,7 +4988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>225</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>226</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>227</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>228</v>
       </c>
@@ -5038,7 +5044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>229</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>230</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>231</v>
       </c>
@@ -5080,7 +5086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>232</v>
       </c>
@@ -5094,7 +5100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>233</v>
       </c>
@@ -5108,7 +5114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>234</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>235</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>236</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>237</v>
       </c>
@@ -5164,7 +5170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>238</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>239</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>240</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>241</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>242</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>243</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>244</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -5276,7 +5282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>246</v>
       </c>
@@ -5290,7 +5296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>247</v>
       </c>
@@ -5304,7 +5310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>249</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>250</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>251</v>
       </c>
@@ -5360,7 +5366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>252</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>253</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>254</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>255</v>
       </c>
@@ -5416,7 +5422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>256</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>257</v>
       </c>
@@ -5444,7 +5450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>258</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>259</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>260</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>261</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>262</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>263</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>264</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>265</v>
       </c>
@@ -5556,7 +5562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>266</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>267</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>268</v>
       </c>
@@ -5598,7 +5604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>269</v>
       </c>
@@ -5612,7 +5618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>270</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>271</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>272</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>273</v>
       </c>
@@ -5668,7 +5674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>274</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>275</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>276</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>277</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>278</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>279</v>
       </c>
@@ -5752,7 +5758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>280</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>281</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>282</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>283</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>284</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>285</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>286</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>303</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>287</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>288</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>289</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>290</v>
       </c>
@@ -5920,7 +5926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>291</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>292</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>293</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>179</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>82</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>83</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>85</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>89</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>91</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>93</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>95</v>
       </c>
@@ -6074,7 +6080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>96</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>101</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>102</v>
       </c>
@@ -6116,7 +6122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>103</v>
       </c>
@@ -6130,7 +6136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>105</v>
       </c>
@@ -6144,7 +6150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>107</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>109</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>111</v>
       </c>
@@ -6186,7 +6192,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>113</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>115</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>117</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>860</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>787</v>
       </c>
@@ -6256,7 +6262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>788</v>
       </c>
@@ -6270,7 +6276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>861</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>123</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>127</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>135</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>136</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>137</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>138</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>139</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>158</v>
       </c>
@@ -6396,7 +6402,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>163</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>159</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>160</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>161</v>
       </c>
@@ -6452,7 +6458,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>162</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>177</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>178</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>143</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>144</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>141</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>145</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>148</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>149</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>150</v>
       </c>
@@ -6592,7 +6598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>151</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>152</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>164</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>165</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>166</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>167</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>168</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>169</v>
       </c>
@@ -6704,7 +6710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>170</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>296</v>
       </c>
@@ -6732,7 +6738,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>299</v>
       </c>
@@ -6746,7 +6752,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>300</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>301</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>302</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>304</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>305</v>
       </c>
@@ -6816,7 +6822,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>306</v>
       </c>
@@ -6830,7 +6836,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>310</v>
       </c>
@@ -6844,7 +6850,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>311</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>313</v>
       </c>
@@ -6872,7 +6878,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>314</v>
       </c>
@@ -6886,7 +6892,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>316</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>317</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>318</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>319</v>
       </c>
@@ -6942,7 +6948,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>320</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>321</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>322</v>
       </c>
@@ -6984,7 +6990,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>323</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>324</v>
       </c>
@@ -7012,7 +7018,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>325</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>326</v>
       </c>
@@ -7040,7 +7046,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>327</v>
       </c>
@@ -7054,7 +7060,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>328</v>
       </c>
@@ -7068,7 +7074,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>329</v>
       </c>
@@ -7082,7 +7088,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>330</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>331</v>
       </c>
@@ -7110,7 +7116,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>332</v>
       </c>
@@ -7124,7 +7130,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>334</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>336</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>338</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>340</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>342</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>344</v>
       </c>
@@ -7208,7 +7214,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>346</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>348</v>
       </c>
@@ -7236,7 +7242,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>350</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>352</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>467</v>
       </c>
@@ -7278,7 +7284,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>355</v>
       </c>
@@ -7292,7 +7298,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>357</v>
       </c>
@@ -7306,7 +7312,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>359</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>361</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>363</v>
       </c>
@@ -7348,7 +7354,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>365</v>
       </c>
@@ -7362,7 +7368,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>367</v>
       </c>
@@ -7376,7 +7382,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>369</v>
       </c>
@@ -7390,7 +7396,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>371</v>
       </c>
@@ -7404,7 +7410,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>373</v>
       </c>
@@ -7418,7 +7424,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>375</v>
       </c>
@@ -7432,7 +7438,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>377</v>
       </c>
@@ -7446,7 +7452,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>379</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>381</v>
       </c>
@@ -7474,7 +7480,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>383</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>385</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>387</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>389</v>
       </c>
@@ -7530,7 +7536,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>391</v>
       </c>
@@ -7544,7 +7550,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>393</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>395</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>397</v>
       </c>
@@ -7586,7 +7592,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>399</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>401</v>
       </c>
@@ -7614,7 +7620,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>403</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>405</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>407</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>409</v>
       </c>
@@ -7670,7 +7676,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>411</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>413</v>
       </c>
@@ -7698,7 +7704,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>415</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>417</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>419</v>
       </c>
@@ -7740,7 +7746,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>421</v>
       </c>
@@ -7754,7 +7760,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>423</v>
       </c>
@@ -7768,7 +7774,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>425</v>
       </c>
@@ -7782,7 +7788,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>429</v>
       </c>
@@ -7796,7 +7802,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>430</v>
       </c>
@@ -7810,7 +7816,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>432</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>434</v>
       </c>
@@ -7838,7 +7844,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>437</v>
       </c>
@@ -7852,7 +7858,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>439</v>
       </c>
@@ -7866,7 +7872,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>440</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>443</v>
       </c>
@@ -7894,7 +7900,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>445</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>446</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>448</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>450</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>452</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>454</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>456</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>457</v>
       </c>
@@ -8006,7 +8012,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>460</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>462</v>
       </c>
@@ -8034,7 +8040,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>464</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>465</v>
       </c>
@@ -8062,7 +8068,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>466</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>468</v>
       </c>
@@ -8090,7 +8096,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>470</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>472</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>474</v>
       </c>
@@ -8132,7 +8138,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>475</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>476</v>
       </c>
@@ -8160,7 +8166,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>478</v>
       </c>
@@ -8174,7 +8180,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>479</v>
       </c>
@@ -8188,7 +8194,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>481</v>
       </c>
@@ -8202,7 +8208,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>483</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>484</v>
       </c>
@@ -8230,7 +8236,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>485</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>488</v>
       </c>
@@ -8258,7 +8264,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>491</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>493</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>494</v>
       </c>
@@ -8300,7 +8306,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>496</v>
       </c>
@@ -8314,7 +8320,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>497</v>
       </c>
@@ -8328,7 +8334,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>498</v>
       </c>
@@ -8342,7 +8348,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>499</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>500</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="100.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="100.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>501</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>502</v>
       </c>
@@ -8398,7 +8404,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>503</v>
       </c>
@@ -8412,7 +8418,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>504</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>506</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>507</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>508</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>510</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>512</v>
       </c>
@@ -8496,7 +8502,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>515</v>
       </c>
@@ -8510,7 +8516,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>516</v>
       </c>
@@ -8524,7 +8530,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="67.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>518</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>519</v>
       </c>
@@ -8552,7 +8558,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>520</v>
       </c>
@@ -8566,7 +8572,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>522</v>
       </c>
@@ -8580,7 +8586,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>524</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>812</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>813</v>
       </c>
@@ -8622,7 +8628,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>814</v>
       </c>
@@ -8636,7 +8642,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>528</v>
       </c>
@@ -8650,7 +8656,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>604</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>607</v>
       </c>
@@ -8678,7 +8684,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>610</v>
       </c>
@@ -8692,7 +8698,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>612</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>815</v>
       </c>
@@ -8720,7 +8726,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>816</v>
       </c>
@@ -8734,7 +8740,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>617</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="100.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="100.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>817</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>619</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>621</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>818</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>819</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>624</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>820</v>
       </c>
@@ -8846,7 +8852,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>626</v>
       </c>
@@ -8860,7 +8866,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>628</v>
       </c>
@@ -8875,7 +8881,7 @@
       </c>
       <c r="E360" s="2"/>
     </row>
-    <row r="361" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>630</v>
       </c>
@@ -8889,7 +8895,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>821</v>
       </c>
@@ -8904,7 +8910,7 @@
       </c>
       <c r="E362" s="2"/>
     </row>
-    <row r="363" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>822</v>
       </c>
@@ -8918,7 +8924,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>823</v>
       </c>
@@ -8933,7 +8939,7 @@
       </c>
       <c r="E364" s="2"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>824</v>
       </c>
@@ -8947,7 +8953,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>825</v>
       </c>
@@ -8962,7 +8968,7 @@
       </c>
       <c r="E366" s="2"/>
     </row>
-    <row r="367" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>637</v>
       </c>
@@ -8976,7 +8982,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>639</v>
       </c>
@@ -8991,7 +8997,7 @@
       </c>
       <c r="E368" s="2"/>
     </row>
-    <row r="369" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>826</v>
       </c>
@@ -9006,7 +9012,7 @@
       </c>
       <c r="E369" s="2"/>
     </row>
-    <row r="370" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>827</v>
       </c>
@@ -9021,7 +9027,7 @@
       </c>
       <c r="E370" s="2"/>
     </row>
-    <row r="371" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>643</v>
       </c>
@@ -9036,7 +9042,7 @@
       </c>
       <c r="E371" s="2"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>645</v>
       </c>
@@ -9051,7 +9057,7 @@
       </c>
       <c r="E372" s="2"/>
     </row>
-    <row r="373" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>530</v>
       </c>
@@ -9065,7 +9071,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>532</v>
       </c>
@@ -9079,7 +9085,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>534</v>
       </c>
@@ -9093,7 +9099,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>536</v>
       </c>
@@ -9107,7 +9113,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>538</v>
       </c>
@@ -9121,7 +9127,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>540</v>
       </c>
@@ -9135,7 +9141,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>542</v>
       </c>
@@ -9149,7 +9155,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>544</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>545</v>
       </c>
@@ -9177,7 +9183,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>547</v>
       </c>
@@ -9191,7 +9197,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>549</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>551</v>
       </c>
@@ -9219,7 +9225,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>553</v>
       </c>
@@ -9233,7 +9239,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>555</v>
       </c>
@@ -9247,7 +9253,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>556</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>557</v>
       </c>
@@ -9275,7 +9281,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>558</v>
       </c>
@@ -9289,7 +9295,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>559</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>560</v>
       </c>
@@ -9317,7 +9323,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>561</v>
       </c>
@@ -9331,7 +9337,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>562</v>
       </c>
@@ -9345,7 +9351,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>563</v>
       </c>
@@ -9359,7 +9365,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>564</v>
       </c>
@@ -9373,7 +9379,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>565</v>
       </c>
@@ -9387,7 +9393,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>566</v>
       </c>
@@ -9401,7 +9407,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>567</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>568</v>
       </c>
@@ -9429,7 +9435,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>569</v>
       </c>
@@ -9443,7 +9449,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>828</v>
       </c>
@@ -9458,7 +9464,7 @@
       </c>
       <c r="E401" s="2"/>
     </row>
-    <row r="402" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>647</v>
       </c>
@@ -9472,7 +9478,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>829</v>
       </c>
@@ -9487,7 +9493,7 @@
       </c>
       <c r="E403" s="2"/>
     </row>
-    <row r="404" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>649</v>
       </c>
@@ -9502,7 +9508,7 @@
       </c>
       <c r="E404" s="2"/>
     </row>
-    <row r="405" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>830</v>
       </c>
@@ -9517,7 +9523,7 @@
       </c>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>652</v>
       </c>
@@ -9532,7 +9538,7 @@
       </c>
       <c r="E406" s="2"/>
     </row>
-    <row r="407" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>653</v>
       </c>
@@ -9547,7 +9553,7 @@
       </c>
       <c r="E407" s="2"/>
     </row>
-    <row r="408" spans="1:5" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>831</v>
       </c>
@@ -9562,7 +9568,7 @@
       </c>
       <c r="E408" s="2"/>
     </row>
-    <row r="409" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>832</v>
       </c>
@@ -9577,7 +9583,7 @@
       </c>
       <c r="E409" s="2"/>
     </row>
-    <row r="410" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>833</v>
       </c>
@@ -9592,7 +9598,7 @@
       </c>
       <c r="E410" s="2"/>
     </row>
-    <row r="411" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>659</v>
       </c>
@@ -9607,7 +9613,7 @@
       </c>
       <c r="E411" s="2"/>
     </row>
-    <row r="412" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>834</v>
       </c>
@@ -9622,7 +9628,7 @@
       </c>
       <c r="E412" s="2"/>
     </row>
-    <row r="413" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>835</v>
       </c>
@@ -9637,7 +9643,7 @@
       </c>
       <c r="E413" s="2"/>
     </row>
-    <row r="414" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>836</v>
       </c>
@@ -9652,7 +9658,7 @@
       </c>
       <c r="E414" s="2"/>
     </row>
-    <row r="415" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>663</v>
       </c>
@@ -9667,7 +9673,7 @@
       </c>
       <c r="E415" s="2"/>
     </row>
-    <row r="416" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>665</v>
       </c>
@@ -9682,7 +9688,7 @@
       </c>
       <c r="E416" s="2"/>
     </row>
-    <row r="417" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>837</v>
       </c>
@@ -9697,7 +9703,7 @@
       </c>
       <c r="E417" s="2"/>
     </row>
-    <row r="418" spans="1:5" ht="67.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>838</v>
       </c>
@@ -9712,7 +9718,7 @@
       </c>
       <c r="E418" s="2"/>
     </row>
-    <row r="419" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>667</v>
       </c>
@@ -9727,7 +9733,7 @@
       </c>
       <c r="E419" s="2"/>
     </row>
-    <row r="420" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>839</v>
       </c>
@@ -9742,7 +9748,7 @@
       </c>
       <c r="E420" s="2"/>
     </row>
-    <row r="421" spans="1:5" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>840</v>
       </c>
@@ -9757,7 +9763,7 @@
       </c>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="1:5" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>863</v>
       </c>
@@ -9772,7 +9778,7 @@
       </c>
       <c r="E422" s="2"/>
     </row>
-    <row r="423" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>671</v>
       </c>
@@ -9787,7 +9793,7 @@
       </c>
       <c r="E423" s="2"/>
     </row>
-    <row r="424" spans="1:5" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>841</v>
       </c>
@@ -9802,7 +9808,7 @@
       </c>
       <c r="E424" s="2"/>
     </row>
-    <row r="425" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>673</v>
       </c>
@@ -9817,7 +9823,7 @@
       </c>
       <c r="E425" s="2"/>
     </row>
-    <row r="426" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>674</v>
       </c>
@@ -9832,7 +9838,7 @@
       </c>
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>842</v>
       </c>
@@ -9847,7 +9853,7 @@
       </c>
       <c r="E427" s="2"/>
     </row>
-    <row r="428" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>843</v>
       </c>
@@ -9862,7 +9868,7 @@
       </c>
       <c r="E428" s="2"/>
     </row>
-    <row r="429" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>678</v>
       </c>
@@ -9877,7 +9883,7 @@
       </c>
       <c r="E429" s="2"/>
     </row>
-    <row r="430" spans="1:5" ht="67.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>844</v>
       </c>
@@ -9892,7 +9898,7 @@
       </c>
       <c r="E430" s="2"/>
     </row>
-    <row r="431" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>681</v>
       </c>
@@ -9907,7 +9913,7 @@
       </c>
       <c r="E431" s="2"/>
     </row>
-    <row r="432" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>683</v>
       </c>
@@ -9922,7 +9928,7 @@
       </c>
       <c r="E432" s="2"/>
     </row>
-    <row r="433" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>845</v>
       </c>
@@ -9937,7 +9943,7 @@
       </c>
       <c r="E433" s="2"/>
     </row>
-    <row r="434" spans="1:5" ht="67.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>685</v>
       </c>
@@ -9952,7 +9958,7 @@
       </c>
       <c r="E434" s="2"/>
     </row>
-    <row r="435" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>686</v>
       </c>
@@ -9967,7 +9973,7 @@
       </c>
       <c r="E435" s="2"/>
     </row>
-    <row r="436" spans="1:5" ht="51" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>846</v>
       </c>
@@ -9982,7 +9988,7 @@
       </c>
       <c r="E436" s="2"/>
     </row>
-    <row r="437" spans="1:5" ht="34.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>847</v>
       </c>
@@ -9997,7 +10003,7 @@
       </c>
       <c r="E437" s="2"/>
     </row>
-    <row r="438" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>571</v>
       </c>
@@ -10011,7 +10017,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>572</v>
       </c>
@@ -10025,7 +10031,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>573</v>
       </c>
@@ -10039,7 +10045,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>691</v>
       </c>
@@ -10053,7 +10059,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>692</v>
       </c>
@@ -10067,7 +10073,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>694</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>696</v>
       </c>
@@ -10095,7 +10101,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>697</v>
       </c>
@@ -10109,7 +10115,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>698</v>
       </c>
@@ -10123,7 +10129,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>692</v>
       </c>
@@ -10137,7 +10143,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>699</v>
       </c>
@@ -10151,7 +10157,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>700</v>
       </c>
@@ -10165,7 +10171,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>702</v>
       </c>
@@ -10179,7 +10185,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>704</v>
       </c>
@@ -10193,7 +10199,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>574</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>575</v>
       </c>
@@ -10221,7 +10227,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>576</v>
       </c>
@@ -10235,7 +10241,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>577</v>
       </c>
@@ -10249,7 +10255,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>578</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>579</v>
       </c>
@@ -10277,7 +10283,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>707</v>
       </c>
@@ -10291,7 +10297,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>708</v>
       </c>
@@ -10305,7 +10311,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>580</v>
       </c>
@@ -10319,7 +10325,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>581</v>
       </c>
@@ -10333,7 +10339,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>582</v>
       </c>
@@ -10347,7 +10353,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>583</v>
       </c>
@@ -10361,7 +10367,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>584</v>
       </c>
@@ -10375,7 +10381,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>585</v>
       </c>
@@ -10389,7 +10395,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>586</v>
       </c>
@@ -10403,7 +10409,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>587</v>
       </c>
@@ -10417,7 +10423,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>588</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>589</v>
       </c>
@@ -10445,7 +10451,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>590</v>
       </c>
@@ -10459,7 +10465,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>713</v>
       </c>
@@ -10473,7 +10479,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>591</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>592</v>
       </c>
@@ -10501,7 +10507,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>593</v>
       </c>
@@ -10515,7 +10521,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>714</v>
       </c>
@@ -10529,7 +10535,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>716</v>
       </c>
@@ -10543,7 +10549,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>718</v>
       </c>
@@ -10557,7 +10563,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>720</v>
       </c>
@@ -10571,7 +10577,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>722</v>
       </c>
@@ -10585,7 +10591,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>725</v>
       </c>
@@ -10599,7 +10605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>728</v>
       </c>
@@ -10613,7 +10619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>730</v>
       </c>
@@ -10627,7 +10633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>732</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>734</v>
       </c>
@@ -10655,7 +10661,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="67.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>736</v>
       </c>
@@ -10669,7 +10675,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>737</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>738</v>
       </c>
@@ -10697,7 +10703,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>741</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>743</v>
       </c>
@@ -10725,7 +10731,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>745</v>
       </c>
@@ -10739,7 +10745,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>747</v>
       </c>
@@ -10809,7 +10815,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="5" t="s">
         <v>756</v>
       </c>
@@ -10823,7 +10829,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>759</v>
       </c>
@@ -10837,7 +10843,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>761</v>
       </c>
@@ -10851,7 +10857,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>763</v>
       </c>
@@ -10865,7 +10871,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>765</v>
       </c>
@@ -10879,7 +10885,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="67.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>766</v>
       </c>
@@ -10893,7 +10899,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="84" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>767</v>
       </c>
@@ -10921,14 +10927,22 @@
         <v>773</v>
       </c>
     </row>
+    <row r="504" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D503">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="속담"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D503"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A154:A156 A1:A37 A161:A235 A304:A340 A475:A491 A496:A502 A505:A1048576">
     <cfRule type="duplicateValues" dxfId="26" priority="36"/>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="754">
   <si>
     <t>질문</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
-  </si>
-  <si>
-    <t>사자성어</t>
   </si>
   <si>
     <t>藏頭露尾</t>
@@ -1868,10 +1865,6 @@
     <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
   </si>
   <si>
-    <t>사자성어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>毁損</t>
   </si>
   <si>
@@ -1940,10 +1933,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사자성어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目不識丁</t>
   </si>
   <si>
@@ -1980,6 +1969,436 @@
   </si>
   <si>
     <t>亡羊之歎/望洋之歎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌</t>
+  </si>
+  <si>
+    <t>혀 설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口舌數</t>
+  </si>
+  <si>
+    <t>구설수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活</t>
+  </si>
+  <si>
+    <t>살 활</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力</t>
+  </si>
+  <si>
+    <t>활력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活路</t>
+  </si>
+  <si>
+    <t>활로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>復活</t>
+  </si>
+  <si>
+    <t>부활</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>對話</t>
+  </si>
+  <si>
+    <t>대화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말할 화, 이야기 화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童話</t>
+  </si>
+  <si>
+    <t>동화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實話</t>
+  </si>
+  <si>
+    <t>실화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共感</t>
+  </si>
+  <si>
+    <t>공감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함께 공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+  </si>
+  <si>
+    <t>공공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共企業</t>
+  </si>
+  <si>
+    <t>공공기업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同</t>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共倒同亡</t>
+  </si>
+  <si>
+    <t>공도동망, 「넘어져도 같이 넘어지고 망(亡)하여도 같이 망(亡)한다.」는 뜻으로, 운명(運命)을 같이 하는 것.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擧</t>
+  </si>
+  <si>
+    <t>選</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽑을 선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>選手</t>
+  </si>
+  <si>
+    <t>선수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇</t>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言約</t>
+  </si>
+  <si>
+    <t>언약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言論</t>
+  </si>
+  <si>
+    <t>언론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格言</t>
+  </si>
+  <si>
+    <t>격언</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語道斷</t>
+  </si>
+  <si>
+    <t>언어도단, 「말할 길이 끊어졌다.」는 뜻으로, 곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>言中有骨</t>
+  </si>
+  <si>
+    <t>언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>話頭</t>
+  </si>
+  <si>
+    <t>화두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通話</t>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>話題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通貨</t>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재물 화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>財貨</t>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨幣</t>
+  </si>
+  <si>
+    <t>화폐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨物</t>
+  </si>
+  <si>
+    <t>화물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正義</t>
+  </si>
+  <si>
+    <t>정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正直</t>
+  </si>
+  <si>
+    <t>정직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정치 정, 다스릴 정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>정치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>정부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政派</t>
+  </si>
+  <si>
+    <t>정파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>善政</t>
+  </si>
+  <si>
+    <t>선정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정할 정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斷定</t>
+  </si>
+  <si>
+    <t>단정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定</t>
+  </si>
+  <si>
+    <t>안정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定</t>
+  </si>
+  <si>
+    <t>규정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會者定離</t>
+  </si>
+  <si>
+    <t>회자정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>構造</t>
+  </si>
+  <si>
+    <t>구조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分</t>
+  </si>
+  <si>
+    <t>충분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>現象</t>
+  </si>
+  <si>
+    <t>현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發覺</t>
+  </si>
+  <si>
+    <t>발각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濫用</t>
+  </si>
+  <si>
+    <t>남용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘칠 남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>사건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺憾</t>
+  </si>
+  <si>
+    <t>유감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉兆</t>
+  </si>
+  <si>
+    <t>길조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶兆</t>
+  </si>
+  <si>
+    <t>흉조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡兆</t>
+  </si>
+  <si>
+    <t>망조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆民有和</t>
+  </si>
+  <si>
+    <t>조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2355,11 +2774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:D440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A323" sqref="A323:XFD323"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A441" sqref="A441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2501,312 +2920,312 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
       <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -2814,13 +3233,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -2828,13 +3247,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -2842,1679 +3261,1679 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
         <v>117</v>
       </c>
-      <c r="B69" t="s">
-        <v>118</v>
-      </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D106" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D124" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D135" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D137" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D140" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C142" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C143" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C144" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D145" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C148" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B149" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D149" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C150" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C151" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D153" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" t="s">
         <v>203</v>
       </c>
-      <c r="B154" t="s">
-        <v>204</v>
-      </c>
       <c r="C154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
@@ -4522,13 +4941,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" t="s">
         <v>205</v>
       </c>
-      <c r="B155" t="s">
-        <v>206</v>
-      </c>
       <c r="C155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
@@ -4536,27 +4955,27 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" t="s">
         <v>207</v>
       </c>
-      <c r="B156" t="s">
-        <v>208</v>
-      </c>
       <c r="C156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s">
         <v>209</v>
       </c>
-      <c r="B157" t="s">
-        <v>210</v>
-      </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
@@ -4564,13 +4983,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" t="s">
         <v>211</v>
       </c>
-      <c r="B158" t="s">
-        <v>212</v>
-      </c>
       <c r="C158" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
@@ -4578,13 +4997,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>212</v>
+      </c>
+      <c r="B159" t="s">
         <v>213</v>
       </c>
-      <c r="B159" t="s">
-        <v>214</v>
-      </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -4592,13 +5011,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>214</v>
+      </c>
+      <c r="B160" t="s">
         <v>215</v>
       </c>
-      <c r="B160" t="s">
-        <v>216</v>
-      </c>
       <c r="C160" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
@@ -4606,55 +5025,55 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>216</v>
+      </c>
+      <c r="B161" t="s">
         <v>217</v>
       </c>
-      <c r="B161" t="s">
-        <v>218</v>
-      </c>
       <c r="C161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D161" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>218</v>
+      </c>
+      <c r="B162" t="s">
         <v>219</v>
       </c>
-      <c r="B162" t="s">
-        <v>220</v>
-      </c>
       <c r="C162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>220</v>
+      </c>
+      <c r="B163" t="s">
         <v>221</v>
       </c>
-      <c r="B163" t="s">
-        <v>222</v>
-      </c>
       <c r="C163" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" t="s">
         <v>223</v>
       </c>
-      <c r="B164" t="s">
-        <v>224</v>
-      </c>
       <c r="C164" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -4662,13 +5081,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>224</v>
+      </c>
+      <c r="B165" t="s">
         <v>225</v>
       </c>
-      <c r="B165" t="s">
-        <v>226</v>
-      </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -4676,13 +5095,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" t="s">
         <v>227</v>
       </c>
-      <c r="B166" t="s">
-        <v>228</v>
-      </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -4690,13 +5109,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>228</v>
+      </c>
+      <c r="B167" t="s">
         <v>229</v>
       </c>
-      <c r="B167" t="s">
-        <v>230</v>
-      </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -4704,13 +5123,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>230</v>
+      </c>
+      <c r="B168" t="s">
         <v>231</v>
       </c>
-      <c r="B168" t="s">
-        <v>232</v>
-      </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -4718,13 +5137,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>232</v>
+      </c>
+      <c r="B169" t="s">
         <v>233</v>
       </c>
-      <c r="B169" t="s">
-        <v>234</v>
-      </c>
       <c r="C169" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -4732,13 +5151,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" t="s">
         <v>235</v>
       </c>
-      <c r="B170" t="s">
-        <v>236</v>
-      </c>
       <c r="C170" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -4746,13 +5165,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>236</v>
+      </c>
+      <c r="B171" t="s">
         <v>237</v>
       </c>
-      <c r="B171" t="s">
-        <v>238</v>
-      </c>
       <c r="C171" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -4760,13 +5179,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>238</v>
+      </c>
+      <c r="B172" t="s">
         <v>239</v>
       </c>
-      <c r="B172" t="s">
-        <v>240</v>
-      </c>
       <c r="C172" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -4774,13 +5193,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>240</v>
+      </c>
+      <c r="B173" t="s">
         <v>241</v>
       </c>
-      <c r="B173" t="s">
-        <v>242</v>
-      </c>
       <c r="C173" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -4788,13 +5207,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>242</v>
+      </c>
+      <c r="B174" t="s">
         <v>243</v>
       </c>
-      <c r="B174" t="s">
-        <v>244</v>
-      </c>
       <c r="C174" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
@@ -4802,13 +5221,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>244</v>
+      </c>
+      <c r="B175" t="s">
         <v>245</v>
       </c>
-      <c r="B175" t="s">
-        <v>246</v>
-      </c>
       <c r="C175" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
@@ -4816,853 +5235,853 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" t="s">
         <v>247</v>
       </c>
-      <c r="B176" t="s">
-        <v>248</v>
-      </c>
       <c r="C176" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>248</v>
+      </c>
+      <c r="B177" t="s">
         <v>249</v>
       </c>
-      <c r="B177" t="s">
-        <v>250</v>
-      </c>
       <c r="C177" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>250</v>
+      </c>
+      <c r="B178" t="s">
         <v>251</v>
       </c>
-      <c r="B178" t="s">
-        <v>252</v>
-      </c>
       <c r="C178" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>252</v>
+      </c>
+      <c r="B179" t="s">
         <v>253</v>
       </c>
-      <c r="B179" t="s">
-        <v>254</v>
-      </c>
       <c r="C179" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>254</v>
+      </c>
+      <c r="B180" t="s">
         <v>255</v>
       </c>
-      <c r="B180" t="s">
-        <v>256</v>
-      </c>
       <c r="C180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" t="s">
         <v>257</v>
       </c>
-      <c r="B181" t="s">
-        <v>258</v>
-      </c>
       <c r="C181" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>258</v>
+      </c>
+      <c r="B182" t="s">
         <v>259</v>
       </c>
-      <c r="B182" t="s">
-        <v>260</v>
-      </c>
       <c r="C182" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>260</v>
+      </c>
+      <c r="B183" t="s">
         <v>261</v>
       </c>
-      <c r="B183" t="s">
-        <v>262</v>
-      </c>
       <c r="C183" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>262</v>
+      </c>
+      <c r="B184" t="s">
         <v>263</v>
       </c>
-      <c r="B184" t="s">
-        <v>264</v>
-      </c>
       <c r="C184" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>264</v>
+      </c>
+      <c r="B185" t="s">
         <v>265</v>
       </c>
-      <c r="B185" t="s">
-        <v>266</v>
-      </c>
       <c r="C185" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>266</v>
+      </c>
+      <c r="B186" t="s">
         <v>267</v>
       </c>
-      <c r="B186" t="s">
-        <v>268</v>
-      </c>
       <c r="C186" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>268</v>
+      </c>
+      <c r="B187" t="s">
         <v>269</v>
       </c>
-      <c r="B187" t="s">
-        <v>270</v>
-      </c>
       <c r="C187" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>270</v>
+      </c>
+      <c r="B188" t="s">
         <v>271</v>
       </c>
-      <c r="B188" t="s">
-        <v>272</v>
-      </c>
       <c r="C188" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" t="s">
         <v>273</v>
       </c>
-      <c r="B189" t="s">
-        <v>274</v>
-      </c>
       <c r="C189" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>274</v>
+      </c>
+      <c r="B190" t="s">
         <v>275</v>
       </c>
-      <c r="B190" t="s">
-        <v>276</v>
-      </c>
       <c r="C190" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D191" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D193" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D194" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D195" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D196" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D197" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B198">
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D198" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D199" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>286</v>
+      </c>
+      <c r="B200" t="s">
         <v>287</v>
       </c>
-      <c r="B200" t="s">
-        <v>288</v>
-      </c>
       <c r="C200" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>288</v>
+      </c>
+      <c r="B201" t="s">
         <v>289</v>
       </c>
-      <c r="B201" t="s">
-        <v>290</v>
-      </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>290</v>
+      </c>
+      <c r="B202" t="s">
         <v>291</v>
       </c>
-      <c r="B202" t="s">
-        <v>292</v>
-      </c>
       <c r="C202" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>292</v>
+      </c>
+      <c r="B203" t="s">
         <v>293</v>
       </c>
-      <c r="B203" t="s">
-        <v>294</v>
-      </c>
       <c r="C203" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>294</v>
+      </c>
+      <c r="B204" t="s">
         <v>295</v>
       </c>
-      <c r="B204" t="s">
-        <v>296</v>
-      </c>
       <c r="C204" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>296</v>
+      </c>
+      <c r="B205" t="s">
         <v>297</v>
       </c>
-      <c r="B205" t="s">
-        <v>298</v>
-      </c>
       <c r="C205" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>298</v>
+      </c>
+      <c r="B206" t="s">
         <v>299</v>
       </c>
-      <c r="B206" t="s">
-        <v>300</v>
-      </c>
       <c r="C206" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>300</v>
+      </c>
+      <c r="B207" t="s">
         <v>301</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>302</v>
       </c>
-      <c r="C207" t="s">
-        <v>303</v>
-      </c>
       <c r="D207" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>303</v>
+      </c>
+      <c r="B208" t="s">
         <v>304</v>
       </c>
-      <c r="B208" t="s">
-        <v>305</v>
-      </c>
       <c r="C208" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D208" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>305</v>
+      </c>
+      <c r="B209" t="s">
         <v>306</v>
       </c>
-      <c r="B209" t="s">
-        <v>307</v>
-      </c>
       <c r="C209" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>307</v>
+      </c>
+      <c r="B210" t="s">
         <v>308</v>
       </c>
-      <c r="B210" t="s">
-        <v>309</v>
-      </c>
       <c r="C210" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D210" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>309</v>
+      </c>
+      <c r="B211" t="s">
         <v>310</v>
       </c>
-      <c r="B211" t="s">
-        <v>311</v>
-      </c>
       <c r="C211" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B212" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C212" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B213" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C213" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D213" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B214" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C214" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D214" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B215" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C215" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D215" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B216" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C216" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D216" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B217" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C217" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D217" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B218" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C218" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D218" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B219" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D219" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B220" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C220" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D220" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B221" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C221" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D221" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B222" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C222" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D222" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B223" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C223" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D223" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B224" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C224" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D224" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B225" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C225" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D225" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B226" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C226" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D226" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B227" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C227" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D227" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B228" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C228" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D228" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B229" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C229" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D229" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B230" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C230" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D230" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B231" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C231" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D231" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B232" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C232" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D232" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B233" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C233" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D233" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B234" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C234" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D234" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B235" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C235" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>335</v>
+      </c>
+      <c r="B236" t="s">
         <v>336</v>
       </c>
-      <c r="B236" t="s">
-        <v>337</v>
-      </c>
       <c r="C236" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
@@ -5670,13 +6089,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
+        <v>338</v>
+      </c>
+      <c r="B237" t="s">
         <v>339</v>
       </c>
-      <c r="B237" t="s">
-        <v>340</v>
-      </c>
       <c r="C237" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
@@ -5684,13 +6103,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>340</v>
+      </c>
+      <c r="B238" t="s">
         <v>341</v>
       </c>
-      <c r="B238" t="s">
-        <v>342</v>
-      </c>
       <c r="C238" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
@@ -5698,27 +6117,27 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>342</v>
+      </c>
+      <c r="B239" t="s">
         <v>343</v>
       </c>
-      <c r="B239" t="s">
-        <v>344</v>
-      </c>
       <c r="C239" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D239" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>344</v>
+      </c>
+      <c r="B240" t="s">
         <v>345</v>
       </c>
-      <c r="B240" t="s">
-        <v>346</v>
-      </c>
       <c r="C240" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
@@ -5726,13 +6145,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>346</v>
+      </c>
+      <c r="B241" t="s">
         <v>347</v>
       </c>
-      <c r="B241" t="s">
-        <v>348</v>
-      </c>
       <c r="C241" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
@@ -5740,13 +6159,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>348</v>
+      </c>
+      <c r="B242" t="s">
         <v>349</v>
       </c>
-      <c r="B242" t="s">
-        <v>350</v>
-      </c>
       <c r="C242" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
@@ -5754,13 +6173,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>350</v>
+      </c>
+      <c r="B243" t="s">
         <v>351</v>
       </c>
-      <c r="B243" t="s">
-        <v>352</v>
-      </c>
       <c r="C243" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D243" t="s">
         <v>7</v>
@@ -5768,13 +6187,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>352</v>
+      </c>
+      <c r="B244" t="s">
         <v>353</v>
       </c>
-      <c r="B244" t="s">
-        <v>354</v>
-      </c>
       <c r="C244" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
@@ -5782,13 +6201,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>354</v>
+      </c>
+      <c r="B245" t="s">
         <v>355</v>
       </c>
-      <c r="B245" t="s">
-        <v>356</v>
-      </c>
       <c r="C245" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
@@ -5796,13 +6215,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>356</v>
+      </c>
+      <c r="B246" t="s">
         <v>357</v>
       </c>
-      <c r="B246" t="s">
-        <v>358</v>
-      </c>
       <c r="C246" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D246" t="s">
         <v>7</v>
@@ -5810,13 +6229,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>358</v>
+      </c>
+      <c r="B247" t="s">
         <v>359</v>
       </c>
-      <c r="B247" t="s">
-        <v>360</v>
-      </c>
       <c r="C247" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
@@ -5824,27 +6243,27 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>360</v>
+      </c>
+      <c r="B248" t="s">
         <v>361</v>
       </c>
-      <c r="B248" t="s">
-        <v>362</v>
-      </c>
       <c r="C248" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D248" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>362</v>
+      </c>
+      <c r="B249" t="s">
         <v>363</v>
       </c>
-      <c r="B249" t="s">
-        <v>364</v>
-      </c>
       <c r="C249" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D249" t="s">
         <v>7</v>
@@ -5852,13 +6271,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>364</v>
+      </c>
+      <c r="B250" t="s">
         <v>365</v>
       </c>
-      <c r="B250" t="s">
-        <v>366</v>
-      </c>
       <c r="C250" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
@@ -5866,13 +6285,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>366</v>
+      </c>
+      <c r="B251" t="s">
         <v>367</v>
       </c>
-      <c r="B251" t="s">
-        <v>368</v>
-      </c>
       <c r="C251" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D251" t="s">
         <v>7</v>
@@ -5880,13 +6299,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>368</v>
+      </c>
+      <c r="B252" t="s">
         <v>369</v>
       </c>
-      <c r="B252" t="s">
-        <v>370</v>
-      </c>
       <c r="C252" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
@@ -5894,13 +6313,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>370</v>
+      </c>
+      <c r="B253" t="s">
         <v>371</v>
       </c>
-      <c r="B253" t="s">
-        <v>372</v>
-      </c>
       <c r="C253" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
@@ -5908,13 +6327,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>372</v>
+      </c>
+      <c r="B254" t="s">
         <v>373</v>
       </c>
-      <c r="B254" t="s">
-        <v>374</v>
-      </c>
       <c r="C254" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
@@ -5922,13 +6341,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>374</v>
+      </c>
+      <c r="B255" t="s">
         <v>375</v>
       </c>
-      <c r="B255" t="s">
-        <v>376</v>
-      </c>
       <c r="C255" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
@@ -5936,13 +6355,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>376</v>
+      </c>
+      <c r="B256" t="s">
         <v>377</v>
       </c>
-      <c r="B256" t="s">
-        <v>378</v>
-      </c>
       <c r="C256" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D256" t="s">
         <v>7</v>
@@ -5950,13 +6369,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
+        <v>378</v>
+      </c>
+      <c r="B257" t="s">
         <v>379</v>
       </c>
-      <c r="B257" t="s">
-        <v>380</v>
-      </c>
       <c r="C257" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D257" t="s">
         <v>7</v>
@@ -5964,69 +6383,69 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>380</v>
+      </c>
+      <c r="B258" t="s">
         <v>381</v>
       </c>
-      <c r="B258" t="s">
-        <v>382</v>
-      </c>
       <c r="C258" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D258" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
+        <v>382</v>
+      </c>
+      <c r="B259" t="s">
         <v>383</v>
       </c>
-      <c r="B259" t="s">
-        <v>384</v>
-      </c>
       <c r="C259" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D259" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>384</v>
+      </c>
+      <c r="B260" t="s">
         <v>385</v>
       </c>
-      <c r="B260" t="s">
-        <v>386</v>
-      </c>
       <c r="C260" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D260" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>386</v>
+      </c>
+      <c r="B261" t="s">
         <v>387</v>
       </c>
-      <c r="B261" t="s">
-        <v>388</v>
-      </c>
       <c r="C261" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D261" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>388</v>
+      </c>
+      <c r="B262" t="s">
         <v>389</v>
       </c>
-      <c r="B262" t="s">
-        <v>390</v>
-      </c>
       <c r="C262" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
@@ -6034,13 +6453,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>390</v>
+      </c>
+      <c r="B263" t="s">
         <v>391</v>
       </c>
-      <c r="B263" t="s">
-        <v>392</v>
-      </c>
       <c r="C263" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D263" t="s">
         <v>7</v>
@@ -6048,13 +6467,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>392</v>
+      </c>
+      <c r="B264" t="s">
         <v>393</v>
       </c>
-      <c r="B264" t="s">
-        <v>394</v>
-      </c>
       <c r="C264" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
@@ -6062,13 +6481,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>394</v>
+      </c>
+      <c r="B265" t="s">
         <v>395</v>
       </c>
-      <c r="B265" t="s">
-        <v>396</v>
-      </c>
       <c r="C265" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
@@ -6076,13 +6495,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>396</v>
+      </c>
+      <c r="B266" t="s">
         <v>397</v>
       </c>
-      <c r="B266" t="s">
-        <v>398</v>
-      </c>
       <c r="C266" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
@@ -6090,13 +6509,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>398</v>
+      </c>
+      <c r="B267" t="s">
         <v>399</v>
       </c>
-      <c r="B267" t="s">
-        <v>400</v>
-      </c>
       <c r="C267" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
@@ -6104,13 +6523,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>400</v>
+      </c>
+      <c r="B268" t="s">
         <v>401</v>
       </c>
-      <c r="B268" t="s">
-        <v>402</v>
-      </c>
       <c r="C268" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D268" t="s">
         <v>7</v>
@@ -6118,13 +6537,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>402</v>
+      </c>
+      <c r="B269" t="s">
         <v>403</v>
       </c>
-      <c r="B269" t="s">
-        <v>404</v>
-      </c>
       <c r="C269" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
@@ -6132,13 +6551,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>404</v>
+      </c>
+      <c r="B270" t="s">
         <v>405</v>
       </c>
-      <c r="B270" t="s">
-        <v>406</v>
-      </c>
       <c r="C270" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D270" t="s">
         <v>7</v>
@@ -6146,13 +6565,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
+        <v>406</v>
+      </c>
+      <c r="B271" t="s">
         <v>407</v>
       </c>
-      <c r="B271" t="s">
-        <v>408</v>
-      </c>
       <c r="C271" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D271" t="s">
         <v>7</v>
@@ -6160,13 +6579,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>408</v>
+      </c>
+      <c r="B272" t="s">
         <v>409</v>
       </c>
-      <c r="B272" t="s">
-        <v>410</v>
-      </c>
       <c r="C272" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
@@ -6174,13 +6593,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>410</v>
+      </c>
+      <c r="B273" t="s">
         <v>411</v>
       </c>
-      <c r="B273" t="s">
-        <v>412</v>
-      </c>
       <c r="C273" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D273" t="s">
         <v>7</v>
@@ -6188,13 +6607,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>412</v>
+      </c>
+      <c r="B274" t="s">
         <v>413</v>
       </c>
-      <c r="B274" t="s">
-        <v>414</v>
-      </c>
       <c r="C274" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D274" t="s">
         <v>7</v>
@@ -6202,13 +6621,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>414</v>
+      </c>
+      <c r="B275" t="s">
         <v>415</v>
       </c>
-      <c r="B275" t="s">
-        <v>416</v>
-      </c>
       <c r="C275" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D275" t="s">
         <v>7</v>
@@ -6216,13 +6635,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>416</v>
+      </c>
+      <c r="B276" t="s">
         <v>417</v>
       </c>
-      <c r="B276" t="s">
-        <v>418</v>
-      </c>
       <c r="C276" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D276" t="s">
         <v>7</v>
@@ -6230,13 +6649,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
+        <v>418</v>
+      </c>
+      <c r="B277" t="s">
         <v>419</v>
       </c>
-      <c r="B277" t="s">
-        <v>420</v>
-      </c>
       <c r="C277" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D277" t="s">
         <v>7</v>
@@ -6244,13 +6663,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>420</v>
+      </c>
+      <c r="B278" t="s">
         <v>421</v>
       </c>
-      <c r="B278" t="s">
-        <v>422</v>
-      </c>
       <c r="C278" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D278" t="s">
         <v>7</v>
@@ -6258,13 +6677,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
+        <v>422</v>
+      </c>
+      <c r="B279" t="s">
         <v>423</v>
       </c>
-      <c r="B279" t="s">
-        <v>424</v>
-      </c>
       <c r="C279" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D279" t="s">
         <v>7</v>
@@ -6272,13 +6691,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>424</v>
+      </c>
+      <c r="B280" t="s">
         <v>425</v>
       </c>
-      <c r="B280" t="s">
-        <v>426</v>
-      </c>
       <c r="C280" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D280" t="s">
         <v>7</v>
@@ -6286,13 +6705,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
+        <v>426</v>
+      </c>
+      <c r="B281" t="s">
         <v>427</v>
       </c>
-      <c r="B281" t="s">
-        <v>428</v>
-      </c>
       <c r="C281" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D281" t="s">
         <v>7</v>
@@ -6300,13 +6719,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>428</v>
+      </c>
+      <c r="B282" t="s">
         <v>429</v>
       </c>
-      <c r="B282" t="s">
-        <v>430</v>
-      </c>
       <c r="C282" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D282" t="s">
         <v>7</v>
@@ -6314,13 +6733,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
+        <v>430</v>
+      </c>
+      <c r="B283" t="s">
         <v>431</v>
       </c>
-      <c r="B283" t="s">
-        <v>432</v>
-      </c>
       <c r="C283" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D283" t="s">
         <v>7</v>
@@ -6328,13 +6747,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
+        <v>432</v>
+      </c>
+      <c r="B284" t="s">
         <v>433</v>
       </c>
-      <c r="B284" t="s">
-        <v>434</v>
-      </c>
       <c r="C284" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D284" t="s">
         <v>7</v>
@@ -6342,27 +6761,27 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
+        <v>434</v>
+      </c>
+      <c r="B285" t="s">
         <v>435</v>
       </c>
-      <c r="B285" t="s">
-        <v>436</v>
-      </c>
       <c r="C285" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D285" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>436</v>
+      </c>
+      <c r="B286" t="s">
         <v>437</v>
       </c>
-      <c r="B286" t="s">
-        <v>438</v>
-      </c>
       <c r="C286" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D286" t="s">
         <v>7</v>
@@ -6370,13 +6789,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>438</v>
+      </c>
+      <c r="B287" t="s">
         <v>439</v>
       </c>
-      <c r="B287" t="s">
-        <v>440</v>
-      </c>
       <c r="C287" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D287" t="s">
         <v>7</v>
@@ -6384,13 +6803,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>440</v>
+      </c>
+      <c r="B288" t="s">
         <v>441</v>
       </c>
-      <c r="B288" t="s">
-        <v>442</v>
-      </c>
       <c r="C288" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D288" t="s">
         <v>7</v>
@@ -6398,13 +6817,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
+        <v>442</v>
+      </c>
+      <c r="B289" t="s">
         <v>443</v>
       </c>
-      <c r="B289" t="s">
-        <v>444</v>
-      </c>
       <c r="C289" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D289" t="s">
         <v>7</v>
@@ -6412,13 +6831,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
+        <v>444</v>
+      </c>
+      <c r="B290" t="s">
         <v>445</v>
       </c>
-      <c r="B290" t="s">
-        <v>446</v>
-      </c>
       <c r="C290" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D290" t="s">
         <v>7</v>
@@ -6426,13 +6845,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>446</v>
+      </c>
+      <c r="B291" t="s">
         <v>447</v>
       </c>
-      <c r="B291" t="s">
-        <v>448</v>
-      </c>
       <c r="C291" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D291" t="s">
         <v>7</v>
@@ -6440,27 +6859,27 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>448</v>
+      </c>
+      <c r="B292" t="s">
         <v>449</v>
       </c>
-      <c r="B292" t="s">
-        <v>450</v>
-      </c>
       <c r="C292" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D292" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>450</v>
+      </c>
+      <c r="B293" t="s">
         <v>451</v>
       </c>
-      <c r="B293" t="s">
-        <v>452</v>
-      </c>
       <c r="C293" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -6468,13 +6887,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>452</v>
+      </c>
+      <c r="B294" t="s">
         <v>453</v>
       </c>
-      <c r="B294" t="s">
-        <v>454</v>
-      </c>
       <c r="C294" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
@@ -6482,13 +6901,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>454</v>
+      </c>
+      <c r="B295" t="s">
         <v>455</v>
       </c>
-      <c r="B295" t="s">
-        <v>456</v>
-      </c>
       <c r="C295" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D295" t="s">
         <v>7</v>
@@ -6496,13 +6915,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>456</v>
+      </c>
+      <c r="B296" t="s">
         <v>457</v>
       </c>
-      <c r="B296" t="s">
-        <v>458</v>
-      </c>
       <c r="C296" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D296" t="s">
         <v>7</v>
@@ -6510,13 +6929,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>458</v>
+      </c>
+      <c r="B297" t="s">
         <v>459</v>
       </c>
-      <c r="B297" t="s">
-        <v>460</v>
-      </c>
       <c r="C297" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D297" t="s">
         <v>7</v>
@@ -6524,13 +6943,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>460</v>
+      </c>
+      <c r="B298" t="s">
         <v>461</v>
       </c>
-      <c r="B298" t="s">
-        <v>462</v>
-      </c>
       <c r="C298" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D298" t="s">
         <v>7</v>
@@ -6538,13 +6957,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>462</v>
+      </c>
+      <c r="B299" t="s">
         <v>463</v>
       </c>
-      <c r="B299" t="s">
-        <v>464</v>
-      </c>
       <c r="C299" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D299" t="s">
         <v>7</v>
@@ -6552,13 +6971,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
+        <v>464</v>
+      </c>
+      <c r="B300" t="s">
         <v>465</v>
       </c>
-      <c r="B300" t="s">
-        <v>466</v>
-      </c>
       <c r="C300" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D300" t="s">
         <v>7</v>
@@ -6566,13 +6985,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>466</v>
+      </c>
+      <c r="B301" t="s">
         <v>467</v>
       </c>
-      <c r="B301" t="s">
-        <v>468</v>
-      </c>
       <c r="C301" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D301" t="s">
         <v>7</v>
@@ -6580,41 +6999,41 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
+        <v>468</v>
+      </c>
+      <c r="B302" t="s">
         <v>469</v>
       </c>
-      <c r="B302" t="s">
-        <v>470</v>
-      </c>
       <c r="C302" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D302" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
+        <v>470</v>
+      </c>
+      <c r="B303" t="s">
         <v>471</v>
       </c>
-      <c r="B303" t="s">
-        <v>472</v>
-      </c>
       <c r="C303" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D303" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
+        <v>472</v>
+      </c>
+      <c r="B304" t="s">
         <v>473</v>
       </c>
-      <c r="B304" t="s">
-        <v>474</v>
-      </c>
       <c r="C304" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D304" t="s">
         <v>7</v>
@@ -6622,13 +7041,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
+        <v>474</v>
+      </c>
+      <c r="B305" t="s">
         <v>475</v>
       </c>
-      <c r="B305" t="s">
-        <v>476</v>
-      </c>
       <c r="C305" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D305" t="s">
         <v>7</v>
@@ -6636,13 +7055,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>476</v>
+      </c>
+      <c r="B306" t="s">
         <v>477</v>
       </c>
-      <c r="B306" t="s">
-        <v>478</v>
-      </c>
       <c r="C306" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D306" t="s">
         <v>7</v>
@@ -6650,41 +7069,41 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
+        <v>478</v>
+      </c>
+      <c r="B307" t="s">
         <v>479</v>
       </c>
-      <c r="B307" t="s">
-        <v>480</v>
-      </c>
       <c r="C307" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D307" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
+        <v>480</v>
+      </c>
+      <c r="B308" t="s">
         <v>481</v>
       </c>
-      <c r="B308" t="s">
-        <v>482</v>
-      </c>
       <c r="C308" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D308" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
+        <v>482</v>
+      </c>
+      <c r="B309" t="s">
         <v>483</v>
       </c>
-      <c r="B309" t="s">
-        <v>484</v>
-      </c>
       <c r="C309" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D309" t="s">
         <v>7</v>
@@ -6692,13 +7111,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
+        <v>484</v>
+      </c>
+      <c r="B310" t="s">
         <v>485</v>
       </c>
-      <c r="B310" t="s">
-        <v>486</v>
-      </c>
       <c r="C310" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D310" t="s">
         <v>7</v>
@@ -6706,13 +7125,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
+        <v>486</v>
+      </c>
+      <c r="B311" t="s">
         <v>487</v>
       </c>
-      <c r="B311" t="s">
-        <v>488</v>
-      </c>
       <c r="C311" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D311" t="s">
         <v>7</v>
@@ -6720,13 +7139,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
+        <v>488</v>
+      </c>
+      <c r="B312" t="s">
         <v>489</v>
       </c>
-      <c r="B312" t="s">
-        <v>490</v>
-      </c>
       <c r="C312" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D312" t="s">
         <v>7</v>
@@ -6734,13 +7153,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
+        <v>490</v>
+      </c>
+      <c r="B313" t="s">
         <v>491</v>
       </c>
-      <c r="B313" t="s">
-        <v>492</v>
-      </c>
       <c r="C313" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D313" t="s">
         <v>7</v>
@@ -6748,13 +7167,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
+        <v>492</v>
+      </c>
+      <c r="B314" t="s">
         <v>493</v>
       </c>
-      <c r="B314" t="s">
-        <v>494</v>
-      </c>
       <c r="C314" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D314" t="s">
         <v>7</v>
@@ -6762,13 +7181,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
+        <v>494</v>
+      </c>
+      <c r="B315" t="s">
         <v>495</v>
       </c>
-      <c r="B315" t="s">
-        <v>496</v>
-      </c>
       <c r="C315" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D315" t="s">
         <v>7</v>
@@ -6776,13 +7195,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>496</v>
+      </c>
+      <c r="B316" t="s">
         <v>497</v>
       </c>
-      <c r="B316" t="s">
-        <v>498</v>
-      </c>
       <c r="C316" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D316" t="s">
         <v>7</v>
@@ -6790,27 +7209,27 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>498</v>
+      </c>
+      <c r="B317" t="s">
         <v>499</v>
       </c>
-      <c r="B317" t="s">
-        <v>500</v>
-      </c>
       <c r="C317" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D317" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
+        <v>500</v>
+      </c>
+      <c r="B318" t="s">
         <v>501</v>
       </c>
-      <c r="B318" t="s">
-        <v>502</v>
-      </c>
       <c r="C318" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D318" t="s">
         <v>7</v>
@@ -6818,13 +7237,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>502</v>
+      </c>
+      <c r="B319" t="s">
         <v>503</v>
       </c>
-      <c r="B319" t="s">
-        <v>504</v>
-      </c>
       <c r="C319" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D319" t="s">
         <v>7</v>
@@ -6832,251 +7251,251 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
+        <v>504</v>
+      </c>
+      <c r="B320" t="s">
         <v>505</v>
       </c>
-      <c r="B320" t="s">
-        <v>506</v>
-      </c>
       <c r="C320" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D320" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>506</v>
+      </c>
+      <c r="B321" t="s">
         <v>507</v>
       </c>
-      <c r="B321" t="s">
-        <v>508</v>
-      </c>
       <c r="C321" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D321" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B322" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C322" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D322" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
+        <v>509</v>
+      </c>
+      <c r="B323" t="s">
         <v>510</v>
       </c>
-      <c r="B323" t="s">
-        <v>511</v>
-      </c>
       <c r="C323" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D323" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>511</v>
+      </c>
+      <c r="B324" t="s">
         <v>512</v>
       </c>
-      <c r="B324" t="s">
-        <v>513</v>
-      </c>
       <c r="C324" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D324" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>513</v>
+      </c>
+      <c r="B325" t="s">
         <v>514</v>
       </c>
-      <c r="B325" t="s">
-        <v>515</v>
-      </c>
       <c r="C325" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D325" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>515</v>
+      </c>
+      <c r="B326" t="s">
         <v>516</v>
       </c>
-      <c r="B326" t="s">
-        <v>517</v>
-      </c>
       <c r="C326" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D326" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>517</v>
+      </c>
+      <c r="B327" t="s">
         <v>518</v>
       </c>
-      <c r="B327" t="s">
-        <v>519</v>
-      </c>
       <c r="C327" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D327" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>519</v>
+      </c>
+      <c r="B328" t="s">
         <v>520</v>
       </c>
-      <c r="B328" t="s">
-        <v>521</v>
-      </c>
       <c r="C328" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D328" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>521</v>
+      </c>
+      <c r="B329" t="s">
         <v>522</v>
       </c>
-      <c r="B329" t="s">
-        <v>523</v>
-      </c>
       <c r="C329" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D329" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>523</v>
+      </c>
+      <c r="B330" t="s">
         <v>524</v>
       </c>
-      <c r="B330" t="s">
-        <v>525</v>
-      </c>
       <c r="C330" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D330" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
+        <v>525</v>
+      </c>
+      <c r="B331" t="s">
         <v>526</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
+        <v>337</v>
+      </c>
+      <c r="D331" t="s">
         <v>527</v>
-      </c>
-      <c r="C331" t="s">
-        <v>338</v>
-      </c>
-      <c r="D331" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>528</v>
+      </c>
+      <c r="B332" t="s">
         <v>529</v>
       </c>
-      <c r="B332" t="s">
-        <v>530</v>
-      </c>
       <c r="C332" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D332" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>530</v>
+      </c>
+      <c r="B333" t="s">
         <v>531</v>
       </c>
-      <c r="B333" t="s">
-        <v>532</v>
-      </c>
       <c r="C333" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D333" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>532</v>
+      </c>
+      <c r="B334" t="s">
         <v>533</v>
       </c>
-      <c r="B334" t="s">
-        <v>534</v>
-      </c>
       <c r="C334" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D334" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>534</v>
+      </c>
+      <c r="B335" t="s">
         <v>535</v>
       </c>
-      <c r="B335" t="s">
-        <v>536</v>
-      </c>
       <c r="C335" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D335" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>536</v>
+      </c>
+      <c r="B336" t="s">
         <v>537</v>
       </c>
-      <c r="B336" t="s">
-        <v>538</v>
-      </c>
       <c r="C336" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D336" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
+        <v>538</v>
+      </c>
+      <c r="B337" t="s">
         <v>539</v>
       </c>
-      <c r="B337" t="s">
-        <v>540</v>
-      </c>
       <c r="C337" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
@@ -7084,13 +7503,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
+        <v>540</v>
+      </c>
+      <c r="B338" t="s">
         <v>541</v>
       </c>
-      <c r="B338" t="s">
-        <v>542</v>
-      </c>
       <c r="C338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
@@ -7098,13 +7517,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>542</v>
+      </c>
+      <c r="B339" t="s">
         <v>543</v>
       </c>
-      <c r="B339" t="s">
-        <v>544</v>
-      </c>
       <c r="C339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D339" t="s">
         <v>7</v>
@@ -7112,83 +7531,83 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
+        <v>544</v>
+      </c>
+      <c r="B340" t="s">
         <v>545</v>
       </c>
-      <c r="B340" t="s">
-        <v>546</v>
-      </c>
       <c r="C340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D340" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>546</v>
+      </c>
+      <c r="B341" t="s">
         <v>547</v>
       </c>
-      <c r="B341" t="s">
-        <v>548</v>
-      </c>
       <c r="C341" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D341" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
+        <v>548</v>
+      </c>
+      <c r="B342" t="s">
         <v>549</v>
       </c>
-      <c r="B342" t="s">
-        <v>550</v>
-      </c>
       <c r="C342" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D342" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
+        <v>550</v>
+      </c>
+      <c r="B343" t="s">
         <v>551</v>
       </c>
-      <c r="B343" t="s">
-        <v>552</v>
-      </c>
       <c r="C343" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D343" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>552</v>
+      </c>
+      <c r="B344" t="s">
         <v>553</v>
       </c>
-      <c r="B344" t="s">
-        <v>554</v>
-      </c>
       <c r="C344" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D344" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>554</v>
+      </c>
+      <c r="B345" t="s">
         <v>555</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>556</v>
-      </c>
-      <c r="C345" t="s">
-        <v>557</v>
       </c>
       <c r="D345" t="s">
         <v>7</v>
@@ -7196,13 +7615,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
+        <v>557</v>
+      </c>
+      <c r="B346" t="s">
         <v>558</v>
       </c>
-      <c r="B346" t="s">
-        <v>559</v>
-      </c>
       <c r="C346" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -7210,13 +7629,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
+        <v>559</v>
+      </c>
+      <c r="B347" t="s">
         <v>560</v>
       </c>
-      <c r="B347" t="s">
-        <v>561</v>
-      </c>
       <c r="C347" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D347" t="s">
         <v>7</v>
@@ -7224,13 +7643,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>561</v>
+      </c>
+      <c r="B348" t="s">
         <v>562</v>
       </c>
-      <c r="B348" t="s">
-        <v>563</v>
-      </c>
       <c r="C348" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D348" t="s">
         <v>7</v>
@@ -7238,55 +7657,55 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
+        <v>563</v>
+      </c>
+      <c r="B349" t="s">
         <v>564</v>
       </c>
-      <c r="B349" t="s">
-        <v>565</v>
-      </c>
       <c r="C349" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D349" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
+        <v>565</v>
+      </c>
+      <c r="B350" t="s">
         <v>566</v>
       </c>
-      <c r="B350" t="s">
-        <v>567</v>
-      </c>
       <c r="C350" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D350" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
+        <v>567</v>
+      </c>
+      <c r="B351" t="s">
         <v>568</v>
       </c>
-      <c r="B351" t="s">
-        <v>569</v>
-      </c>
       <c r="C351" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D351" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>569</v>
+      </c>
+      <c r="B352" t="s">
         <v>570</v>
       </c>
-      <c r="B352" t="s">
-        <v>571</v>
-      </c>
       <c r="C352" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D352" t="s">
         <v>14</v>
@@ -7294,13 +7713,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>571</v>
+      </c>
+      <c r="B353" t="s">
         <v>572</v>
       </c>
-      <c r="B353" t="s">
-        <v>573</v>
-      </c>
       <c r="C353" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D353" t="s">
         <v>14</v>
@@ -7308,13 +7727,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>573</v>
+      </c>
+      <c r="B354" t="s">
         <v>574</v>
       </c>
-      <c r="B354" t="s">
-        <v>575</v>
-      </c>
       <c r="C354" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D354" t="s">
         <v>14</v>
@@ -7322,13 +7741,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
+        <v>575</v>
+      </c>
+      <c r="B355" t="s">
         <v>576</v>
       </c>
-      <c r="B355" t="s">
-        <v>577</v>
-      </c>
       <c r="C355" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D355" t="s">
         <v>14</v>
@@ -7336,13 +7755,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>577</v>
+      </c>
+      <c r="B356" t="s">
         <v>578</v>
       </c>
-      <c r="B356" t="s">
-        <v>579</v>
-      </c>
       <c r="C356" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D356" t="s">
         <v>14</v>
@@ -7350,69 +7769,69 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
+        <v>579</v>
+      </c>
+      <c r="B357" t="s">
         <v>580</v>
       </c>
-      <c r="B357" t="s">
-        <v>581</v>
-      </c>
       <c r="C357" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D357" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>581</v>
+      </c>
+      <c r="B358" t="s">
         <v>582</v>
       </c>
-      <c r="B358" t="s">
-        <v>583</v>
-      </c>
       <c r="C358" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D358" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
+        <v>583</v>
+      </c>
+      <c r="B359" t="s">
         <v>584</v>
       </c>
-      <c r="B359" t="s">
-        <v>585</v>
-      </c>
       <c r="C359" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D359" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
+        <v>585</v>
+      </c>
+      <c r="B360" t="s">
         <v>586</v>
       </c>
-      <c r="B360" t="s">
-        <v>587</v>
-      </c>
       <c r="C360" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D360" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
+        <v>587</v>
+      </c>
+      <c r="B361" t="s">
         <v>588</v>
       </c>
-      <c r="B361" t="s">
-        <v>589</v>
-      </c>
       <c r="C361" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D361" t="s">
         <v>7</v>
@@ -7420,13 +7839,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
+        <v>589</v>
+      </c>
+      <c r="B362" t="s">
         <v>590</v>
       </c>
-      <c r="B362" t="s">
-        <v>591</v>
-      </c>
       <c r="C362" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D362" t="s">
         <v>7</v>
@@ -7434,13 +7853,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
+        <v>591</v>
+      </c>
+      <c r="B363" t="s">
         <v>592</v>
       </c>
-      <c r="B363" t="s">
-        <v>593</v>
-      </c>
       <c r="C363" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
@@ -7448,13 +7867,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
+        <v>593</v>
+      </c>
+      <c r="B364" t="s">
         <v>594</v>
       </c>
-      <c r="B364" t="s">
-        <v>595</v>
-      </c>
       <c r="C364" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D364" t="s">
         <v>7</v>
@@ -7462,240 +7881,718 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
+        <v>595</v>
+      </c>
+      <c r="B365" t="s">
         <v>596</v>
       </c>
-      <c r="B365" t="s">
-        <v>597</v>
-      </c>
       <c r="C365" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D365" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
+        <v>597</v>
+      </c>
+      <c r="B366" t="s">
         <v>598</v>
       </c>
-      <c r="B366" t="s">
-        <v>599</v>
-      </c>
       <c r="C366" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D366" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
+        <v>599</v>
+      </c>
+      <c r="B367" t="s">
         <v>600</v>
       </c>
-      <c r="B367" t="s">
-        <v>601</v>
-      </c>
       <c r="C367" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D367" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
+        <v>601</v>
+      </c>
+      <c r="B368" t="s">
         <v>602</v>
       </c>
-      <c r="B368" t="s">
-        <v>603</v>
-      </c>
       <c r="C368" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D368" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
+        <v>603</v>
+      </c>
+      <c r="B369" t="s">
         <v>604</v>
       </c>
-      <c r="B369" t="s">
-        <v>605</v>
-      </c>
       <c r="C369" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D369" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
+        <v>605</v>
+      </c>
+      <c r="B370" t="s">
+        <v>606</v>
+      </c>
+      <c r="C370" t="s">
         <v>607</v>
       </c>
-      <c r="B370" t="s">
-        <v>608</v>
-      </c>
-      <c r="C370" t="s">
-        <v>609</v>
-      </c>
       <c r="D370" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B371" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C371" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D371" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B372" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C372" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D372" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
+        <v>612</v>
+      </c>
+      <c r="B373" t="s">
+        <v>613</v>
+      </c>
+      <c r="C373" t="s">
+        <v>607</v>
+      </c>
+      <c r="D373" t="s">
         <v>614</v>
-      </c>
-      <c r="B373" t="s">
-        <v>615</v>
-      </c>
-      <c r="C373" t="s">
-        <v>609</v>
-      </c>
-      <c r="D373" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
+        <v>615</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C374" t="s">
         <v>617</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="D374" t="s">
         <v>618</v>
-      </c>
-      <c r="C374" t="s">
-        <v>619</v>
-      </c>
-      <c r="D374" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B375" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C375" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D375" t="s">
-        <v>625</v>
+        <v>7</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B376" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C376" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D376" t="s">
-        <v>625</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B377" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C377" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D377" t="s">
-        <v>625</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B378" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C378" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D378" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B379" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C379" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D379" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B380" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C380" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D380" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
+        <v>631</v>
+      </c>
+      <c r="B381" t="s">
+        <v>632</v>
+      </c>
+      <c r="C381" t="s">
+        <v>607</v>
+      </c>
+      <c r="D381" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>634</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B382" t="s">
         <v>635</v>
       </c>
-      <c r="C381" t="s">
-        <v>609</v>
-      </c>
-      <c r="D381" t="s">
-        <v>616</v>
+      <c r="C382" t="s">
+        <v>636</v>
+      </c>
+      <c r="D382" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>638</v>
+      </c>
+      <c r="B383" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>640</v>
+      </c>
+      <c r="B384" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>642</v>
+      </c>
+      <c r="B385" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>644</v>
+      </c>
+      <c r="B386" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>646</v>
+      </c>
+      <c r="B387" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>648</v>
+      </c>
+      <c r="B388" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>649</v>
+      </c>
+      <c r="B389" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>652</v>
+      </c>
+      <c r="B390" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>654</v>
+      </c>
+      <c r="B391" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>659</v>
+      </c>
+      <c r="B392" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>656</v>
+      </c>
+      <c r="B393" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>660</v>
+      </c>
+      <c r="B394" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>662</v>
+      </c>
+      <c r="B395" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>664</v>
+      </c>
+      <c r="B396" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>666</v>
+      </c>
+      <c r="B397" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>669</v>
+      </c>
+      <c r="B398" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>668</v>
+      </c>
+      <c r="B399" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>672</v>
+      </c>
+      <c r="B400" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>674</v>
+      </c>
+      <c r="B401" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>676</v>
+      </c>
+      <c r="B402" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>678</v>
+      </c>
+      <c r="B403" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>680</v>
+      </c>
+      <c r="B404" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>682</v>
+      </c>
+      <c r="B405" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>684</v>
+      </c>
+      <c r="B406" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>686</v>
+      </c>
+      <c r="B407" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>688</v>
+      </c>
+      <c r="B408" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>690</v>
+      </c>
+      <c r="B409" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>692</v>
+      </c>
+      <c r="B410" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>694</v>
+      </c>
+      <c r="B411" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>696</v>
+      </c>
+      <c r="B412" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>698</v>
+      </c>
+      <c r="B413" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>700</v>
+      </c>
+      <c r="B414" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>702</v>
+      </c>
+      <c r="B415" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>704</v>
+      </c>
+      <c r="B416" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>706</v>
+      </c>
+      <c r="B417" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>708</v>
+      </c>
+      <c r="B418" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>710</v>
+      </c>
+      <c r="B419" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>712</v>
+      </c>
+      <c r="B420" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>714</v>
+      </c>
+      <c r="B421" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>716</v>
+      </c>
+      <c r="B422" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>718</v>
+      </c>
+      <c r="B423" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>720</v>
+      </c>
+      <c r="B424" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>722</v>
+      </c>
+      <c r="B425" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>724</v>
+      </c>
+      <c r="B426" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>726</v>
+      </c>
+      <c r="B427" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>728</v>
+      </c>
+      <c r="B428" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>730</v>
+      </c>
+      <c r="B429" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>732</v>
+      </c>
+      <c r="B430" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>734</v>
+      </c>
+      <c r="B431" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>736</v>
+      </c>
+      <c r="B432" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>738</v>
+      </c>
+      <c r="B433" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>740</v>
+      </c>
+      <c r="B434" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>742</v>
+      </c>
+      <c r="B435" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>744</v>
+      </c>
+      <c r="B436" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>746</v>
+      </c>
+      <c r="B437" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>748</v>
+      </c>
+      <c r="B438" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>750</v>
+      </c>
+      <c r="B439" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>752</v>
+      </c>
+      <c r="B440" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="818">
   <si>
     <t>질문</t>
   </si>
@@ -2399,6 +2399,230 @@
   </si>
   <si>
     <t>조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑</t>
+  </si>
+  <si>
+    <t>돋울 도, 끌어낼 도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑發</t>
+  </si>
+  <si>
+    <t>도발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑戰</t>
+  </si>
+  <si>
+    <t>도전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑戰者</t>
+  </si>
+  <si>
+    <t>도전자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃</t>
+  </si>
+  <si>
+    <t>도망할 도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃亡</t>
+  </si>
+  <si>
+    <t>도망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃走</t>
+  </si>
+  <si>
+    <t>도주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃避</t>
+  </si>
+  <si>
+    <t>도피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避</t>
+  </si>
+  <si>
+    <t>피할 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可避</t>
+  </si>
+  <si>
+    <t>불가피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走馬看山</t>
+  </si>
+  <si>
+    <t>주마간산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>지탱할 지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>지지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支配</t>
+  </si>
+  <si>
+    <t>지배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支給</t>
+  </si>
+  <si>
+    <t>지급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>給與</t>
+  </si>
+  <si>
+    <t>齒亡脣亦支</t>
+  </si>
+  <si>
+    <t>치망순역지, 「이가 없으면 잇몸으로 산다.」는 속담(俗談)의 한역(漢譯)으로, 있던 것이 없어져서 불편(不便)하더라도 없는 대로 참고 살아간다는 말.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默</t>
+  </si>
+  <si>
+    <t>잠잠할 묵, 고요할 묵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈默</t>
+  </si>
+  <si>
+    <t>침묵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默認</t>
+  </si>
+  <si>
+    <t>묵인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默殺</t>
+  </si>
+  <si>
+    <t>묵살</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默念</t>
+  </si>
+  <si>
+    <t>묵념</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默默不答</t>
+  </si>
+  <si>
+    <t>묵묵부답</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟</t>
+  </si>
+  <si>
+    <t>맹세 맹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同盟</t>
+  </si>
+  <si>
+    <t>동맹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟誓</t>
+  </si>
+  <si>
+    <t>맹세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟邦</t>
+  </si>
+  <si>
+    <t>맹방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金石盟約</t>
+  </si>
+  <si>
+    <t>금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓約</t>
+  </si>
+  <si>
+    <t>서약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓約書</t>
+  </si>
+  <si>
+    <t>서약서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓言</t>
+  </si>
+  <si>
+    <t>서언</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2774,11 +2998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D440"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A441" sqref="A441"/>
+      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8138,6 +8362,12 @@
       <c r="B383" t="s">
         <v>639</v>
       </c>
+      <c r="C383" t="s">
+        <v>636</v>
+      </c>
+      <c r="D383" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
@@ -8146,453 +8376,1243 @@
       <c r="B384" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C384" t="s">
+        <v>636</v>
+      </c>
+      <c r="D384" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>642</v>
       </c>
       <c r="B385" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C385" t="s">
+        <v>636</v>
+      </c>
+      <c r="D385" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>644</v>
       </c>
       <c r="B386" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C386" t="s">
+        <v>636</v>
+      </c>
+      <c r="D386" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>646</v>
       </c>
       <c r="B387" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C387" t="s">
+        <v>636</v>
+      </c>
+      <c r="D387" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>648</v>
       </c>
       <c r="B388" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C388" t="s">
+        <v>636</v>
+      </c>
+      <c r="D388" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>649</v>
       </c>
       <c r="B389" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C389" t="s">
+        <v>636</v>
+      </c>
+      <c r="D389" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>652</v>
       </c>
       <c r="B390" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C390" t="s">
+        <v>636</v>
+      </c>
+      <c r="D390" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>654</v>
       </c>
       <c r="B391" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C391" t="s">
+        <v>636</v>
+      </c>
+      <c r="D391" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>659</v>
       </c>
       <c r="B392" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C392" t="s">
+        <v>636</v>
+      </c>
+      <c r="D392" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>656</v>
       </c>
       <c r="B393" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C393" t="s">
+        <v>636</v>
+      </c>
+      <c r="D393" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>660</v>
       </c>
       <c r="B394" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C394" t="s">
+        <v>636</v>
+      </c>
+      <c r="D394" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>662</v>
       </c>
       <c r="B395" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C395" t="s">
+        <v>636</v>
+      </c>
+      <c r="D395" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>664</v>
       </c>
       <c r="B396" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C396" t="s">
+        <v>636</v>
+      </c>
+      <c r="D396" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>666</v>
       </c>
       <c r="B397" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C397" t="s">
+        <v>636</v>
+      </c>
+      <c r="D397" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>669</v>
       </c>
       <c r="B398" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C398" t="s">
+        <v>636</v>
+      </c>
+      <c r="D398" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>668</v>
       </c>
       <c r="B399" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C399" t="s">
+        <v>636</v>
+      </c>
+      <c r="D399" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>672</v>
       </c>
       <c r="B400" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C400" t="s">
+        <v>636</v>
+      </c>
+      <c r="D400" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>674</v>
       </c>
       <c r="B401" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C401" t="s">
+        <v>636</v>
+      </c>
+      <c r="D401" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>676</v>
       </c>
       <c r="B402" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C402" t="s">
+        <v>636</v>
+      </c>
+      <c r="D402" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>678</v>
       </c>
       <c r="B403" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C403" t="s">
+        <v>636</v>
+      </c>
+      <c r="D403" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>680</v>
       </c>
       <c r="B404" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C404" t="s">
+        <v>636</v>
+      </c>
+      <c r="D404" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>682</v>
       </c>
       <c r="B405" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C405" t="s">
+        <v>636</v>
+      </c>
+      <c r="D405" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>684</v>
       </c>
       <c r="B406" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C406" t="s">
+        <v>636</v>
+      </c>
+      <c r="D406" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>686</v>
       </c>
       <c r="B407" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C407" t="s">
+        <v>636</v>
+      </c>
+      <c r="D407" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>688</v>
       </c>
       <c r="B408" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C408" t="s">
+        <v>636</v>
+      </c>
+      <c r="D408" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>690</v>
       </c>
       <c r="B409" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C409" t="s">
+        <v>636</v>
+      </c>
+      <c r="D409" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>692</v>
       </c>
       <c r="B410" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C410" t="s">
+        <v>636</v>
+      </c>
+      <c r="D410" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>694</v>
       </c>
       <c r="B411" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C411" t="s">
+        <v>636</v>
+      </c>
+      <c r="D411" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>696</v>
       </c>
       <c r="B412" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C412" t="s">
+        <v>636</v>
+      </c>
+      <c r="D412" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>698</v>
       </c>
       <c r="B413" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C413" t="s">
+        <v>636</v>
+      </c>
+      <c r="D413" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>700</v>
       </c>
       <c r="B414" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C414" t="s">
+        <v>636</v>
+      </c>
+      <c r="D414" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>702</v>
       </c>
       <c r="B415" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C415" t="s">
+        <v>636</v>
+      </c>
+      <c r="D415" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>704</v>
       </c>
       <c r="B416" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C416" t="s">
+        <v>636</v>
+      </c>
+      <c r="D416" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>706</v>
       </c>
       <c r="B417" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C417" t="s">
+        <v>636</v>
+      </c>
+      <c r="D417" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>708</v>
       </c>
       <c r="B418" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C418" t="s">
+        <v>636</v>
+      </c>
+      <c r="D418" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>710</v>
       </c>
       <c r="B419" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C419" t="s">
+        <v>636</v>
+      </c>
+      <c r="D419" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>712</v>
       </c>
       <c r="B420" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C420" t="s">
+        <v>636</v>
+      </c>
+      <c r="D420" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>714</v>
       </c>
       <c r="B421" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C421" t="s">
+        <v>636</v>
+      </c>
+      <c r="D421" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>716</v>
       </c>
       <c r="B422" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C422" t="s">
+        <v>636</v>
+      </c>
+      <c r="D422" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>718</v>
       </c>
       <c r="B423" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C423" t="s">
+        <v>636</v>
+      </c>
+      <c r="D423" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>720</v>
       </c>
       <c r="B424" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C424" t="s">
+        <v>636</v>
+      </c>
+      <c r="D424" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>722</v>
       </c>
       <c r="B425" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C425" t="s">
+        <v>636</v>
+      </c>
+      <c r="D425" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>724</v>
       </c>
       <c r="B426" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C426" t="s">
+        <v>636</v>
+      </c>
+      <c r="D426" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>726</v>
       </c>
       <c r="B427" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C427" t="s">
+        <v>636</v>
+      </c>
+      <c r="D427" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>728</v>
       </c>
       <c r="B428" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C428" t="s">
+        <v>636</v>
+      </c>
+      <c r="D428" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>730</v>
       </c>
       <c r="B429" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C429" t="s">
+        <v>636</v>
+      </c>
+      <c r="D429" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>732</v>
       </c>
       <c r="B430" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C430" t="s">
+        <v>636</v>
+      </c>
+      <c r="D430" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>734</v>
       </c>
       <c r="B431" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C431" t="s">
+        <v>636</v>
+      </c>
+      <c r="D431" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>736</v>
       </c>
       <c r="B432" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C432" t="s">
+        <v>636</v>
+      </c>
+      <c r="D432" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>738</v>
       </c>
       <c r="B433" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C433" t="s">
+        <v>636</v>
+      </c>
+      <c r="D433" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>740</v>
       </c>
       <c r="B434" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C434" t="s">
+        <v>636</v>
+      </c>
+      <c r="D434" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>742</v>
       </c>
       <c r="B435" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C435" t="s">
+        <v>636</v>
+      </c>
+      <c r="D435" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>744</v>
       </c>
       <c r="B436" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C436" t="s">
+        <v>636</v>
+      </c>
+      <c r="D436" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>746</v>
       </c>
       <c r="B437" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C437" t="s">
+        <v>636</v>
+      </c>
+      <c r="D437" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>748</v>
       </c>
       <c r="B438" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C438" t="s">
+        <v>636</v>
+      </c>
+      <c r="D438" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>750</v>
       </c>
       <c r="B439" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C439" t="s">
+        <v>636</v>
+      </c>
+      <c r="D439" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>752</v>
       </c>
       <c r="B440" t="s">
         <v>753</v>
+      </c>
+      <c r="C440" t="s">
+        <v>636</v>
+      </c>
+      <c r="D440" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>754</v>
+      </c>
+      <c r="B441" t="s">
+        <v>755</v>
+      </c>
+      <c r="C441" t="s">
+        <v>636</v>
+      </c>
+      <c r="D441" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>756</v>
+      </c>
+      <c r="B442" t="s">
+        <v>757</v>
+      </c>
+      <c r="C442" t="s">
+        <v>636</v>
+      </c>
+      <c r="D442" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>758</v>
+      </c>
+      <c r="B443" t="s">
+        <v>759</v>
+      </c>
+      <c r="C443" t="s">
+        <v>636</v>
+      </c>
+      <c r="D443" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>760</v>
+      </c>
+      <c r="B444" t="s">
+        <v>761</v>
+      </c>
+      <c r="C444" t="s">
+        <v>636</v>
+      </c>
+      <c r="D444" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>762</v>
+      </c>
+      <c r="B445" t="s">
+        <v>763</v>
+      </c>
+      <c r="C445" t="s">
+        <v>636</v>
+      </c>
+      <c r="D445" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>764</v>
+      </c>
+      <c r="B446" t="s">
+        <v>765</v>
+      </c>
+      <c r="C446" t="s">
+        <v>636</v>
+      </c>
+      <c r="D446" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>766</v>
+      </c>
+      <c r="B447" t="s">
+        <v>767</v>
+      </c>
+      <c r="C447" t="s">
+        <v>636</v>
+      </c>
+      <c r="D447" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>768</v>
+      </c>
+      <c r="B448" t="s">
+        <v>769</v>
+      </c>
+      <c r="C448" t="s">
+        <v>636</v>
+      </c>
+      <c r="D448" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>770</v>
+      </c>
+      <c r="B449" t="s">
+        <v>771</v>
+      </c>
+      <c r="C449" t="s">
+        <v>636</v>
+      </c>
+      <c r="D449" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>772</v>
+      </c>
+      <c r="B450" t="s">
+        <v>773</v>
+      </c>
+      <c r="C450" t="s">
+        <v>636</v>
+      </c>
+      <c r="D450" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>774</v>
+      </c>
+      <c r="B451" t="s">
+        <v>775</v>
+      </c>
+      <c r="C451" t="s">
+        <v>636</v>
+      </c>
+      <c r="D451" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>776</v>
+      </c>
+      <c r="B452" t="s">
+        <v>777</v>
+      </c>
+      <c r="C452" t="s">
+        <v>636</v>
+      </c>
+      <c r="D452" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>778</v>
+      </c>
+      <c r="B453" t="s">
+        <v>779</v>
+      </c>
+      <c r="C453" t="s">
+        <v>636</v>
+      </c>
+      <c r="D453" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>780</v>
+      </c>
+      <c r="B454" t="s">
+        <v>781</v>
+      </c>
+      <c r="C454" t="s">
+        <v>636</v>
+      </c>
+      <c r="D454" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>782</v>
+      </c>
+      <c r="B455" t="s">
+        <v>783</v>
+      </c>
+      <c r="C455" t="s">
+        <v>636</v>
+      </c>
+      <c r="D455" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>784</v>
+      </c>
+      <c r="B456" t="s">
+        <v>785</v>
+      </c>
+      <c r="C456" t="s">
+        <v>636</v>
+      </c>
+      <c r="D456" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>786</v>
+      </c>
+      <c r="B457" t="s">
+        <v>817</v>
+      </c>
+      <c r="C457" t="s">
+        <v>636</v>
+      </c>
+      <c r="D457" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>787</v>
+      </c>
+      <c r="B458" t="s">
+        <v>788</v>
+      </c>
+      <c r="C458" t="s">
+        <v>636</v>
+      </c>
+      <c r="D458" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>789</v>
+      </c>
+      <c r="B459" t="s">
+        <v>790</v>
+      </c>
+      <c r="C459" t="s">
+        <v>636</v>
+      </c>
+      <c r="D459" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>791</v>
+      </c>
+      <c r="B460" t="s">
+        <v>792</v>
+      </c>
+      <c r="C460" t="s">
+        <v>636</v>
+      </c>
+      <c r="D460" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>793</v>
+      </c>
+      <c r="B461" t="s">
+        <v>794</v>
+      </c>
+      <c r="C461" t="s">
+        <v>636</v>
+      </c>
+      <c r="D461" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>795</v>
+      </c>
+      <c r="B462" t="s">
+        <v>796</v>
+      </c>
+      <c r="C462" t="s">
+        <v>636</v>
+      </c>
+      <c r="D462" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>797</v>
+      </c>
+      <c r="B463" t="s">
+        <v>798</v>
+      </c>
+      <c r="C463" t="s">
+        <v>636</v>
+      </c>
+      <c r="D463" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>799</v>
+      </c>
+      <c r="B464" t="s">
+        <v>800</v>
+      </c>
+      <c r="C464" t="s">
+        <v>636</v>
+      </c>
+      <c r="D464" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>801</v>
+      </c>
+      <c r="B465" t="s">
+        <v>802</v>
+      </c>
+      <c r="C465" t="s">
+        <v>636</v>
+      </c>
+      <c r="D465" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>803</v>
+      </c>
+      <c r="B466" t="s">
+        <v>804</v>
+      </c>
+      <c r="C466" t="s">
+        <v>636</v>
+      </c>
+      <c r="D466" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>805</v>
+      </c>
+      <c r="B467" t="s">
+        <v>806</v>
+      </c>
+      <c r="C467" t="s">
+        <v>636</v>
+      </c>
+      <c r="D467" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>807</v>
+      </c>
+      <c r="B468" t="s">
+        <v>808</v>
+      </c>
+      <c r="C468" t="s">
+        <v>636</v>
+      </c>
+      <c r="D468" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>809</v>
+      </c>
+      <c r="B469" t="s">
+        <v>810</v>
+      </c>
+      <c r="C469" t="s">
+        <v>636</v>
+      </c>
+      <c r="D469" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>811</v>
+      </c>
+      <c r="B470" t="s">
+        <v>812</v>
+      </c>
+      <c r="C470" t="s">
+        <v>636</v>
+      </c>
+      <c r="D470" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>813</v>
+      </c>
+      <c r="B471" t="s">
+        <v>814</v>
+      </c>
+      <c r="C471" t="s">
+        <v>636</v>
+      </c>
+      <c r="D471" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>815</v>
+      </c>
+      <c r="B472" t="s">
+        <v>816</v>
+      </c>
+      <c r="C472" t="s">
+        <v>636</v>
+      </c>
+      <c r="D472" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -3001,8 +3001,8 @@
   <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B457" sqref="B457"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D473" sqref="A473:D477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="905">
   <si>
     <t>질문</t>
   </si>
@@ -1461,9 +1461,6 @@
   </si>
   <si>
     <t>捷徑</t>
-  </si>
-  <si>
-    <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
   </si>
   <si>
     <t>經路</t>
@@ -2963,6 +2960,71 @@
   </si>
   <si>
     <t>형식적인 인사 차림이 너무 과함을 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첩경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤孑單身</t>
+  </si>
+  <si>
+    <t>고혈단신, 혈육(血肉)이 없는 외로운 신세(身世).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨杵作針</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨斧作針</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마부작침, (=마저작침)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百尺竿頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백척간두, 「백 자나 되는 높은 장대 위에 올라섰다.」는 뜻으로, 위태(危殆)로움이 극도(極度)에 달함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輾轉反側</t>
+  </si>
+  <si>
+    <t>錦衣夜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전전반측, 1. 「이리 뒤척 저리 뒤척 한다.」는 뜻으로,
+2. 걱정거리로 마음이 괴로워 잠을 이루지 못함을 이르는 말.
+3. 원래(原來)는 「미인(美人)을 사모(思慕)하여 잠을 이루지 못함.」을 이르는 표현(表現)임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금의야행, 1. 「비단옷(緋緞-)을 입고 밤길을 간다.」는 뜻으로,
+2. 아무 보람없는 행동(行動)을 비유(比喩ㆍ譬喩)하여 이르는 말.
+3. 또는 입신출세(立身出世)하여 고향(故鄕)으로 돌아가지 않음을 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三旬九食</t>
+  </si>
+  <si>
+    <t>삼순구식, 「삼순, 곧 한 달에 아홉 번 밥을 먹는다.」는 뜻으로, 집안이 가난하여 먹을 것이 없어 굶주린다는 말.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3366,12 +3428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C511"/>
+  <dimension ref="A1:C518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B512" sqref="B512"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3392,7 +3453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3403,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3414,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3425,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3433,10 +3494,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3444,10 +3505,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3455,10 +3516,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3466,10 +3527,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3477,10 +3538,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3491,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3502,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -3513,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -3524,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -3535,7 +3596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -3546,7 +3607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3557,7 +3618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3568,7 +3629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -3579,7 +3640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3590,7 +3651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -3601,7 +3662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -3612,7 +3673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -3623,7 +3684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -3634,7 +3695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -3645,7 +3706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -3700,7 +3761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -3711,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -3722,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -3733,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -3744,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -3755,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -3766,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -3777,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -3788,7 +3849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -3799,7 +3860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -3810,7 +3871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -3821,7 +3882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -3832,7 +3893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -3843,7 +3904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -3854,7 +3915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -3865,7 +3926,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,7 +3937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -3887,7 +3948,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -3898,7 +3959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,7 +3970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -3920,7 +3981,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
@@ -3931,7 +3992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
@@ -3942,7 +4003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -3953,7 +4014,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -3964,7 +4025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -3975,7 +4036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
@@ -3986,7 +4047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -3997,7 +4058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>99</v>
       </c>
@@ -4008,7 +4069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>100</v>
       </c>
@@ -4019,7 +4080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
@@ -4030,7 +4091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
@@ -4041,7 +4102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>103</v>
       </c>
@@ -4052,7 +4113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -4063,7 +4124,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
@@ -4074,7 +4135,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
@@ -4085,7 +4146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
@@ -4096,7 +4157,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>108</v>
       </c>
@@ -4107,7 +4168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>109</v>
       </c>
@@ -4118,7 +4179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>110</v>
       </c>
@@ -4129,7 +4190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>111</v>
       </c>
@@ -4140,7 +4201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>113</v>
       </c>
@@ -4151,7 +4212,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
@@ -4162,7 +4223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>115</v>
       </c>
@@ -4173,7 +4234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
@@ -4184,7 +4245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
@@ -4195,7 +4256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>118</v>
       </c>
@@ -4206,7 +4267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -4217,7 +4278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -4228,7 +4289,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
@@ -4239,7 +4300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
@@ -4250,7 +4311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
@@ -4261,7 +4322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>124</v>
       </c>
@@ -4272,7 +4333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
@@ -4283,7 +4344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
@@ -4294,7 +4355,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>127</v>
       </c>
@@ -4305,7 +4366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
@@ -4316,7 +4377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>129</v>
       </c>
@@ -4327,7 +4388,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>130</v>
       </c>
@@ -4338,7 +4399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
@@ -4349,7 +4410,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>132</v>
       </c>
@@ -4360,7 +4421,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>133</v>
       </c>
@@ -4371,7 +4432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>134</v>
       </c>
@@ -4382,7 +4443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>135</v>
       </c>
@@ -4393,7 +4454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>136</v>
       </c>
@@ -4404,7 +4465,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>137</v>
       </c>
@@ -4415,7 +4476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>138</v>
       </c>
@@ -4426,7 +4487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>139</v>
       </c>
@@ -4437,7 +4498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>140</v>
       </c>
@@ -4448,7 +4509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>141</v>
       </c>
@@ -4459,7 +4520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>142</v>
       </c>
@@ -4470,7 +4531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>143</v>
       </c>
@@ -4481,7 +4542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>144</v>
       </c>
@@ -4492,7 +4553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>145</v>
       </c>
@@ -4503,7 +4564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>146</v>
       </c>
@@ -4514,7 +4575,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>147</v>
       </c>
@@ -4525,7 +4586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>148</v>
       </c>
@@ -4536,7 +4597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>149</v>
       </c>
@@ -4547,7 +4608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>150</v>
       </c>
@@ -4558,7 +4619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>151</v>
       </c>
@@ -4569,7 +4630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>152</v>
       </c>
@@ -4580,7 +4641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>153</v>
       </c>
@@ -4591,7 +4652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>154</v>
       </c>
@@ -4602,7 +4663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>155</v>
       </c>
@@ -4613,7 +4674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>156</v>
       </c>
@@ -4624,7 +4685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>157</v>
       </c>
@@ -4635,7 +4696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>158</v>
       </c>
@@ -4646,7 +4707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>159</v>
       </c>
@@ -4657,7 +4718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>160</v>
       </c>
@@ -4668,7 +4729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -4679,7 +4740,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
@@ -4690,7 +4751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>163</v>
       </c>
@@ -4701,7 +4762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>164</v>
       </c>
@@ -4712,7 +4773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>165</v>
       </c>
@@ -4723,7 +4784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>166</v>
       </c>
@@ -4734,7 +4795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>167</v>
       </c>
@@ -4745,7 +4806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>168</v>
       </c>
@@ -4756,7 +4817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>169</v>
       </c>
@@ -4767,7 +4828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>170</v>
       </c>
@@ -4778,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>171</v>
       </c>
@@ -4789,7 +4850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>172</v>
       </c>
@@ -4800,7 +4861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>173</v>
       </c>
@@ -4811,7 +4872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -4822,7 +4883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>175</v>
       </c>
@@ -4833,7 +4894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>176</v>
       </c>
@@ -4844,7 +4905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>177</v>
       </c>
@@ -4855,7 +4916,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>178</v>
       </c>
@@ -4866,7 +4927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>179</v>
       </c>
@@ -4877,7 +4938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>180</v>
       </c>
@@ -4888,7 +4949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>181</v>
       </c>
@@ -4899,7 +4960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>182</v>
       </c>
@@ -4910,7 +4971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>183</v>
       </c>
@@ -4921,7 +4982,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>184</v>
       </c>
@@ -4932,7 +4993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>185</v>
       </c>
@@ -4943,7 +5004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>186</v>
       </c>
@@ -4954,7 +5015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>187</v>
       </c>
@@ -4965,7 +5026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>188</v>
       </c>
@@ -4976,7 +5037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>189</v>
       </c>
@@ -4987,7 +5048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>190</v>
       </c>
@@ -4998,7 +5059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>191</v>
       </c>
@@ -5009,7 +5070,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>192</v>
       </c>
@@ -5020,7 +5081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>193</v>
       </c>
@@ -5031,7 +5092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>194</v>
       </c>
@@ -5042,7 +5103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>195</v>
       </c>
@@ -5053,7 +5114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>196</v>
       </c>
@@ -5064,7 +5125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>197</v>
       </c>
@@ -5075,7 +5136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>199</v>
       </c>
@@ -5086,7 +5147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>201</v>
       </c>
@@ -5097,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>203</v>
       </c>
@@ -5105,10 +5166,10 @@
         <v>204</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>205</v>
       </c>
@@ -5116,10 +5177,10 @@
         <v>206</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>207</v>
       </c>
@@ -5127,10 +5188,10 @@
         <v>208</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>209</v>
       </c>
@@ -5138,10 +5199,10 @@
         <v>210</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>211</v>
       </c>
@@ -5152,18 +5213,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>214</v>
       </c>
@@ -5174,7 +5235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>216</v>
       </c>
@@ -5185,7 +5246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>218</v>
       </c>
@@ -5196,7 +5257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>220</v>
       </c>
@@ -5207,7 +5268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>222</v>
       </c>
@@ -5218,7 +5279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>224</v>
       </c>
@@ -5229,7 +5290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>226</v>
       </c>
@@ -5240,7 +5301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>228</v>
       </c>
@@ -5251,7 +5312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>230</v>
       </c>
@@ -5262,7 +5323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>232</v>
       </c>
@@ -5270,10 +5331,10 @@
         <v>233</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>234</v>
       </c>
@@ -5281,10 +5342,10 @@
         <v>235</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>236</v>
       </c>
@@ -5292,10 +5353,10 @@
         <v>237</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>238</v>
       </c>
@@ -5303,10 +5364,10 @@
         <v>239</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>240</v>
       </c>
@@ -5317,7 +5378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>242</v>
       </c>
@@ -5328,7 +5389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>244</v>
       </c>
@@ -5339,7 +5400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>246</v>
       </c>
@@ -5350,7 +5411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
@@ -5361,7 +5422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>250</v>
       </c>
@@ -5372,7 +5433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>252</v>
       </c>
@@ -5383,7 +5444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>254</v>
       </c>
@@ -5394,7 +5455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>256</v>
       </c>
@@ -5405,7 +5466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>258</v>
       </c>
@@ -5416,7 +5477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>260</v>
       </c>
@@ -5427,7 +5488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>262</v>
       </c>
@@ -5438,7 +5499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>264</v>
       </c>
@@ -5449,7 +5510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>266</v>
       </c>
@@ -5460,7 +5521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>268</v>
       </c>
@@ -5471,7 +5532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>270</v>
       </c>
@@ -5482,7 +5543,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>272</v>
       </c>
@@ -5493,7 +5554,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>273</v>
       </c>
@@ -5504,7 +5565,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>274</v>
       </c>
@@ -5515,7 +5576,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>275</v>
       </c>
@@ -5526,7 +5587,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>276</v>
       </c>
@@ -5537,7 +5598,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>277</v>
       </c>
@@ -5548,7 +5609,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>278</v>
       </c>
@@ -5559,7 +5620,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>279</v>
       </c>
@@ -5570,7 +5631,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>280</v>
       </c>
@@ -5581,7 +5642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
@@ -5592,7 +5653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>284</v>
       </c>
@@ -5603,7 +5664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>286</v>
       </c>
@@ -5614,7 +5675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>288</v>
       </c>
@@ -5625,7 +5686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>290</v>
       </c>
@@ -5636,7 +5697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>292</v>
       </c>
@@ -5647,7 +5708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>294</v>
       </c>
@@ -5658,7 +5719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>296</v>
       </c>
@@ -5669,7 +5730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>298</v>
       </c>
@@ -5680,7 +5741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>300</v>
       </c>
@@ -5691,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>302</v>
       </c>
@@ -5702,7 +5763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>304</v>
       </c>
@@ -5713,7 +5774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>305</v>
       </c>
@@ -5724,7 +5785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>306</v>
       </c>
@@ -5735,7 +5796,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>307</v>
       </c>
@@ -5746,7 +5807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>308</v>
       </c>
@@ -5757,7 +5818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>309</v>
       </c>
@@ -5768,7 +5829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>310</v>
       </c>
@@ -5779,7 +5840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>311</v>
       </c>
@@ -5790,7 +5851,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>312</v>
       </c>
@@ -5801,7 +5862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>313</v>
       </c>
@@ -5812,7 +5873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>314</v>
       </c>
@@ -5823,7 +5884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>315</v>
       </c>
@@ -5834,7 +5895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>316</v>
       </c>
@@ -5845,7 +5906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>317</v>
       </c>
@@ -5856,7 +5917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>318</v>
       </c>
@@ -5867,7 +5928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>319</v>
       </c>
@@ -5878,7 +5939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>320</v>
       </c>
@@ -5889,7 +5950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>321</v>
       </c>
@@ -5900,7 +5961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>322</v>
       </c>
@@ -5911,7 +5972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>323</v>
       </c>
@@ -5922,7 +5983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>324</v>
       </c>
@@ -5933,7 +5994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>325</v>
       </c>
@@ -5944,7 +6005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>326</v>
       </c>
@@ -5955,7 +6016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>327</v>
       </c>
@@ -5966,7 +6027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>328</v>
       </c>
@@ -5977,7 +6038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>330</v>
       </c>
@@ -5988,7 +6049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>332</v>
       </c>
@@ -5999,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>334</v>
       </c>
@@ -6010,7 +6071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>336</v>
       </c>
@@ -6021,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>338</v>
       </c>
@@ -6032,7 +6093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>340</v>
       </c>
@@ -6043,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>342</v>
       </c>
@@ -6054,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>344</v>
       </c>
@@ -6065,7 +6126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>346</v>
       </c>
@@ -6076,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>348</v>
       </c>
@@ -6087,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>350</v>
       </c>
@@ -6098,7 +6159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>352</v>
       </c>
@@ -6109,7 +6170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>354</v>
       </c>
@@ -6120,7 +6181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>356</v>
       </c>
@@ -6131,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>358</v>
       </c>
@@ -6142,7 +6203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>360</v>
       </c>
@@ -6153,7 +6214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>362</v>
       </c>
@@ -6164,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>364</v>
       </c>
@@ -6175,7 +6236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>366</v>
       </c>
@@ -6186,7 +6247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>368</v>
       </c>
@@ -6197,7 +6258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>370</v>
       </c>
@@ -6208,7 +6269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>372</v>
       </c>
@@ -6219,7 +6280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>374</v>
       </c>
@@ -6230,7 +6291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>376</v>
       </c>
@@ -6241,7 +6302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>378</v>
       </c>
@@ -6252,7 +6313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>380</v>
       </c>
@@ -6263,7 +6324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>382</v>
       </c>
@@ -6274,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>384</v>
       </c>
@@ -6285,7 +6346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>386</v>
       </c>
@@ -6296,7 +6357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>388</v>
       </c>
@@ -6307,7 +6368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>390</v>
       </c>
@@ -6318,7 +6379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>392</v>
       </c>
@@ -6329,7 +6390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>394</v>
       </c>
@@ -6340,7 +6401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>396</v>
       </c>
@@ -6351,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>398</v>
       </c>
@@ -6362,7 +6423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>400</v>
       </c>
@@ -6373,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>402</v>
       </c>
@@ -6384,7 +6445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>404</v>
       </c>
@@ -6395,7 +6456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>406</v>
       </c>
@@ -6406,7 +6467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>408</v>
       </c>
@@ -6417,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>410</v>
       </c>
@@ -6428,7 +6489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>412</v>
       </c>
@@ -6439,7 +6500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>414</v>
       </c>
@@ -6450,7 +6511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>416</v>
       </c>
@@ -6461,7 +6522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>418</v>
       </c>
@@ -6472,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>420</v>
       </c>
@@ -6483,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>422</v>
       </c>
@@ -6494,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>424</v>
       </c>
@@ -6505,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>426</v>
       </c>
@@ -6516,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>428</v>
       </c>
@@ -6527,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>430</v>
       </c>
@@ -6538,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>432</v>
       </c>
@@ -6549,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>434</v>
       </c>
@@ -6560,7 +6621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>436</v>
       </c>
@@ -6571,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>438</v>
       </c>
@@ -6582,7 +6643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>440</v>
       </c>
@@ -6593,7 +6654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>442</v>
       </c>
@@ -6604,7 +6665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>444</v>
       </c>
@@ -6615,7 +6676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>446</v>
       </c>
@@ -6626,7 +6687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>448</v>
       </c>
@@ -6637,7 +6698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>450</v>
       </c>
@@ -6648,7 +6709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>452</v>
       </c>
@@ -6659,7 +6720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>454</v>
       </c>
@@ -6670,7 +6731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>456</v>
       </c>
@@ -6681,7 +6742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>458</v>
       </c>
@@ -6692,7 +6753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>460</v>
       </c>
@@ -6703,7 +6764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>462</v>
       </c>
@@ -6714,7 +6775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>464</v>
       </c>
@@ -6725,7 +6786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>466</v>
       </c>
@@ -6736,7 +6797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>468</v>
       </c>
@@ -6747,7 +6808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>470</v>
       </c>
@@ -6758,7 +6819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>472</v>
       </c>
@@ -6769,7 +6830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>474</v>
       </c>
@@ -6780,529 +6841,529 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+      <c r="B313" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="B321" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C324" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="B325" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="C325" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="B327" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="B330" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C330" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="B335" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="B337" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C346" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+      <c r="B349" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="C355" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="C356" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>55</v>
@@ -7310,10 +7371,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>55</v>
@@ -7321,10 +7382,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>55</v>
@@ -7332,87 +7393,87 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B361" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C361" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="C362" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C362" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C363" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="B364" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C364" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C365" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C366" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>5</v>
@@ -7420,1596 +7481,1667 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="C369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C370" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="C371" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C371" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="C372" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C372" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="C373" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="C374" s="1" t="s">
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="C375" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C375" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="B376" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="C376" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C376" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="B377" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="C377" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C377" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C378" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="B379" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="C379" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C379" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="B380" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="C380" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="C381" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="C382" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C382" s="1" t="s">
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="C383" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C383" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="B384" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="C384" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C384" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+      <c r="B385" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="C385" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C385" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="C386" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C386" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="C387" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="B388" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B389" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C388" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+      <c r="B390" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="C390" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C390" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="C391" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="B393" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="C394" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C394" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="C395" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C395" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="B396" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="C396" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+      <c r="B397" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="C397" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C397" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B398" s="1" t="s">
+      <c r="B399" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C398" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B399" s="1" t="s">
+      <c r="C399" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C399" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="B400" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="C400" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C400" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+      <c r="B401" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="C401" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C401" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="B402" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="C402" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C402" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+      <c r="B403" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="C403" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C403" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="B404" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="C404" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C404" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+      <c r="B405" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="C405" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C405" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="B406" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="C406" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C406" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+      <c r="B407" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="C407" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C407" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="C408" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C408" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+      <c r="B409" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="C409" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C409" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+      <c r="B410" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="C410" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C410" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+      <c r="B411" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="C411" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C411" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+      <c r="B412" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="C412" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C412" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+      <c r="B413" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="C413" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C413" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+      <c r="B414" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="C414" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C414" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+      <c r="B415" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="C415" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C415" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="B416" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="C416" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C416" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
+      <c r="B417" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="C417" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C417" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+      <c r="B418" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="C418" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C418" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+      <c r="B419" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="C419" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C419" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+      <c r="B420" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="C420" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C420" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="1" t="s">
+      <c r="B421" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="C421" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C421" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+      <c r="B422" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="C422" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C422" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+      <c r="B423" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="C423" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C423" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+      <c r="B424" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="C424" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C424" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
+      <c r="B425" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="C425" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C425" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+      <c r="B426" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="C426" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C426" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
+      <c r="B427" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="C427" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C427" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+      <c r="B428" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="C428" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C428" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="1" t="s">
+      <c r="B429" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="C429" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C429" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+      <c r="B430" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="C430" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C430" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="C431" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C431" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+      <c r="B432" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="C432" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C432" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="1" t="s">
+      <c r="B433" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="C433" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C433" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+      <c r="B434" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="C434" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C434" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
+      <c r="B435" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="C435" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C435" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="C436" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C436" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C437" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C437" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="C438" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C438" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C439" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C439" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C440" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C440" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C441" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C441" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="C442" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C442" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="C443" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C443" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="C444" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C444" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="C445" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C445" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="C446" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C446" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="C447" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C447" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="C448" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C448" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="C449" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C449" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="C450" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C450" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="C451" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C451" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C452" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="C453" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C453" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="C454" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C454" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="C455" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C455" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="C456" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C456" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
+      <c r="B457" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="C458" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C458" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="C459" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C459" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
+      <c r="B460" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="C460" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C460" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
+      <c r="B461" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="C461" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C461" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="C462" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C462" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="1" t="s">
+      <c r="B463" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="C463" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C463" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
+      <c r="B464" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="C464" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C464" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
+      <c r="B465" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="C465" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C465" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
+      <c r="B466" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="C466" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C466" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="1" t="s">
+      <c r="B467" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="C467" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C467" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
+      <c r="B468" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="C468" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C468" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="1" t="s">
+      <c r="B469" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="C469" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C469" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
+      <c r="B470" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="C470" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C470" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="1" t="s">
+      <c r="B471" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="C471" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C471" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+      <c r="B472" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>800</v>
-      </c>
       <c r="C472" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="C473" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C473" s="1" t="s">
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+      <c r="B474" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="C474" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C474" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+      <c r="B475" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="C475" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C475" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+      <c r="B476" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="C476" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C476" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="1" t="s">
+      <c r="B477" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="C477" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C477" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
+      <c r="B478" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B479" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C478" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="C480" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C480" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>823</v>
-      </c>
       <c r="C481" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="C482" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>827</v>
-      </c>
       <c r="C483" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="C484" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="B485" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="C486" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C486" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="1" t="s">
+      <c r="B487" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="C487" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C487" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
+      <c r="B488" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="C488" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C488" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
+      <c r="B489" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="C489" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C489" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
+      <c r="B490" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="C490" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C490" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="1" t="s">
+      <c r="B491" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="C491" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C491" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
+      <c r="B492" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="C492" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C492" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="C493" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C493" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
+      <c r="B494" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>850</v>
-      </c>
       <c r="C494" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="C495" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="B496" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B496" s="1" t="s">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C496" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="1" t="s">
+      <c r="B497" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="C497" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="C497" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="2" t="s">
+      <c r="B498" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="C498" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C498" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
+      <c r="B499" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>861</v>
-      </c>
       <c r="C499" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B500" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B500" s="1" t="s">
-        <v>865</v>
-      </c>
       <c r="C500" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
+      <c r="B504" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="C504" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C504" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
+      <c r="B505" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="C505" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C505" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="C506" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C506" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="C507" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>879</v>
-      </c>
       <c r="C508" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B509" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>881</v>
-      </c>
       <c r="C509" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>883</v>
-      </c>
       <c r="C510" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>885</v>
-      </c>
       <c r="C511" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C511">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="속담"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C511"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$511</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$562</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1071">
   <si>
     <t>질문</t>
   </si>
@@ -2242,14 +2242,6 @@
   </si>
   <si>
     <t>회자정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>규정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3027,12 +3019,654 @@
     <t>삼순구식, 「삼순, 곧 한 달에 아홉 번 밥을 먹는다.」는 뜻으로, 집안이 가난하여 먹을 것이 없어 굶주린다는 말.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>正否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規則</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定</t>
+  </si>
+  <si>
+    <t>일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出給</t>
+  </si>
+  <si>
+    <t>출급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行爲</t>
+  </si>
+  <si>
+    <t>행위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約束</t>
+  </si>
+  <si>
+    <t>약속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟約</t>
+  </si>
+  <si>
+    <t>맹약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救助</t>
+  </si>
+  <si>
+    <t>구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一貫</t>
+  </si>
+  <si>
+    <t>일관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權不十年</t>
+  </si>
+  <si>
+    <t>권불십년, 1. 「권세(權勢)는 10년을 넘지 못한다.」는 뜻으로,
+2. 권력(權力)은 오래가지 못하고 늘 변(變)함.
+3. 또는 영화(榮華)는 일시적(一時的)이어서 계속(繼續)되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勢不十年</t>
+  </si>
+  <si>
+    <t>세불십년, 1. 「권세(權勢)는 10년을 넘지 못한다.」는 뜻으로,
+2. 권력(權力)은 오래가지 못하고 늘 변(變)함.
+3. 또는 영화(榮華)는 일시적(一時的)이어서 계속(繼續)되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花無十日紅</t>
+  </si>
+  <si>
+    <t>화무십일홍, 1. 「열흘 붉은 꽃이 없다.」는 뜻으로,
+2. 「한 번 성한 것이 얼마 못 가서 반드시 쇠(衰)하여짐.」을 이르는 말.
+3. 권세(權勢)나 세력(勢力)의 성(盛)함이 오래 가지 않는다는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內憂外患</t>
+  </si>
+  <si>
+    <t>내우외환, 「내부(內部)에서 일어나는 근심과 외부(外部)로부터 받는 근심」이란 뜻으로, 나라 안팎의 여러 가지 어려운 사태(事態)를 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界萬邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계만방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界</t>
+  </si>
+  <si>
+    <t>경계 계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邦</t>
+  </si>
+  <si>
+    <t>나라 방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子孫</t>
+  </si>
+  <si>
+    <t>자손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣告</t>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬代</t>
+  </si>
+  <si>
+    <t>만대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신할 대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐</t>
+  </si>
+  <si>
+    <t>칠 벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類</t>
+  </si>
+  <si>
+    <t>인류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誥</t>
+  </si>
+  <si>
+    <t>平等</t>
+  </si>
+  <si>
+    <t>평등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같을 등, 무리 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>민족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大義</t>
+  </si>
+  <si>
+    <t>대의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自存</t>
+  </si>
+  <si>
+    <t>자존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自尊</t>
+  </si>
+  <si>
+    <t>自尊心</t>
+  </si>
+  <si>
+    <t>자존심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自存性</t>
+  </si>
+  <si>
+    <t>자존성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存</t>
+  </si>
+  <si>
+    <t>있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊</t>
+  </si>
+  <si>
+    <t>높을 존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克明</t>
+  </si>
+  <si>
+    <t>극명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이길 극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正權</t>
+  </si>
+  <si>
+    <t>정권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政權</t>
+  </si>
+  <si>
+    <t>정권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永有</t>
+  </si>
+  <si>
+    <t>영유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길 영, 오랠 영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알릴 고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨우칠 고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>지금 차, 이 차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得隴望蜀</t>
+  </si>
+  <si>
+    <t>득롱망촉, 「농(隴)나라를 얻고 나니 촉(蜀)나라를 갖고 싶다.」는 뜻으로, 인간(人間)의 욕심(欲心ㆍ慾心)은 한이 없음을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矯角殺牛</t>
+  </si>
+  <si>
+    <t>교각살우, 「쇠뿔을 바로 잡으려다 소를 죽인다.」 라는 뜻으로, 결점(缺點)이나 흠을 고치려다 수단(手段)이 지나쳐 도리어 일을 그르침.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡羊補牢</t>
+  </si>
+  <si>
+    <t>망양보뢰, 1. 「양(羊)을 잃고서 그 우리를 고친다.」는 뜻으로,
+2. 실패(失敗)한 후(後)에 일을 대비(對備)함.
+3. 이미 어떤 일을 실패(失敗)한 뒤에 뉘우쳐도 소용이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 가는 데 소도 간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남이 하는 일이면 저도 노력하여 능히 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>얻을 득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得失</t>
+  </si>
+  <si>
+    <t>득실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得意揚揚</t>
+  </si>
+  <si>
+    <t>득의양양, 바라던 일이 이루어져서 우쭐거리며 뽐냄.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一擧兩得</t>
+  </si>
+  <si>
+    <t>일거양득, 한 가지의 일로 두 가지의 이익(利益)을 보는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種豆得豆</t>
+  </si>
+  <si>
+    <t>종두득두, 「콩을 심어 콩을 얻는다.」는 뜻으로, 원인(原因)에 따라 결과(結果)가 생긴다는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望蜀之歎</t>
+  </si>
+  <si>
+    <t>망촉지탄, 「촉(蜀) 땅을 얻고 싶어 하는 탄식(歎息ㆍ嘆息)」이라는 뜻으로, 인간(人間)의 욕심(慾心)은 한이 없음을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螳</t>
+  </si>
+  <si>
+    <t>사마귀 당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螳螂之斧</t>
+  </si>
+  <si>
+    <r>
+      <t>당랑지부, 「사마귀가 넓적한 앞다리를 쳐드는 모습이 마치 도끼를 휘두르는 것 같다.」는 뜻으로, 자기(自己) 힘을 생각지 않고 강적(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敵) 앞에서 분수(分數)없이 날뛰는 것에 비유(比喩ㆍ譬喩)해서 씀.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒</t>
+  </si>
+  <si>
+    <t>막을 거, 물리칠 거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒否</t>
+  </si>
+  <si>
+    <t>거부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒絶</t>
+  </si>
+  <si>
+    <t>거절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>빛 색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來者勿拒</t>
+  </si>
+  <si>
+    <t>내자물거,「오는 사람을 막지 말라」는 뜻으로, 자유(自由) 의사(意思)에 맡기라는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로잡을 교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矯正</t>
+  </si>
+  <si>
+    <t>교정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校訂</t>
+  </si>
+  <si>
+    <t>校</t>
+  </si>
+  <si>
+    <t>학교 교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로잡을 정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矯導官</t>
+  </si>
+  <si>
+    <t>교도관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矯枉過直</t>
+  </si>
+  <si>
+    <t>교왕과직, 「구부러진 것을 바로잡으려다가 너무 곧게 한다.」는 뜻으로, 잘못을 바로잡으려다 지나쳐 오히려 일을 그르침을 이름.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽을 왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>視角</t>
+  </si>
+  <si>
+    <t>시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿔 각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角逐</t>
+  </si>
+  <si>
+    <t>각축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝸角之爭</t>
+  </si>
+  <si>
+    <t>와각지쟁, 1. 「달팽이의 촉각(觸角) 위에서 싸운다.」는 뜻으로
+2. 작은 나라끼리의 싸움.
+3. 하찮은 일로 승강이하는 짓.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角者無齒</t>
+  </si>
+  <si>
+    <t>각자무치, 「뿔이 있는 놈은 이가 없다.」는 뜻으로, 한 사람이 모든 복(福)을 겸하지는 못함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺生</t>
+  </si>
+  <si>
+    <t>살생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺身成仁</t>
+  </si>
+  <si>
+    <t>살신성인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상쇄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺</t>
+  </si>
+  <si>
+    <t>죽일 살, 감할 쇄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺到</t>
+  </si>
+  <si>
+    <t>쇄도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殺菌</t>
+  </si>
+  <si>
+    <t>살균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3069,6 +3703,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3125,7 +3767,13 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3428,11 +4076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C518"/>
+  <dimension ref="A1:C594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C518" sqref="C518"/>
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A582" sqref="A582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3494,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3505,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3516,7 +4164,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3527,7 +4175,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3538,7 +4186,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5166,7 +5814,7 @@
         <v>204</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -5177,7 +5825,7 @@
         <v>206</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -5188,7 +5836,7 @@
         <v>208</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -5199,7 +5847,7 @@
         <v>210</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -5218,7 +5866,7 @@
         <v>213</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
@@ -5331,7 +5979,7 @@
         <v>233</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -5342,7 +5990,7 @@
         <v>235</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -5353,7 +6001,7 @@
         <v>237</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -5364,7 +6012,7 @@
         <v>239</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -6846,7 +7494,7 @@
         <v>476</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>5</v>
@@ -7052,7 +7700,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>512</v>
@@ -7080,7 +7728,7 @@
         <v>516</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -7091,7 +7739,7 @@
         <v>518</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -7102,7 +7750,7 @@
         <v>520</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -7113,7 +7761,7 @@
         <v>522</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -7179,7 +7827,7 @@
         <v>534</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -7190,7 +7838,7 @@
         <v>536</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -7201,7 +7849,7 @@
         <v>538</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -7212,7 +7860,7 @@
         <v>540</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -7223,7 +7871,7 @@
         <v>542</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -7311,7 +7959,7 @@
         <v>558</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -7322,7 +7970,7 @@
         <v>560</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -7333,7 +7981,7 @@
         <v>562</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -7344,7 +7992,7 @@
         <v>564</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -7355,7 +8003,7 @@
         <v>566</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -7404,7 +8052,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>575</v>
@@ -7550,7 +8198,7 @@
         <v>601</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>602</v>
@@ -8452,7 +9100,7 @@
         <v>767</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>600</v>
@@ -8460,10 +9108,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>600</v>
@@ -8625,24 +9273,24 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>600</v>
+        <v>804</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -8653,7 +9301,7 @@
         <v>808</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -8664,7 +9312,7 @@
         <v>810</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -8675,7 +9323,7 @@
         <v>812</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -8683,32 +9331,32 @@
         <v>813</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>818</v>
-      </c>
       <c r="C478" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -8719,7 +9367,7 @@
         <v>820</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -8730,7 +9378,7 @@
         <v>822</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -8741,7 +9389,7 @@
         <v>824</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -8752,7 +9400,7 @@
         <v>826</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -8763,18 +9411,18 @@
         <v>828</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -8785,7 +9433,7 @@
         <v>833</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -8796,7 +9444,7 @@
         <v>835</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -8807,7 +9455,7 @@
         <v>837</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -8818,7 +9466,7 @@
         <v>839</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -8829,7 +9477,7 @@
         <v>841</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -8840,7 +9488,7 @@
         <v>843</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -8851,7 +9499,7 @@
         <v>845</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -8862,18 +9510,18 @@
         <v>847</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -8884,7 +9532,7 @@
         <v>852</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -8895,40 +9543,40 @@
         <v>854</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
         <v>855</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>856</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
         <v>857</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>858</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -8936,43 +9584,43 @@
         <v>863</v>
       </c>
       <c r="B500" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C500" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
+      <c r="B501" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B502" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C501" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>887</v>
-      </c>
       <c r="C502" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>888</v>
-      </c>
       <c r="C503" s="1" t="s">
-        <v>831</v>
+        <v>600</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -9005,18 +9653,18 @@
         <v>873</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>600</v>
+        <v>874</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>876</v>
+        <v>602</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -9054,24 +9702,24 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>602</v>
+        <v>890</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C512" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -9082,7 +9730,7 @@
         <v>894</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -9093,36 +9741,36 @@
         <v>896</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B515" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C515" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="B516" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="C516" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" s="1" t="s">
         <v>902</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -9137,12 +9785,851 @@
         <v>904</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>600</v>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C511"/>
+  <autoFilter ref="A1:C562"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -1370,9 +1370,6 @@
     <t>세금</t>
   </si>
   <si>
-    <t>血洗</t>
-  </si>
-  <si>
     <t>혈세</t>
   </si>
   <si>
@@ -3660,6 +3657,9 @@
   <si>
     <t>살균</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血稅</t>
   </si>
 </sst>
 </file>
@@ -4079,8 +4079,8 @@
   <dimension ref="A1:C594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A582" sqref="A582"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4142,7 +4142,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4153,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4164,7 +4164,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4175,7 +4175,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5814,7 +5814,7 @@
         <v>204</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -5825,7 +5825,7 @@
         <v>206</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -5836,7 +5836,7 @@
         <v>208</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -5847,7 +5847,7 @@
         <v>210</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -5866,7 +5866,7 @@
         <v>213</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
@@ -5979,7 +5979,7 @@
         <v>233</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>235</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -6001,7 +6001,7 @@
         <v>237</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -6012,7 +6012,7 @@
         <v>239</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -7326,10 +7326,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>5</v>
@@ -7337,10 +7337,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>5</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>5</v>
@@ -7359,10 +7359,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>5</v>
@@ -7370,10 +7370,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>5</v>
@@ -7381,10 +7381,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>5</v>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>5</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>5</v>
@@ -7414,10 +7414,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>5</v>
@@ -7425,10 +7425,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>5</v>
@@ -7436,10 +7436,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>5</v>
@@ -7447,10 +7447,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>5</v>
@@ -7458,10 +7458,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>5</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>5</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>5</v>
@@ -7491,10 +7491,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>5</v>
@@ -7502,10 +7502,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>5</v>
@@ -7513,10 +7513,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>5</v>
@@ -7524,10 +7524,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>5</v>
@@ -7535,10 +7535,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>5</v>
@@ -7546,10 +7546,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>5</v>
@@ -7557,10 +7557,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>5</v>
@@ -7568,10 +7568,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>5</v>
@@ -7579,10 +7579,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>5</v>
@@ -7590,10 +7590,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>5</v>
@@ -7601,10 +7601,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>5</v>
@@ -7612,10 +7612,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>5</v>
@@ -7623,10 +7623,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>5</v>
@@ -7634,10 +7634,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>5</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>5</v>
@@ -7656,10 +7656,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>5</v>
@@ -7667,10 +7667,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>5</v>
@@ -7678,10 +7678,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>5</v>
@@ -7689,10 +7689,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>5</v>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>5</v>
@@ -7711,10 +7711,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>5</v>
@@ -7722,54 +7722,54 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="C331" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="C332" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="C333" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="C334" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>5</v>
@@ -7777,10 +7777,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>5</v>
@@ -7788,10 +7788,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>5</v>
@@ -7799,10 +7799,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>5</v>
@@ -7810,10 +7810,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
@@ -7821,65 +7821,65 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="C340" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="C341" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="C342" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="C343" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="C344" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>5</v>
@@ -7887,10 +7887,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>5</v>
@@ -7898,10 +7898,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>5</v>
@@ -7909,10 +7909,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>5</v>
@@ -7920,10 +7920,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>5</v>
@@ -7931,10 +7931,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
@@ -7942,10 +7942,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
@@ -7953,65 +7953,65 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="C352" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="C353" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="C354" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="C355" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="C356" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>55</v>
@@ -8019,10 +8019,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>55</v>
@@ -8030,10 +8030,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>55</v>
@@ -8041,10 +8041,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>55</v>
@@ -8052,10 +8052,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>5</v>
@@ -8063,10 +8063,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
@@ -8074,10 +8074,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>5</v>
@@ -8085,10 +8085,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>5</v>
@@ -8096,10 +8096,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>5</v>
@@ -8107,10 +8107,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>5</v>
@@ -8118,10 +8118,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>5</v>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>55</v>
@@ -8140,10 +8140,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>5</v>
@@ -8151,65 +8151,65 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="C370" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="C371" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="C372" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="C373" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>5</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>5</v>
@@ -8228,10 +8228,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>5</v>
@@ -8239,2389 +8239,2389 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="C378" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="C379" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="C380" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="C381" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="C382" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="C383" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="C384" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="C385" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="C386" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="C387" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="C389" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="C390" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="C391" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="C393" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B394" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B394" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="C394" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B395" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="C395" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="C396" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="C397" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="C398" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="C400" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="C401" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="C402" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B403" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="C403" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>664</v>
-      </c>
       <c r="C404" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="C405" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="C406" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="C407" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="C408" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B409" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="C409" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B410" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="C410" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B411" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="C411" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="C412" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="C413" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B414" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="C414" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B415" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="C415" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="C416" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="C417" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="C418" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="C419" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="C420" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B421" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B421" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="C421" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="C422" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="C423" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="C424" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B425" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="C425" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B426" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>708</v>
-      </c>
       <c r="C426" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="C427" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="C428" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>714</v>
-      </c>
       <c r="C429" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="C430" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="C431" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B432" s="1" t="s">
-        <v>720</v>
-      </c>
       <c r="C432" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="C433" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B434" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="C434" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="C435" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B436" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="C436" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B437" s="1" t="s">
-        <v>730</v>
-      </c>
       <c r="C437" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B438" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="C438" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="C439" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="C440" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="C441" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="C442" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="C443" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="C444" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="C445" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="C446" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="C447" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>752</v>
-      </c>
       <c r="C448" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="C449" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>756</v>
-      </c>
       <c r="C450" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="C451" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>760</v>
-      </c>
       <c r="C452" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="C453" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B454" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="C454" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>766</v>
-      </c>
       <c r="C455" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="C457" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>771</v>
-      </c>
       <c r="C458" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>773</v>
-      </c>
       <c r="C459" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="C460" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="C461" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B462" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="C462" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B463" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="C463" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B464" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>783</v>
-      </c>
       <c r="C464" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B465" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B465" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="C465" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>787</v>
-      </c>
       <c r="C466" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B467" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>789</v>
-      </c>
       <c r="C467" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="C468" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B469" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B469" s="1" t="s">
-        <v>793</v>
-      </c>
       <c r="C469" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B470" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>795</v>
-      </c>
       <c r="C470" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>797</v>
-      </c>
       <c r="C471" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B472" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="C472" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>806</v>
-      </c>
       <c r="C473" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>808</v>
-      </c>
       <c r="C474" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>810</v>
-      </c>
       <c r="C475" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>812</v>
-      </c>
       <c r="C476" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>815</v>
-      </c>
       <c r="C478" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>818</v>
-      </c>
       <c r="C479" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="C480" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>822</v>
-      </c>
       <c r="C481" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>824</v>
-      </c>
       <c r="C482" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>826</v>
-      </c>
       <c r="C483" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>828</v>
-      </c>
       <c r="C484" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="C485" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>833</v>
-      </c>
       <c r="C486" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>835</v>
-      </c>
       <c r="C487" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>837</v>
-      </c>
       <c r="C488" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>839</v>
-      </c>
       <c r="C489" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>841</v>
-      </c>
       <c r="C490" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="C491" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>845</v>
-      </c>
       <c r="C492" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>847</v>
-      </c>
       <c r="C493" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>850</v>
-      </c>
       <c r="C494" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="B495" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="C495" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B496" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>854</v>
-      </c>
       <c r="C496" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>856</v>
-      </c>
       <c r="C497" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="C498" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="C499" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>867</v>
-      </c>
       <c r="C503" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B504" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>869</v>
-      </c>
       <c r="C504" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B505" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>871</v>
-      </c>
       <c r="C505" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="C506" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B507" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>876</v>
-      </c>
       <c r="C507" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>878</v>
-      </c>
       <c r="C508" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B509" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="C509" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="C510" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="C511" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B512" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>892</v>
-      </c>
       <c r="C512" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B513" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>894</v>
-      </c>
       <c r="C513" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B514" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>896</v>
-      </c>
       <c r="C514" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B517" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="C517" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B518" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="C518" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B519" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="C519" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B520" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>909</v>
-      </c>
       <c r="C520" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B521" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="C521" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B522" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B522" s="1" t="s">
-        <v>913</v>
-      </c>
       <c r="C522" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B523" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="C523" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B524" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B524" s="1" t="s">
-        <v>917</v>
-      </c>
       <c r="C524" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B525" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>919</v>
-      </c>
       <c r="C525" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B526" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="C526" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B527" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="C527" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B528" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>926</v>
-      </c>
       <c r="C528" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B529" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>928</v>
-      </c>
       <c r="C529" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B530" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="C530" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B531" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="C531" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B532" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>935</v>
-      </c>
       <c r="C532" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B533" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>937</v>
-      </c>
       <c r="C533" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B534" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="C534" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B536" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B536" s="1" t="s">
-        <v>944</v>
-      </c>
       <c r="C536" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B537" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="C537" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B538" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="C538" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B539" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="C539" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B540" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B540" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="C540" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B542" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>957</v>
-      </c>
       <c r="C542" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B543" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>959</v>
-      </c>
       <c r="C543" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="C544" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B545" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B545" s="1" t="s">
-        <v>963</v>
-      </c>
       <c r="C545" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B546" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>965</v>
-      </c>
       <c r="C546" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B548" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>968</v>
-      </c>
       <c r="C548" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B549" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="B549" s="1" t="s">
-        <v>970</v>
-      </c>
       <c r="C549" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B550" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>972</v>
-      </c>
       <c r="C550" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B551" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>974</v>
-      </c>
       <c r="C551" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B552" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>976</v>
-      </c>
       <c r="C552" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B553" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B553" s="1" t="s">
-        <v>978</v>
-      </c>
       <c r="C553" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B554" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B554" s="1" t="s">
-        <v>980</v>
-      </c>
       <c r="C554" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B555" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="C555" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B556" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B556" s="1" t="s">
+      <c r="C556" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B557" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B557" s="1" t="s">
+      <c r="C557" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B558" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="C558" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B559" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>995</v>
-      </c>
       <c r="C559" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B560" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B560" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="C560" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B561" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="B561" s="2" t="s">
-        <v>999</v>
-      </c>
       <c r="C561" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B562" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B562" s="1" t="s">
-        <v>1001</v>
-      </c>
       <c r="C562" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B563" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="C563" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B564" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="C564" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B565" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B565" s="1" t="s">
-        <v>1007</v>
-      </c>
       <c r="C565" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B566" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B566" s="1" t="s">
-        <v>1009</v>
-      </c>
       <c r="C566" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B567" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="C567" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B568" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B568" s="1" t="s">
-        <v>1014</v>
-      </c>
       <c r="C568" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B569" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B569" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="C569" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B570" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B570" s="1" t="s">
+      <c r="C570" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="C570" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B571" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B571" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="C571" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B572" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B572" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="C572" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B573" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B573" s="1" t="s">
-        <v>1025</v>
-      </c>
       <c r="C573" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B574" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B574" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="C574" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B575" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B575" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="C575" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B576" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B576" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="C576" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B577" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B577" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="C577" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B579" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B579" s="1" t="s">
-        <v>1036</v>
-      </c>
       <c r="C579" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B580" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B580" s="1" t="s">
+      <c r="C580" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="C580" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B581" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B581" s="1" t="s">
-        <v>1041</v>
-      </c>
       <c r="C581" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B582" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B582" s="1" t="s">
+      <c r="C582" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B583" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B583" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="C583" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B585" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B585" s="1" t="s">
-        <v>1048</v>
-      </c>
       <c r="C585" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B586" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B586" s="1" t="s">
-        <v>1052</v>
-      </c>
       <c r="C586" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B587" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>1054</v>
-      </c>
       <c r="C587" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B588" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B588" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="C588" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B589" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B589" s="1" t="s">
-        <v>1058</v>
-      </c>
       <c r="C589" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B590" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B590" s="1" t="s">
-        <v>1060</v>
-      </c>
       <c r="C590" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B592" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B592" s="1" t="s">
+      <c r="C592" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="C592" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B593" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B593" s="1" t="s">
+      <c r="C593" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="C593" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B594" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>1070</v>
-      </c>
       <c r="C594" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$562</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$599</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1096">
   <si>
     <t>질문</t>
   </si>
@@ -1499,11 +1499,6 @@
     <t>漢江投石</t>
   </si>
   <si>
-    <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
-1) 아무리 도와도 보람이 없는 것
-2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
-  </si>
-  <si>
     <t>嘆/歎</t>
   </si>
   <si>
@@ -1528,11 +1523,6 @@
     <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
   </si>
   <si>
-    <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
-1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
-2) 방침(方針)이 많아 할 바를 모르게 됨</t>
-  </si>
-  <si>
     <t>晩時之歎</t>
   </si>
   <si>
@@ -1542,12 +1532,6 @@
     <t>髀肉之嘆</t>
   </si>
   <si>
-    <t>비육지탄, 
-1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
-2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
-3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
-  </si>
-  <si>
     <t>切齒腐心</t>
   </si>
   <si>
@@ -1581,43 +1565,24 @@
     <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
   </si>
   <si>
-    <t>황후(뜻)</t>
-  </si>
-  <si>
     <t>물건</t>
   </si>
   <si>
-    <t>동난지이(뜻)</t>
-  </si>
-  <si>
     <t>게</t>
   </si>
   <si>
-    <t>쟝스(뜻)</t>
-  </si>
-  <si>
     <t>장사꾼</t>
   </si>
   <si>
-    <t>아리(뜻)</t>
-  </si>
-  <si>
     <t>다리</t>
   </si>
   <si>
     <t>吳越同舟</t>
   </si>
   <si>
-    <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
-2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
-  </si>
-  <si>
     <t>囊中之錐</t>
   </si>
   <si>
-    <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
-  </si>
-  <si>
     <t>隹</t>
   </si>
   <si>
@@ -1636,33 +1601,18 @@
     <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
   </si>
   <si>
-    <t>하(고전)</t>
-  </si>
-  <si>
     <t>높임의 호격조사</t>
   </si>
   <si>
-    <t>곰(고전)</t>
-  </si>
-  <si>
     <t>강조 접미사</t>
   </si>
   <si>
-    <t>샤(고전)</t>
-  </si>
-  <si>
     <t>주체 높임 선어말 어미</t>
   </si>
   <si>
-    <t>ㄹ셰라(고전)</t>
-  </si>
-  <si>
     <t>~할까 두렵다</t>
   </si>
   <si>
-    <t>즈이(고전)</t>
-  </si>
-  <si>
     <t>모습이</t>
   </si>
   <si>
@@ -1697,12 +1647,6 @@
   </si>
   <si>
     <t>羊頭狗肉</t>
-  </si>
-  <si>
-    <t>양두구육, 
-1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
-2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
-3) 겉과 속이 서로 다름</t>
   </si>
   <si>
     <t>綿裏藏針</t>
@@ -1796,19 +1740,7 @@
     <t>不問曲直</t>
   </si>
   <si>
-    <t xml:space="preserve">불문곡직, 
-1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
-2) 옳고 그름을 가리지 않고 함부로 일을 처리(處理)함 
-3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
-  </si>
-  <si>
     <t>道聽塗說</t>
-  </si>
-  <si>
-    <t>도청도설, 
-1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
-2) 거리에서 들은 것을 남에게 아는 체하며 말함 
-3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
   </si>
   <si>
     <t>불감청이언정 고소원이라</t>
@@ -3660,6 +3592,179 @@
   </si>
   <si>
     <t>血稅</t>
+  </si>
+  <si>
+    <t>쟝스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동난지이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ셰라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즈이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭중지추, 1. 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+  </si>
+  <si>
+    <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+1. 아무리 도와도 보람이 없는 것
+2. 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
+  </si>
+  <si>
+    <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+1. 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
+2. 방침(方針)이 많아 할 바를 모르게 됨</t>
+  </si>
+  <si>
+    <t>비육지탄, 
+1. 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
+2. 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
+3. 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+  </si>
+  <si>
+    <t>오월동주, 1. 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2. 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3. 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
+  </si>
+  <si>
+    <t>양두구육, 
+1. 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
+2. 겉은 훌륭해 보이나 속은 그렇지 못한 것 
+3. 겉과 속이 서로 다름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불문곡직, 
+1. 「굽음과 곧음을 묻지 않는다」는 뜻으로,
+2. 옳고 그름을 가리지 않고 함부로 일을 처리(處理)함 
+3. 잘잘못을 묻지 않고 함부로 행(行)함 </t>
+  </si>
+  <si>
+    <t>도청도설, 
+1.「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
+2. 거리에서 들은 것을 남에게 아는 체하며 말함 
+3. 깊이 생각 않고 예사(例事)로 듣고 말함</t>
+  </si>
+  <si>
+    <t>不條理</t>
+  </si>
+  <si>
+    <t>부조리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝視</t>
+  </si>
+  <si>
+    <t>응시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濾過</t>
+  </si>
+  <si>
+    <t>여과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鷹視</t>
+  </si>
+  <si>
+    <t>응시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勵果</t>
+  </si>
+  <si>
+    <t>여과(벼슬명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스 상태의 빛나는 긴 꼬리를 끌고 태양을 초점으로 긴 타원이나 포물선에 가까운 궤도를 그리며 운행하는 천체. 핵, 코마, 꼬리 부분으로 이루어져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘유성’을 일상적으로 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별똥별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중심 별의 강한 인력의 영향으로 타원 궤도를 그리며 중심 별의 주위를 도는 천체. 스스로 빛을 내지 못하고, 중심 별의 빛을 받아 반사한다. 태양계에는 수성, 금성, 지구, 화성, 목성, 토성, 천왕성, 해왕성의 여덟 개 행성이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠돌이별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ‘금성’을 일상적으로 이르는 말.
+2. 장래에 큰 발전을 이룩할 만한 사람을 비유적으로 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샛별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부유한 집에서 자라나 세상의 어려운 일을 잘 모르는 사람을 비유적으로 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁도련님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상 앞에 앉아 글공부만 하여 세상일을 잘 모르는 사람을 낮잡아 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상물림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온갖 어려운 일을 겪어서 아주 야무진 사람을 비유적으로 이르는 말.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대갈마치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3767,7 +3872,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4076,17 +4201,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C594"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
+      <pane ySplit="1" topLeftCell="A600" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C604" sqref="C604:C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4101,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4123,7 +4249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4142,7 +4268,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4153,7 +4279,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4164,7 +4290,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4175,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4186,10 +4312,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4200,7 +4326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -4211,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -4222,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -4233,7 +4359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -4244,7 +4370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -4255,7 +4381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -4266,7 +4392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -4277,7 +4403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4288,7 +4414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4299,7 +4425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -4310,7 +4436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -4321,7 +4447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -4332,7 +4458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -4343,7 +4469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -4354,7 +4480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4365,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -4376,7 +4502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -4387,7 +4513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -4398,7 +4524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -4409,7 +4535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -4420,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -4431,7 +4557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -4442,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -4453,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -4464,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -4475,7 +4601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -4486,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -4497,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -4508,7 +4634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -4519,7 +4645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -4530,7 +4656,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -4541,7 +4667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -4552,7 +4678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -4563,7 +4689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -4574,7 +4700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -4585,7 +4711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -4596,7 +4722,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -4607,7 +4733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -4618,7 +4744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>91</v>
       </c>
@@ -4629,7 +4755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
@@ -4640,7 +4766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
@@ -4651,7 +4777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -4662,7 +4788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -4673,7 +4799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>96</v>
       </c>
@@ -4684,7 +4810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
@@ -4695,7 +4821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -4706,7 +4832,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>99</v>
       </c>
@@ -4717,7 +4843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>100</v>
       </c>
@@ -4728,7 +4854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
@@ -4739,7 +4865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>102</v>
       </c>
@@ -4750,7 +4876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>103</v>
       </c>
@@ -4761,7 +4887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -4772,7 +4898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
@@ -4783,7 +4909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
@@ -4794,7 +4920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
@@ -4805,7 +4931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>108</v>
       </c>
@@ -4816,7 +4942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>109</v>
       </c>
@@ -4827,7 +4953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>110</v>
       </c>
@@ -4838,7 +4964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>111</v>
       </c>
@@ -4849,7 +4975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>113</v>
       </c>
@@ -4860,7 +4986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
@@ -4871,7 +4997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>115</v>
       </c>
@@ -4882,7 +5008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
@@ -4893,7 +5019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
@@ -4904,7 +5030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>118</v>
       </c>
@@ -4915,7 +5041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -4926,7 +5052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -4937,7 +5063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
@@ -4948,7 +5074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
@@ -4959,7 +5085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
@@ -4970,7 +5096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>124</v>
       </c>
@@ -4981,7 +5107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
@@ -4992,7 +5118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>126</v>
       </c>
@@ -5003,7 +5129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>127</v>
       </c>
@@ -5014,7 +5140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
@@ -5025,7 +5151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>129</v>
       </c>
@@ -5036,7 +5162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>130</v>
       </c>
@@ -5047,7 +5173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
@@ -5058,7 +5184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>132</v>
       </c>
@@ -5069,7 +5195,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>133</v>
       </c>
@@ -5080,7 +5206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>134</v>
       </c>
@@ -5091,7 +5217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>135</v>
       </c>
@@ -5102,7 +5228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>136</v>
       </c>
@@ -5113,7 +5239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>137</v>
       </c>
@@ -5124,7 +5250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>138</v>
       </c>
@@ -5135,7 +5261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>139</v>
       </c>
@@ -5146,7 +5272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>140</v>
       </c>
@@ -5157,7 +5283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>141</v>
       </c>
@@ -5168,7 +5294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>142</v>
       </c>
@@ -5179,7 +5305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>143</v>
       </c>
@@ -5190,7 +5316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +5327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>145</v>
       </c>
@@ -5212,7 +5338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>146</v>
       </c>
@@ -5223,7 +5349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>147</v>
       </c>
@@ -5234,7 +5360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>148</v>
       </c>
@@ -5245,7 +5371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>149</v>
       </c>
@@ -5256,7 +5382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>150</v>
       </c>
@@ -5267,7 +5393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>151</v>
       </c>
@@ -5278,7 +5404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>152</v>
       </c>
@@ -5289,7 +5415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>153</v>
       </c>
@@ -5300,7 +5426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>154</v>
       </c>
@@ -5311,7 +5437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>155</v>
       </c>
@@ -5322,7 +5448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>156</v>
       </c>
@@ -5333,7 +5459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>157</v>
       </c>
@@ -5344,7 +5470,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>158</v>
       </c>
@@ -5355,7 +5481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>159</v>
       </c>
@@ -5366,7 +5492,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>160</v>
       </c>
@@ -5377,7 +5503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -5388,7 +5514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
@@ -5399,7 +5525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>163</v>
       </c>
@@ -5410,7 +5536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>164</v>
       </c>
@@ -5421,7 +5547,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>165</v>
       </c>
@@ -5432,7 +5558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>166</v>
       </c>
@@ -5443,7 +5569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>167</v>
       </c>
@@ -5454,7 +5580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>168</v>
       </c>
@@ -5465,7 +5591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>169</v>
       </c>
@@ -5476,7 +5602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>170</v>
       </c>
@@ -5487,7 +5613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>171</v>
       </c>
@@ -5498,7 +5624,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>172</v>
       </c>
@@ -5509,7 +5635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>173</v>
       </c>
@@ -5520,7 +5646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>174</v>
       </c>
@@ -5531,7 +5657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>175</v>
       </c>
@@ -5542,7 +5668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>176</v>
       </c>
@@ -5553,7 +5679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>177</v>
       </c>
@@ -5564,7 +5690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>178</v>
       </c>
@@ -5575,7 +5701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>179</v>
       </c>
@@ -5586,7 +5712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>180</v>
       </c>
@@ -5597,7 +5723,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>181</v>
       </c>
@@ -5608,7 +5734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>182</v>
       </c>
@@ -5619,7 +5745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>183</v>
       </c>
@@ -5630,7 +5756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>184</v>
       </c>
@@ -5641,7 +5767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>185</v>
       </c>
@@ -5652,7 +5778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>186</v>
       </c>
@@ -5663,7 +5789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>187</v>
       </c>
@@ -5674,7 +5800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>188</v>
       </c>
@@ -5685,7 +5811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>189</v>
       </c>
@@ -5696,7 +5822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>190</v>
       </c>
@@ -5707,7 +5833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>191</v>
       </c>
@@ -5718,7 +5844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>192</v>
       </c>
@@ -5729,7 +5855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>193</v>
       </c>
@@ -5740,7 +5866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>194</v>
       </c>
@@ -5751,7 +5877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>195</v>
       </c>
@@ -5762,7 +5888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>196</v>
       </c>
@@ -5773,7 +5899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>197</v>
       </c>
@@ -5784,7 +5910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>199</v>
       </c>
@@ -5795,7 +5921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>201</v>
       </c>
@@ -5814,7 +5940,7 @@
         <v>204</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -5825,7 +5951,7 @@
         <v>206</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -5836,7 +5962,7 @@
         <v>208</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -5847,10 +5973,10 @@
         <v>210</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>211</v>
       </c>
@@ -5861,18 +5987,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>214</v>
       </c>
@@ -5883,7 +6009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>216</v>
       </c>
@@ -5894,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>218</v>
       </c>
@@ -5905,7 +6031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>220</v>
       </c>
@@ -5916,7 +6042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>222</v>
       </c>
@@ -5927,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>224</v>
       </c>
@@ -5938,7 +6064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>226</v>
       </c>
@@ -5949,7 +6075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>228</v>
       </c>
@@ -5960,7 +6086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>230</v>
       </c>
@@ -5979,7 +6105,7 @@
         <v>233</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -5990,7 +6116,7 @@
         <v>235</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -6001,7 +6127,7 @@
         <v>237</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -6012,10 +6138,10 @@
         <v>239</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>240</v>
       </c>
@@ -6026,7 +6152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>242</v>
       </c>
@@ -6037,7 +6163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>244</v>
       </c>
@@ -6048,7 +6174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>246</v>
       </c>
@@ -6059,7 +6185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>248</v>
       </c>
@@ -6070,7 +6196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>250</v>
       </c>
@@ -6081,7 +6207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>252</v>
       </c>
@@ -6092,7 +6218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>254</v>
       </c>
@@ -6103,7 +6229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>256</v>
       </c>
@@ -6114,7 +6240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>258</v>
       </c>
@@ -6125,7 +6251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>260</v>
       </c>
@@ -6136,7 +6262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>262</v>
       </c>
@@ -6147,7 +6273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>264</v>
       </c>
@@ -6158,7 +6284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>266</v>
       </c>
@@ -6169,7 +6295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>268</v>
       </c>
@@ -6180,7 +6306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>270</v>
       </c>
@@ -6191,7 +6317,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>272</v>
       </c>
@@ -6202,7 +6328,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>273</v>
       </c>
@@ -6213,7 +6339,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>274</v>
       </c>
@@ -6224,7 +6350,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>275</v>
       </c>
@@ -6235,7 +6361,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>276</v>
       </c>
@@ -6246,7 +6372,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>277</v>
       </c>
@@ -6257,7 +6383,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>278</v>
       </c>
@@ -6268,7 +6394,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>279</v>
       </c>
@@ -6279,7 +6405,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>280</v>
       </c>
@@ -6290,7 +6416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>282</v>
       </c>
@@ -6301,7 +6427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>284</v>
       </c>
@@ -6312,7 +6438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>286</v>
       </c>
@@ -6323,7 +6449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>288</v>
       </c>
@@ -6334,7 +6460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>290</v>
       </c>
@@ -6345,7 +6471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>292</v>
       </c>
@@ -6356,7 +6482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>294</v>
       </c>
@@ -6367,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>296</v>
       </c>
@@ -6378,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>298</v>
       </c>
@@ -6389,7 +6515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>300</v>
       </c>
@@ -6400,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>302</v>
       </c>
@@ -6411,7 +6537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>304</v>
       </c>
@@ -6422,7 +6548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>305</v>
       </c>
@@ -6433,7 +6559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>306</v>
       </c>
@@ -6444,7 +6570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>307</v>
       </c>
@@ -6455,7 +6581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>308</v>
       </c>
@@ -6466,7 +6592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>309</v>
       </c>
@@ -6477,7 +6603,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>310</v>
       </c>
@@ -6488,7 +6614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>311</v>
       </c>
@@ -6499,7 +6625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>312</v>
       </c>
@@ -6510,7 +6636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>313</v>
       </c>
@@ -6521,7 +6647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>314</v>
       </c>
@@ -6532,7 +6658,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>315</v>
       </c>
@@ -6543,7 +6669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>316</v>
       </c>
@@ -6554,7 +6680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>317</v>
       </c>
@@ -6565,7 +6691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>318</v>
       </c>
@@ -6576,7 +6702,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>319</v>
       </c>
@@ -6587,7 +6713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>320</v>
       </c>
@@ -6598,7 +6724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>321</v>
       </c>
@@ -6609,7 +6735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>322</v>
       </c>
@@ -6620,7 +6746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>323</v>
       </c>
@@ -6631,7 +6757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>324</v>
       </c>
@@ -6642,7 +6768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>325</v>
       </c>
@@ -6653,7 +6779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>326</v>
       </c>
@@ -6664,7 +6790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>327</v>
       </c>
@@ -6675,7 +6801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>328</v>
       </c>
@@ -6686,7 +6812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>330</v>
       </c>
@@ -6697,7 +6823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>332</v>
       </c>
@@ -6708,7 +6834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>334</v>
       </c>
@@ -6719,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>336</v>
       </c>
@@ -6730,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>338</v>
       </c>
@@ -6741,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>340</v>
       </c>
@@ -6752,7 +6878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>342</v>
       </c>
@@ -6763,7 +6889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>344</v>
       </c>
@@ -6774,7 +6900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>346</v>
       </c>
@@ -6785,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>348</v>
       </c>
@@ -6796,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>350</v>
       </c>
@@ -6807,7 +6933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>352</v>
       </c>
@@ -6818,7 +6944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>354</v>
       </c>
@@ -6829,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>356</v>
       </c>
@@ -6840,7 +6966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>358</v>
       </c>
@@ -6851,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>360</v>
       </c>
@@ -6862,7 +6988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>362</v>
       </c>
@@ -6873,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>364</v>
       </c>
@@ -6884,7 +7010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>366</v>
       </c>
@@ -6895,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>368</v>
       </c>
@@ -6906,7 +7032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>370</v>
       </c>
@@ -6917,7 +7043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>372</v>
       </c>
@@ -6928,7 +7054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>374</v>
       </c>
@@ -6939,7 +7065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>376</v>
       </c>
@@ -6950,7 +7076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>378</v>
       </c>
@@ -6961,7 +7087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>380</v>
       </c>
@@ -6972,7 +7098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>382</v>
       </c>
@@ -6983,7 +7109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>384</v>
       </c>
@@ -6994,7 +7120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>386</v>
       </c>
@@ -7005,7 +7131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>388</v>
       </c>
@@ -7016,7 +7142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>390</v>
       </c>
@@ -7027,7 +7153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>392</v>
       </c>
@@ -7038,7 +7164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>394</v>
       </c>
@@ -7049,7 +7175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>396</v>
       </c>
@@ -7060,7 +7186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>398</v>
       </c>
@@ -7071,7 +7197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>400</v>
       </c>
@@ -7082,7 +7208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>402</v>
       </c>
@@ -7093,7 +7219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>404</v>
       </c>
@@ -7104,7 +7230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>406</v>
       </c>
@@ -7115,7 +7241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>408</v>
       </c>
@@ -7126,7 +7252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>410</v>
       </c>
@@ -7137,7 +7263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>412</v>
       </c>
@@ -7148,7 +7274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>414</v>
       </c>
@@ -7159,7 +7285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>416</v>
       </c>
@@ -7170,7 +7296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>418</v>
       </c>
@@ -7181,7 +7307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>420</v>
       </c>
@@ -7192,7 +7318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>422</v>
       </c>
@@ -7203,7 +7329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>424</v>
       </c>
@@ -7214,7 +7340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>426</v>
       </c>
@@ -7225,7 +7351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>428</v>
       </c>
@@ -7236,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>430</v>
       </c>
@@ -7247,7 +7373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>432</v>
       </c>
@@ -7258,7 +7384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>434</v>
       </c>
@@ -7269,7 +7395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>436</v>
       </c>
@@ -7280,7 +7406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>438</v>
       </c>
@@ -7291,7 +7417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>440</v>
       </c>
@@ -7302,7 +7428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>442</v>
       </c>
@@ -7313,7 +7439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>444</v>
       </c>
@@ -7324,9 +7450,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>446</v>
@@ -7335,7 +7461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>447</v>
       </c>
@@ -7346,7 +7472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>449</v>
       </c>
@@ -7357,7 +7483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>451</v>
       </c>
@@ -7368,7 +7494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>453</v>
       </c>
@@ -7379,7 +7505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>455</v>
       </c>
@@ -7390,7 +7516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>457</v>
       </c>
@@ -7401,7 +7527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>459</v>
       </c>
@@ -7412,7 +7538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>461</v>
       </c>
@@ -7423,7 +7549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>463</v>
       </c>
@@ -7434,7 +7560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>465</v>
       </c>
@@ -7445,7 +7571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>467</v>
       </c>
@@ -7456,7 +7582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>469</v>
       </c>
@@ -7467,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>471</v>
       </c>
@@ -7478,7 +7604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>473</v>
       </c>
@@ -7489,18 +7615,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>476</v>
       </c>
@@ -7511,7 +7637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>478</v>
       </c>
@@ -7522,7 +7648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>480</v>
       </c>
@@ -7533,7 +7659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>482</v>
       </c>
@@ -7544,7 +7670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>484</v>
       </c>
@@ -7555,7 +7681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>486</v>
       </c>
@@ -7566,155 +7692,155 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="B321" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B322" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="C323" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B324" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="B325" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C325" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="C326" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="B327" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C327" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="C329" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B330" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>5</v>
@@ -7722,98 +7848,98 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>515</v>
+        <v>1056</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>517</v>
+        <v>1055</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>519</v>
+        <v>1054</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C338" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
@@ -7821,131 +7947,131 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>533</v>
+        <v>1058</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>535</v>
+        <v>1059</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>537</v>
+        <v>1060</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>539</v>
+        <v>1061</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
@@ -7953,2681 +8079,2831 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1070</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B377" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="C377" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C370" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="C378" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B379" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C371" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="C379" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B380" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C372" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="C380" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C373" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="C381" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="C374" s="1" t="s">
+      <c r="B382" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="C382" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B375" s="1" t="s">
+    </row>
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C375" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="C383" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C376" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="B384" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="C384" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C377" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="B385" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C385" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C378" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="C386" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C379" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="C387" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+      <c r="B388" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B389" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C381" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="C389" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B390" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C390" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="C391" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C383" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="B393" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B385" s="1" t="s">
+      <c r="C393" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C385" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="C394" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C386" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="C395" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="B396" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="C396" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C388" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+      <c r="B399" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="C399" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="B400" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="B402" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="C402" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C394" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+      <c r="B403" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="C403" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C395" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="B404" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="C404" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+      <c r="B405" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="C405" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C397" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="B406" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B407" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C398" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B399" s="1" t="s">
+      <c r="C407" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C399" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="C408" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C400" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+      <c r="B409" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="C409" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C401" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="B410" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="C410" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C402" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+      <c r="B411" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="C411" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C403" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="B412" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="C412" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C404" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+      <c r="B413" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="C413" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C405" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="B414" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="C414" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C406" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+      <c r="B415" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="C415" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C407" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="B416" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="C416" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C408" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+      <c r="B417" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="C417" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C409" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+      <c r="B418" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="C418" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C410" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+      <c r="B419" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="C419" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C411" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+      <c r="B420" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="C420" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C412" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+      <c r="B421" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="C421" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C413" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+      <c r="B422" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="C422" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C414" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+      <c r="B423" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="C423" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C415" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="B424" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="C424" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C416" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
+      <c r="B425" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="C425" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C417" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+      <c r="B426" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="C426" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C418" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+      <c r="B427" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="C427" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C419" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+      <c r="B428" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="C428" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C420" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="1" t="s">
+      <c r="B429" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="C429" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C421" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+      <c r="B430" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="C430" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C422" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="C431" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C423" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+      <c r="B432" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="C432" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C424" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
+      <c r="B433" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="C433" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C425" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+      <c r="B434" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="C434" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C426" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
+      <c r="B435" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="C435" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C427" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="C436" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C428" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="C437" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C429" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="C438" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C430" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="C439" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C431" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="C440" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C432" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="C441" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C433" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="C442" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C434" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="C443" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C435" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="C444" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C436" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="C445" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C437" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="C446" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C438" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C447" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C439" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C448" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C440" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="C449" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C441" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="C450" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C442" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="C451" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C443" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="C452" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C444" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="C453" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C445" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="C454" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C446" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="C455" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C447" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+      <c r="B456" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C448" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="1" t="s">
+      <c r="C457" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C449" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="C458" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C450" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="1" t="s">
+      <c r="C459" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B460" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C451" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+      <c r="C460" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="B461" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C452" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="1" t="s">
+      <c r="C461" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C453" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+      <c r="C462" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B463" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C454" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="1" t="s">
+      <c r="C463" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B464" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C455" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+      <c r="C464" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B465" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C456" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B466" s="1" t="s">
+      <c r="C478" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C466" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+    </row>
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C472" s="1" t="s">
+      <c r="C480" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="C481" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C473" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="C482" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C474" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+      <c r="B483" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="C483" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C475" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="1" t="s">
+      <c r="C484" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B485" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C477" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
+      <c r="C486" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B487" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C479" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+      <c r="C487" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B488" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C480" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
+      <c r="C488" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B489" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C481" s="1" t="s">
+      <c r="C489" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>846</v>
-      </c>
       <c r="C493" s="1" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C506" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B498" s="1" t="s">
+    </row>
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="C498" s="1" t="s">
+      <c r="B507" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
+      <c r="B508" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="C508" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C499" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="1" t="s">
+      <c r="B509" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="C509" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C500" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B501" s="2" t="s">
+      <c r="B517" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C501" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B502" s="1" t="s">
+      <c r="C517" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C502" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="1" t="s">
+      <c r="B518" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C518" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B511" s="1" t="s">
+    </row>
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C511" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
+      <c r="C519" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B520" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C512" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" s="1" t="s">
+      <c r="C520" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C513" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
+      <c r="C521" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B522" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C514" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="1" t="s">
+      <c r="C522" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B523" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C515" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B516" s="2" t="s">
+      <c r="B524" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C516" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
+      <c r="C524" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="C517" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" s="1" t="s">
+      <c r="C525" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C518" s="1" t="s">
+      <c r="C526" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" s="1" t="s">
+      <c r="B527" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="C527" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C519" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" s="1" t="s">
+    </row>
+    <row r="528" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B528" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C520" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" s="1" t="s">
+      <c r="C528" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="B529" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C521" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" s="1" t="s">
+      <c r="C529" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C522" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" s="1" t="s">
+      <c r="C530" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C523" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" s="1" t="s">
+      <c r="C531" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B524" s="1" t="s">
+    </row>
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C524" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="C532" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C525" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="C533" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C526" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="C534" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C527" s="1" t="s">
+    </row>
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="1" t="s">
+      <c r="B535" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B528" s="2" t="s">
+    </row>
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C528" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="C536" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C529" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="C537" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="C530" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="1" t="s">
+    </row>
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B538" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C531" s="1" t="s">
+      <c r="C538" s="1" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="1" t="s">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C532" s="1" t="s">
+      <c r="C539" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="1" t="s">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B541" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="B542" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="1" t="s">
+      <c r="C542" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B543" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B565" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="C535" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B541" s="1" t="s">
+      <c r="C565" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C541" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A553" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A554" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A557" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558" s="1" t="s">
+      <c r="B566" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="C566" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C558" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559" s="1" t="s">
+      <c r="B567" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="C567" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C559" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A560" s="1" t="s">
+    </row>
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B560" s="1" t="s">
+      <c r="B568" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C560" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="1" t="s">
+      <c r="C568" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B569" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C561" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A562" s="1" t="s">
+      <c r="C569" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B562" s="1" t="s">
+      <c r="B570" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C562" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A563" s="1" t="s">
+      <c r="C570" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B563" s="1" t="s">
+    </row>
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C563" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A564" s="1" t="s">
+      <c r="B571" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B564" s="1" t="s">
+      <c r="C571" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C564" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A565" s="1" t="s">
+      <c r="B572" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B565" s="1" t="s">
+      <c r="C572" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C565" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A566" s="1" t="s">
+      <c r="B573" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B566" s="1" t="s">
+      <c r="C573" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C566" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A567" s="1" t="s">
+      <c r="B574" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="C574" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C567" s="1" t="s">
+      <c r="B575" s="1" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A568" s="1" t="s">
+      <c r="C575" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B568" s="1" t="s">
+      <c r="B576" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C568" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A569" s="1" t="s">
+      <c r="C576" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="B577" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C569" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A570" s="1" t="s">
+      <c r="C577" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B570" s="1" t="s">
+      <c r="B578" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C570" s="1" t="s">
+      <c r="B579" s="1" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A571" s="1" t="s">
+      <c r="C579" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B571" s="1" t="s">
+      <c r="B580" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C571" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A572" s="1" t="s">
+      <c r="C580" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B572" s="1" t="s">
+    </row>
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C572" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A573" s="1" t="s">
+      <c r="B581" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="C581" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C573" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A574" s="1" t="s">
+      <c r="B582" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B574" s="1" t="s">
+      <c r="C582" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C574" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A575" s="1" t="s">
+    </row>
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B575" s="1" t="s">
+      <c r="B583" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C575" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A576" s="1" t="s">
+      <c r="C583" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B576" s="1" t="s">
+      <c r="B585" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C576" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A577" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A578" s="1" t="s">
+      <c r="C585" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B578" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A579" s="1" t="s">
+      <c r="B586" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="C586" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C579" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A580" s="1" t="s">
+      <c r="B587" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B580" s="1" t="s">
+      <c r="C587" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="C580" s="1" t="s">
+      <c r="B588" s="1" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A581" s="1" t="s">
+      <c r="C588" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B581" s="1" t="s">
+      <c r="B589" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C581" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A582" s="1" t="s">
+      <c r="C589" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B582" s="1" t="s">
+      <c r="B590" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C582" s="1" t="s">
+      <c r="C590" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A583" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B583" s="1" t="s">
+      <c r="C591" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C583" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A584" s="1" t="s">
+      <c r="B592" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B593" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B584" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C584" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A585" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A586" s="1" t="s">
+      <c r="C593" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="B586" s="1" t="s">
+    </row>
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C586" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="1" t="s">
+      <c r="B594" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A588" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C588" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A589" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C589" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A590" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A591" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C591" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A592" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B592" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C592" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A593" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C593" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A594" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="C594" s="1" t="s">
-        <v>904</v>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C562"/>
+  <autoFilter ref="A1:C599">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="의미"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A330 A335:A339 A345:A597 A599:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B331:B334">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D340:D344">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B340:B344">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A598">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55D91B-5B8C-48F5-879C-7B8F411E6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$614</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$673</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1219">
   <si>
     <t>질문</t>
   </si>
@@ -2633,10 +2632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마음을 높고 여유 있게 지내다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2675,14 +2670,6 @@
   </si>
   <si>
     <t>학을 떼다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3616,10 +3603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>‘유성’을 일상적으로 이르는 말.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4136,11 +4119,99 @@
     <t>앳된</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>멀리멀리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저물까 두렵다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졈그롤셰라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미워할 사람도 사랑할 사람도 없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믜리도 괴리도 없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듣노라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_고전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_명사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_고전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미_고전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>님의손되</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4544,23 +4615,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C673"/>
+  <dimension ref="A1:C679"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A674" sqref="A674"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C679" sqref="C679"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4582,7 +4653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4593,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4604,7 +4675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4612,10 +4683,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4623,10 +4694,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -4634,10 +4705,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4645,10 +4716,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4656,10 +4727,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,7 +4741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -4681,7 +4752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -4692,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -4703,9 +4774,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -4714,9 +4785,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -4725,9 +4796,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -4736,9 +4807,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
@@ -4747,9 +4818,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
@@ -4758,9 +4829,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -4769,9 +4840,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
@@ -4780,9 +4851,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
@@ -4791,9 +4862,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
@@ -4802,9 +4873,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
@@ -4813,9 +4884,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
@@ -4824,7 +4895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -4835,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4846,7 +4917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -4857,7 +4928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4868,7 +4939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -4879,7 +4950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -4890,7 +4961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -4901,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -4912,7 +4983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -4923,7 +4994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -4934,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -4945,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -4956,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -4967,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -4978,7 +5049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -4989,7 +5060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -5000,7 +5071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -5011,7 +5082,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -5022,7 +5093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -5033,7 +5104,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
@@ -5044,7 +5115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>76</v>
       </c>
@@ -5055,7 +5126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -5066,7 +5137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>78</v>
       </c>
@@ -5077,7 +5148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
@@ -5088,7 +5159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
@@ -5099,7 +5170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -5110,7 +5181,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -5121,7 +5192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
@@ -5132,7 +5203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>84</v>
       </c>
@@ -5143,7 +5214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>85</v>
       </c>
@@ -5154,7 +5225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -5165,7 +5236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -5176,7 +5247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>88</v>
       </c>
@@ -5187,7 +5258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
@@ -5198,7 +5269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>90</v>
       </c>
@@ -5209,7 +5280,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>91</v>
       </c>
@@ -5220,7 +5291,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>92</v>
       </c>
@@ -5231,7 +5302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>93</v>
       </c>
@@ -5242,7 +5313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>94</v>
       </c>
@@ -5253,7 +5324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>95</v>
       </c>
@@ -5264,7 +5335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>96</v>
       </c>
@@ -5275,7 +5346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -5286,7 +5357,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>98</v>
       </c>
@@ -5297,7 +5368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>99</v>
       </c>
@@ -5308,7 +5379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>100</v>
       </c>
@@ -5319,7 +5390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
@@ -5330,7 +5401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -5341,7 +5412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
@@ -5352,7 +5423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
@@ -5363,7 +5434,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>106</v>
       </c>
@@ -5374,7 +5445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
@@ -5385,7 +5456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>108</v>
       </c>
@@ -5396,7 +5467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>109</v>
       </c>
@@ -5407,7 +5478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
@@ -5418,7 +5489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>111</v>
       </c>
@@ -5429,7 +5500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>112</v>
       </c>
@@ -5440,7 +5511,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
@@ -5451,7 +5522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
@@ -5462,7 +5533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
@@ -5473,7 +5544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
@@ -5484,7 +5555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>117</v>
       </c>
@@ -5495,7 +5566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>118</v>
       </c>
@@ -5506,7 +5577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>119</v>
       </c>
@@ -5517,7 +5588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
@@ -5528,7 +5599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>121</v>
       </c>
@@ -5539,7 +5610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>122</v>
       </c>
@@ -5550,7 +5621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
@@ -5561,7 +5632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>124</v>
       </c>
@@ -5572,7 +5643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
@@ -5583,7 +5654,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -5594,7 +5665,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
@@ -5605,7 +5676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>128</v>
       </c>
@@ -5616,7 +5687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>129</v>
       </c>
@@ -5627,7 +5698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>130</v>
       </c>
@@ -5638,7 +5709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5649,7 +5720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>132</v>
       </c>
@@ -5660,7 +5731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
@@ -5671,7 +5742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>134</v>
       </c>
@@ -5682,7 +5753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -5693,7 +5764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>136</v>
       </c>
@@ -5704,7 +5775,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>137</v>
       </c>
@@ -5715,7 +5786,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>138</v>
       </c>
@@ -5726,7 +5797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>139</v>
       </c>
@@ -5737,7 +5808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>140</v>
       </c>
@@ -5748,7 +5819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -5759,7 +5830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>142</v>
       </c>
@@ -5770,7 +5841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>143</v>
       </c>
@@ -5781,7 +5852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>144</v>
       </c>
@@ -5792,7 +5863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>145</v>
       </c>
@@ -5803,7 +5874,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>146</v>
       </c>
@@ -5814,7 +5885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -5825,7 +5896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>148</v>
       </c>
@@ -5836,7 +5907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>149</v>
       </c>
@@ -5847,7 +5918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>150</v>
       </c>
@@ -5858,7 +5929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
@@ -5869,7 +5940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>152</v>
       </c>
@@ -5880,7 +5951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>153</v>
       </c>
@@ -5891,7 +5962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>154</v>
       </c>
@@ -5902,7 +5973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>155</v>
       </c>
@@ -5913,7 +5984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>156</v>
       </c>
@@ -5924,7 +5995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>157</v>
       </c>
@@ -5935,7 +6006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>158</v>
       </c>
@@ -5946,7 +6017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>159</v>
       </c>
@@ -5957,7 +6028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>160</v>
       </c>
@@ -5968,7 +6039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -5979,7 +6050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>162</v>
       </c>
@@ -5990,7 +6061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>163</v>
       </c>
@@ -6001,7 +6072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>164</v>
       </c>
@@ -6012,7 +6083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>165</v>
       </c>
@@ -6023,7 +6094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>166</v>
       </c>
@@ -6034,7 +6105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>167</v>
       </c>
@@ -6045,7 +6116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>168</v>
       </c>
@@ -6056,7 +6127,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>169</v>
       </c>
@@ -6067,7 +6138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>170</v>
       </c>
@@ -6078,7 +6149,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>171</v>
       </c>
@@ -6089,7 +6160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>172</v>
       </c>
@@ -6100,7 +6171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>173</v>
       </c>
@@ -6111,7 +6182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>174</v>
       </c>
@@ -6122,7 +6193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>175</v>
       </c>
@@ -6133,7 +6204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>176</v>
       </c>
@@ -6144,7 +6215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>177</v>
       </c>
@@ -6155,7 +6226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>178</v>
       </c>
@@ -6166,7 +6237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>179</v>
       </c>
@@ -6177,7 +6248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>180</v>
       </c>
@@ -6188,7 +6259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>181</v>
       </c>
@@ -6199,7 +6270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>182</v>
       </c>
@@ -6210,7 +6281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>183</v>
       </c>
@@ -6221,7 +6292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>184</v>
       </c>
@@ -6232,7 +6303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>185</v>
       </c>
@@ -6243,7 +6314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>186</v>
       </c>
@@ -6254,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>188</v>
       </c>
@@ -6265,7 +6336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>190</v>
       </c>
@@ -6276,7 +6347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>192</v>
       </c>
@@ -6284,10 +6355,10 @@
         <v>193</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>194</v>
       </c>
@@ -6295,10 +6366,10 @@
         <v>195</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>196</v>
       </c>
@@ -6306,10 +6377,10 @@
         <v>197</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>198</v>
       </c>
@@ -6317,10 +6388,10 @@
         <v>199</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>200</v>
       </c>
@@ -6331,7 +6402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>202</v>
       </c>
@@ -6342,7 +6413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>203</v>
       </c>
@@ -6353,7 +6424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>205</v>
       </c>
@@ -6364,7 +6435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>207</v>
       </c>
@@ -6375,7 +6446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>209</v>
       </c>
@@ -6386,7 +6457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>211</v>
       </c>
@@ -6397,7 +6468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>213</v>
       </c>
@@ -6408,7 +6479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>215</v>
       </c>
@@ -6419,7 +6490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>217</v>
       </c>
@@ -6430,7 +6501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>219</v>
       </c>
@@ -6441,7 +6512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>221</v>
       </c>
@@ -6449,10 +6520,10 @@
         <v>222</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>223</v>
       </c>
@@ -6460,10 +6531,10 @@
         <v>224</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>225</v>
       </c>
@@ -6471,10 +6542,10 @@
         <v>226</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>227</v>
       </c>
@@ -6482,12 +6553,12 @@
         <v>228</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>229</v>
@@ -6496,9 +6567,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>230</v>
@@ -6507,9 +6578,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>231</v>
@@ -6518,9 +6589,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>232</v>
@@ -6529,9 +6600,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>233</v>
@@ -6540,9 +6611,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>234</v>
@@ -6551,9 +6622,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>235</v>
@@ -6562,9 +6633,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>236</v>
@@ -6573,9 +6644,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>237</v>
@@ -6584,9 +6655,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>238</v>
@@ -6595,9 +6666,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>239</v>
@@ -6606,9 +6677,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>240</v>
@@ -6617,9 +6688,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>241</v>
@@ -6628,9 +6699,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>242</v>
@@ -6639,9 +6710,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>243</v>
@@ -6650,7 +6721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>244</v>
       </c>
@@ -6661,7 +6732,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>246</v>
       </c>
@@ -6672,7 +6743,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>247</v>
       </c>
@@ -6683,7 +6754,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>248</v>
       </c>
@@ -6694,7 +6765,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>249</v>
       </c>
@@ -6705,7 +6776,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>250</v>
       </c>
@@ -6716,7 +6787,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>251</v>
       </c>
@@ -6727,7 +6798,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>252</v>
       </c>
@@ -6738,7 +6809,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>253</v>
       </c>
@@ -6749,9 +6820,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>254</v>
@@ -6760,9 +6831,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>255</v>
@@ -6771,9 +6842,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>256</v>
@@ -6782,9 +6853,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>257</v>
@@ -6793,9 +6864,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>258</v>
@@ -6804,9 +6875,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>259</v>
@@ -6815,9 +6886,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>260</v>
@@ -6826,7 +6897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>261</v>
       </c>
@@ -6837,7 +6908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>263</v>
       </c>
@@ -6848,7 +6919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>265</v>
       </c>
@@ -6859,7 +6930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>267</v>
       </c>
@@ -6870,7 +6941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>269</v>
       </c>
@@ -6881,7 +6952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>271</v>
       </c>
@@ -6892,7 +6963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>272</v>
       </c>
@@ -6903,7 +6974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>273</v>
       </c>
@@ -6914,7 +6985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>274</v>
       </c>
@@ -6925,7 +6996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>275</v>
       </c>
@@ -6936,7 +7007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>276</v>
       </c>
@@ -6947,7 +7018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>277</v>
       </c>
@@ -6958,7 +7029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>278</v>
       </c>
@@ -6969,7 +7040,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>279</v>
       </c>
@@ -6980,7 +7051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>280</v>
       </c>
@@ -6991,7 +7062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>281</v>
       </c>
@@ -7002,7 +7073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>282</v>
       </c>
@@ -7013,7 +7084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>283</v>
       </c>
@@ -7024,7 +7095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>284</v>
       </c>
@@ -7035,7 +7106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>285</v>
       </c>
@@ -7046,7 +7117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>286</v>
       </c>
@@ -7057,7 +7128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>287</v>
       </c>
@@ -7068,7 +7139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>288</v>
       </c>
@@ -7079,7 +7150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>289</v>
       </c>
@@ -7090,7 +7161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>290</v>
       </c>
@@ -7101,7 +7172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>291</v>
       </c>
@@ -7112,7 +7183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>292</v>
       </c>
@@ -7123,7 +7194,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>293</v>
       </c>
@@ -7134,7 +7205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>294</v>
       </c>
@@ -7145,7 +7216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>295</v>
       </c>
@@ -7156,7 +7227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>297</v>
       </c>
@@ -7167,7 +7238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>299</v>
       </c>
@@ -7178,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>301</v>
       </c>
@@ -7189,7 +7260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>303</v>
       </c>
@@ -7200,7 +7271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>305</v>
       </c>
@@ -7211,7 +7282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>307</v>
       </c>
@@ -7222,7 +7293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>309</v>
       </c>
@@ -7233,7 +7304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>311</v>
       </c>
@@ -7244,7 +7315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>313</v>
       </c>
@@ -7255,7 +7326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>315</v>
       </c>
@@ -7266,7 +7337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>317</v>
       </c>
@@ -7277,7 +7348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>319</v>
       </c>
@@ -7288,7 +7359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>321</v>
       </c>
@@ -7299,7 +7370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>323</v>
       </c>
@@ -7310,7 +7381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>325</v>
       </c>
@@ -7321,7 +7392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>327</v>
       </c>
@@ -7332,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>329</v>
       </c>
@@ -7343,7 +7414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>331</v>
       </c>
@@ -7354,7 +7425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>333</v>
       </c>
@@ -7365,7 +7436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>335</v>
       </c>
@@ -7376,7 +7447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>337</v>
       </c>
@@ -7387,7 +7458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>339</v>
       </c>
@@ -7398,7 +7469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>341</v>
       </c>
@@ -7409,7 +7480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>343</v>
       </c>
@@ -7420,7 +7491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>345</v>
       </c>
@@ -7431,7 +7502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>347</v>
       </c>
@@ -7442,7 +7513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>349</v>
       </c>
@@ -7453,7 +7524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>351</v>
       </c>
@@ -7464,7 +7535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>353</v>
       </c>
@@ -7475,7 +7546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>355</v>
       </c>
@@ -7486,7 +7557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>357</v>
       </c>
@@ -7497,7 +7568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>359</v>
       </c>
@@ -7508,7 +7579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>361</v>
       </c>
@@ -7519,7 +7590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>363</v>
       </c>
@@ -7530,7 +7601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>365</v>
       </c>
@@ -7541,7 +7612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>367</v>
       </c>
@@ -7552,7 +7623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>369</v>
       </c>
@@ -7563,7 +7634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>371</v>
       </c>
@@ -7574,7 +7645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>373</v>
       </c>
@@ -7585,7 +7656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>375</v>
       </c>
@@ -7596,7 +7667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>377</v>
       </c>
@@ -7607,7 +7678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>379</v>
       </c>
@@ -7618,7 +7689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>381</v>
       </c>
@@ -7629,7 +7700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>383</v>
       </c>
@@ -7640,7 +7711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>385</v>
       </c>
@@ -7651,7 +7722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>387</v>
       </c>
@@ -7662,7 +7733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>389</v>
       </c>
@@ -7673,7 +7744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>391</v>
       </c>
@@ -7684,7 +7755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>393</v>
       </c>
@@ -7695,7 +7766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>395</v>
       </c>
@@ -7706,7 +7777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>397</v>
       </c>
@@ -7717,7 +7788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>399</v>
       </c>
@@ -7728,7 +7799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>401</v>
       </c>
@@ -7739,7 +7810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>403</v>
       </c>
@@ -7750,7 +7821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>405</v>
       </c>
@@ -7761,7 +7832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>407</v>
       </c>
@@ -7772,7 +7843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>409</v>
       </c>
@@ -7783,7 +7854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>411</v>
       </c>
@@ -7794,9 +7865,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>413</v>
@@ -7805,7 +7876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>414</v>
       </c>
@@ -7816,7 +7887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>416</v>
       </c>
@@ -7827,7 +7898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>418</v>
       </c>
@@ -7838,7 +7909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>420</v>
       </c>
@@ -7849,7 +7920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>422</v>
       </c>
@@ -7860,7 +7931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>424</v>
       </c>
@@ -7871,7 +7942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>426</v>
       </c>
@@ -7882,7 +7953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>428</v>
       </c>
@@ -7893,7 +7964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>430</v>
       </c>
@@ -7904,7 +7975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>432</v>
       </c>
@@ -7915,7 +7986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>434</v>
       </c>
@@ -7926,7 +7997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>436</v>
       </c>
@@ -7937,7 +8008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>438</v>
       </c>
@@ -7948,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>440</v>
       </c>
@@ -7959,18 +8030,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>443</v>
       </c>
@@ -7981,7 +8052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>445</v>
       </c>
@@ -7992,7 +8063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>447</v>
       </c>
@@ -8003,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>449</v>
       </c>
@@ -8014,7 +8085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>451</v>
       </c>
@@ -8025,7 +8096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>453</v>
       </c>
@@ -8036,18 +8107,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="136" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:3" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>456</v>
       </c>
@@ -8058,7 +8129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>458</v>
       </c>
@@ -8069,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>460</v>
       </c>
@@ -8080,7 +8151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>462</v>
       </c>
@@ -8091,18 +8162,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="136" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:3" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>464</v>
       </c>
@@ -8113,18 +8184,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="187" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:3" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>467</v>
       </c>
@@ -8135,7 +8206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>469</v>
       </c>
@@ -8146,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>471</v>
       </c>
@@ -8157,7 +8228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>473</v>
       </c>
@@ -8168,7 +8239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>749</v>
       </c>
@@ -8179,7 +8250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>476</v>
       </c>
@@ -8190,73 +8261,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="119" hidden="1" x14ac:dyDescent="0.45">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>484</v>
       </c>
@@ -8267,7 +8338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>486</v>
       </c>
@@ -8278,7 +8349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>488</v>
       </c>
@@ -8289,62 +8360,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>495</v>
       </c>
@@ -8355,7 +8426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>497</v>
       </c>
@@ -8366,7 +8437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>499</v>
       </c>
@@ -8377,7 +8448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>501</v>
       </c>
@@ -8388,7 +8459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>503</v>
       </c>
@@ -8399,18 +8470,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="102" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:3" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>505</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>506</v>
       </c>
@@ -8421,7 +8492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>508</v>
       </c>
@@ -8429,10 +8500,10 @@
         <v>509</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>510</v>
       </c>
@@ -8440,10 +8511,10 @@
         <v>511</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>512</v>
       </c>
@@ -8451,10 +8522,10 @@
         <v>513</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>514</v>
       </c>
@@ -8462,10 +8533,10 @@
         <v>515</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>516</v>
       </c>
@@ -8473,10 +8544,10 @@
         <v>517</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>518</v>
       </c>
@@ -8487,7 +8558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>520</v>
       </c>
@@ -8498,7 +8569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>522</v>
       </c>
@@ -8509,7 +8580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>524</v>
       </c>
@@ -8520,7 +8591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>750</v>
       </c>
@@ -8531,7 +8602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>527</v>
       </c>
@@ -8542,7 +8613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>529</v>
       </c>
@@ -8553,7 +8624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>531</v>
       </c>
@@ -8564,7 +8635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>533</v>
       </c>
@@ -8575,29 +8646,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="119" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:3" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="136" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:3" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>537</v>
       </c>
@@ -8608,7 +8679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>539</v>
       </c>
@@ -8619,7 +8690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>541</v>
       </c>
@@ -8630,7 +8701,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>543</v>
       </c>
@@ -8641,7 +8712,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>545</v>
       </c>
@@ -8652,7 +8723,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>547</v>
       </c>
@@ -8663,18 +8734,18 @@
         <v>549</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:3" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>552</v>
       </c>
@@ -8685,7 +8756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>554</v>
       </c>
@@ -8696,7 +8767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>556</v>
       </c>
@@ -8707,7 +8778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>558</v>
       </c>
@@ -8718,7 +8789,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>560</v>
       </c>
@@ -8729,7 +8800,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>562</v>
       </c>
@@ -8740,7 +8811,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>564</v>
       </c>
@@ -8751,7 +8822,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>567</v>
       </c>
@@ -8762,7 +8833,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>570</v>
       </c>
@@ -8773,7 +8844,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>572</v>
       </c>
@@ -8784,7 +8855,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>574</v>
       </c>
@@ -8795,7 +8866,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>576</v>
       </c>
@@ -8806,7 +8877,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>578</v>
       </c>
@@ -8817,7 +8888,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>580</v>
       </c>
@@ -8828,7 +8899,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>581</v>
       </c>
@@ -8839,7 +8910,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>584</v>
       </c>
@@ -8850,7 +8921,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>586</v>
       </c>
@@ -8861,7 +8932,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>591</v>
       </c>
@@ -8872,7 +8943,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>588</v>
       </c>
@@ -8883,7 +8954,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>592</v>
       </c>
@@ -8894,7 +8965,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>594</v>
       </c>
@@ -8905,7 +8976,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>596</v>
       </c>
@@ -8916,7 +8987,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>598</v>
       </c>
@@ -8927,7 +8998,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>601</v>
       </c>
@@ -8938,7 +9009,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>600</v>
       </c>
@@ -8949,7 +9020,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>604</v>
       </c>
@@ -8960,7 +9031,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>606</v>
       </c>
@@ -8971,7 +9042,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>608</v>
       </c>
@@ -8982,7 +9053,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>610</v>
       </c>
@@ -8993,7 +9064,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>612</v>
       </c>
@@ -9004,7 +9075,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>614</v>
       </c>
@@ -9015,7 +9086,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>616</v>
       </c>
@@ -9026,7 +9097,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>618</v>
       </c>
@@ -9037,7 +9108,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>620</v>
       </c>
@@ -9048,7 +9119,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>622</v>
       </c>
@@ -9059,7 +9130,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>624</v>
       </c>
@@ -9070,7 +9141,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>626</v>
       </c>
@@ -9081,7 +9152,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>628</v>
       </c>
@@ -9092,7 +9163,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>630</v>
       </c>
@@ -9103,7 +9174,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>632</v>
       </c>
@@ -9114,7 +9185,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>634</v>
       </c>
@@ -9125,7 +9196,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>636</v>
       </c>
@@ -9136,7 +9207,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>638</v>
       </c>
@@ -9147,7 +9218,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>640</v>
       </c>
@@ -9158,7 +9229,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>642</v>
       </c>
@@ -9169,7 +9240,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>644</v>
       </c>
@@ -9180,7 +9251,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>646</v>
       </c>
@@ -9191,7 +9262,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>648</v>
       </c>
@@ -9202,7 +9273,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>650</v>
       </c>
@@ -9213,7 +9284,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>652</v>
       </c>
@@ -9224,7 +9295,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>654</v>
       </c>
@@ -9235,7 +9306,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>656</v>
       </c>
@@ -9246,7 +9317,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>658</v>
       </c>
@@ -9257,7 +9328,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>660</v>
       </c>
@@ -9268,7 +9339,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>662</v>
       </c>
@@ -9279,7 +9350,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>664</v>
       </c>
@@ -9290,7 +9361,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>666</v>
       </c>
@@ -9301,7 +9372,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>668</v>
       </c>
@@ -9312,7 +9383,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>670</v>
       </c>
@@ -9323,7 +9394,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>672</v>
       </c>
@@ -9334,7 +9405,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>674</v>
       </c>
@@ -9345,7 +9416,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>676</v>
       </c>
@@ -9356,7 +9427,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>678</v>
       </c>
@@ -9367,7 +9438,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>680</v>
       </c>
@@ -9378,7 +9449,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>682</v>
       </c>
@@ -9389,7 +9460,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>684</v>
       </c>
@@ -9400,7 +9471,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>686</v>
       </c>
@@ -9411,7 +9482,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>688</v>
       </c>
@@ -9422,7 +9493,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>690</v>
       </c>
@@ -9433,7 +9504,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>692</v>
       </c>
@@ -9444,7 +9515,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>694</v>
       </c>
@@ -9455,7 +9526,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>696</v>
       </c>
@@ -9466,7 +9537,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>698</v>
       </c>
@@ -9477,7 +9548,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>700</v>
       </c>
@@ -9488,7 +9559,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>702</v>
       </c>
@@ -9499,7 +9570,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>704</v>
       </c>
@@ -9510,7 +9581,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>706</v>
       </c>
@@ -9521,7 +9592,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>708</v>
       </c>
@@ -9532,7 +9603,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>710</v>
       </c>
@@ -9543,7 +9614,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>712</v>
       </c>
@@ -9554,7 +9625,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>714</v>
       </c>
@@ -9565,7 +9636,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>716</v>
       </c>
@@ -9576,7 +9647,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>717</v>
       </c>
@@ -9587,7 +9658,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>719</v>
       </c>
@@ -9598,7 +9669,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>721</v>
       </c>
@@ -9609,7 +9680,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>723</v>
       </c>
@@ -9620,7 +9691,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>725</v>
       </c>
@@ -9631,7 +9702,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>727</v>
       </c>
@@ -9642,7 +9713,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>729</v>
       </c>
@@ -9653,7 +9724,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>731</v>
       </c>
@@ -9664,7 +9735,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>733</v>
       </c>
@@ -9675,7 +9746,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>735</v>
       </c>
@@ -9686,7 +9757,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>737</v>
       </c>
@@ -9697,7 +9768,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>739</v>
       </c>
@@ -9708,7 +9779,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>741</v>
       </c>
@@ -9719,7 +9790,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>743</v>
       </c>
@@ -9730,7 +9801,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>745</v>
       </c>
@@ -9741,7 +9812,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>751</v>
       </c>
@@ -9752,7 +9823,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>754</v>
       </c>
@@ -9763,7 +9834,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>756</v>
       </c>
@@ -9774,7 +9845,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>758</v>
       </c>
@@ -9785,7 +9856,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>760</v>
       </c>
@@ -9796,7 +9867,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>762</v>
       </c>
@@ -9807,7 +9878,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>763</v>
       </c>
@@ -9818,7 +9889,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>766</v>
       </c>
@@ -9829,7 +9900,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>768</v>
       </c>
@@ -9840,7 +9911,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>770</v>
       </c>
@@ -9851,7 +9922,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>772</v>
       </c>
@@ -9862,7 +9933,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>774</v>
       </c>
@@ -9873,7 +9944,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>776</v>
       </c>
@@ -9884,7 +9955,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>779</v>
       </c>
@@ -9895,7 +9966,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>781</v>
       </c>
@@ -9906,7 +9977,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>783</v>
       </c>
@@ -9917,7 +9988,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>785</v>
       </c>
@@ -9928,7 +9999,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>787</v>
       </c>
@@ -9939,7 +10010,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>789</v>
       </c>
@@ -9950,7 +10021,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>791</v>
       </c>
@@ -9961,7 +10032,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>793</v>
       </c>
@@ -9972,7 +10043,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>795</v>
       </c>
@@ -9983,1991 +10054,2057 @@
         <v>753</v>
       </c>
     </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="C494" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C494" s="1" t="s">
+      <c r="B495" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A495" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A496" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A497" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A498" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A499" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B504" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="C504" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C503" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A504" s="1" t="s">
+      <c r="B505" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="C505" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C504" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A505" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="C506" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C505" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A506" s="1" t="s">
+    </row>
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A507" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C511" s="1" t="s">
+      <c r="C512" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A512" s="1" t="s">
+      <c r="B513" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="C513" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C512" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A513" s="1" t="s">
+      <c r="B514" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="C514" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C513" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A514" s="1" t="s">
+      <c r="B515" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A515" s="1" t="s">
+      <c r="B516" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="C516" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B517" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C515" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A516" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B516" s="2" t="s">
+      <c r="C517" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C516" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A517" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="C518" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C517" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A518" s="1" t="s">
+    </row>
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C518" s="1" t="s">
+      <c r="C519" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A519" s="1" t="s">
+      <c r="B520" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="C520" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C519" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A520" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="C521" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C520" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A521" s="1" t="s">
+      <c r="B522" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="C522" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C521" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A522" s="1" t="s">
+      <c r="B523" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="C523" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C522" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A523" s="1" t="s">
+      <c r="B524" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="C524" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C523" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A524" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="B524" s="1" t="s">
+      <c r="C525" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C524" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A525" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="C526" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C525" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A526" s="1" t="s">
+      <c r="B527" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="C527" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C526" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A527" s="1" t="s">
+    </row>
+    <row r="528" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B528" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="C527" s="1" t="s">
+      <c r="C528" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A528" s="1" t="s">
+      <c r="B529" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="C529" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C528" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A529" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="C530" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C529" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A530" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="C531" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C530" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A531" s="1" t="s">
+    </row>
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C531" s="1" t="s">
+      <c r="C532" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A532" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="C533" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C532" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A533" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B533" s="1" t="s">
+      <c r="C534" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C533" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A534" s="1" t="s">
+    </row>
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B535" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C534" s="1" t="s">
+    </row>
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A535" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="C536" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B558" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C535" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A536" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A537" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A538" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A539" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A540" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A541" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B541" s="1" t="s">
+      <c r="C558" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C541" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A542" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A543" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A544" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A545" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A546" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A547" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A548" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A549" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A550" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A551" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A552" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A553" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A554" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A555" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A556" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A557" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A558" s="1" t="s">
+      <c r="B559" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="C559" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C558" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A559" s="1" t="s">
+      <c r="B560" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="C560" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C559" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A560" s="1" t="s">
+      <c r="B561" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="B560" s="1" t="s">
+      <c r="C561" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C560" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A561" s="1" t="s">
+      <c r="B562" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A562" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B564" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B563" s="1" t="s">
+      <c r="C564" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C563" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A564" s="1" t="s">
+      <c r="B565" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B564" s="1" t="s">
+      <c r="C565" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C564" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A565" s="1" t="s">
+      <c r="B566" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B565" s="1" t="s">
+      <c r="C566" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C565" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A566" s="1" t="s">
+      <c r="B567" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B566" s="1" t="s">
+      <c r="C567" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C566" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A567" s="1" t="s">
+    </row>
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="B568" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C567" s="1" t="s">
+      <c r="C568" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A568" s="1" t="s">
+      <c r="B569" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B568" s="1" t="s">
+      <c r="C569" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C568" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A569" s="1" t="s">
+      <c r="B570" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="C570" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C569" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A570" s="1" t="s">
+    </row>
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B570" s="1" t="s">
+      <c r="B571" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C570" s="1" t="s">
+      <c r="C571" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A571" s="1" t="s">
+      <c r="B572" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="B571" s="1" t="s">
+      <c r="C572" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C571" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A572" s="1" t="s">
+      <c r="B573" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B572" s="1" t="s">
+      <c r="C573" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C572" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A573" s="1" t="s">
+      <c r="B574" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="C574" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C573" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A574" s="1" t="s">
+      <c r="B575" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B574" s="1" t="s">
+      <c r="C575" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C574" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A575" s="1" t="s">
+      <c r="B576" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B575" s="1" t="s">
+      <c r="C576" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C575" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A576" s="1" t="s">
+      <c r="B577" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B576" s="1" t="s">
+      <c r="C577" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C576" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A577" s="1" t="s">
+      <c r="B578" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B577" s="1" t="s">
+      <c r="B579" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C577" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A578" s="1" t="s">
+      <c r="C579" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B578" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A579" s="1" t="s">
+      <c r="B580" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="C580" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C579" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A580" s="1" t="s">
+    </row>
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B580" s="1" t="s">
+      <c r="B581" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C580" s="1" t="s">
+      <c r="C581" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A581" s="1" t="s">
+      <c r="B582" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B581" s="1" t="s">
+      <c r="C582" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C581" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A582" s="1" t="s">
+    </row>
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B582" s="1" t="s">
+      <c r="B583" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C582" s="1" t="s">
+      <c r="C583" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A583" s="1" t="s">
+      <c r="B585" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B583" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C583" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A584" s="1" t="s">
+      <c r="C585" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B584" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="C584" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A585" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A586" s="1" t="s">
+      <c r="B587" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="B586" s="1" t="s">
+      <c r="C587" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C586" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A587" s="1" t="s">
+      <c r="B588" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B587" s="2" t="s">
+      <c r="C588" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C587" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A588" s="1" t="s">
+      <c r="B589" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="C589" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C588" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A589" s="1" t="s">
+      <c r="B590" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B589" s="1" t="s">
+      <c r="C590" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C589" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A590" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B590" s="1" t="s">
+      <c r="C591" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C590" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A591" s="1" t="s">
+      <c r="B592" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C592" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C591" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A592" s="1" t="s">
+    </row>
+    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B592" s="1" t="s">
+      <c r="B593" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C592" s="1" t="s">
+      <c r="C593" s="1" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A593" s="1" t="s">
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B593" s="1" t="s">
+      <c r="B594" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C593" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A594" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>1019</v>
-      </c>
       <c r="C594" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B596" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B595" s="1" t="s">
+      <c r="C596" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C595" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A596" s="1" t="s">
+      <c r="B598" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B596" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C596" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A597" s="1" t="s">
+      <c r="C598" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B599" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B597" s="1" t="s">
+      <c r="C599" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C597" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A598" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C598" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A599" s="1" t="s">
+      <c r="B600" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B599" s="1" t="s">
+      <c r="C600" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C599" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A600" s="1" t="s">
+      <c r="B601" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B600" s="1" t="s">
+      <c r="C601" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C600" s="1" t="s">
+      <c r="B602" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A601" s="1" t="s">
+      <c r="C602" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B601" s="1" t="s">
+      <c r="B603" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C601" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A602" s="1" t="s">
+      <c r="C603" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B602" s="1" t="s">
+      <c r="B604" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C602" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" ht="18.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A603" s="2" t="s">
+      <c r="C604" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B603" s="1" t="s">
+      <c r="B605" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C603" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A604" s="1" t="s">
+      <c r="C605" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B604" s="1" t="s">
+      <c r="B606" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C604" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A605" s="1" t="s">
+      <c r="C606" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B607" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B605" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C605" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A606" s="1" t="s">
+      <c r="C607" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B606" s="1" t="s">
+      <c r="B608" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C606" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A607" s="1" t="s">
+      <c r="C608" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B609" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B607" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A608" s="1" t="s">
+      <c r="C609" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" ht="198" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B608" s="1" t="s">
+      <c r="B610" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="C608" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A609" s="1" t="s">
+      <c r="C610" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B609" s="1" t="s">
+      <c r="B611" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C609" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" ht="204" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A610" s="1" t="s">
+      <c r="C611" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B610" s="2" t="s">
+      <c r="B612" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C610" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A611" s="1" t="s">
+      <c r="C612" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B611" s="1" t="s">
+      <c r="B613" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C611" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A612" s="1" t="s">
+      <c r="C613" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B612" s="1" t="s">
+      <c r="B614" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C612" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A613" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C613" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A614" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B614" s="1" t="s">
-        <v>1078</v>
-      </c>
       <c r="C614" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B615" s="1" t="s">
+      <c r="C616" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C615" s="1" t="s">
+      <c r="B617" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A616" s="1" t="s">
+      <c r="C617" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B616" s="1" t="s">
+      <c r="B618" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C616" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A617" s="1" t="s">
+      <c r="C618" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B617" s="1" t="s">
+      <c r="B619" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C617" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A618" s="1" t="s">
+      <c r="C619" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B618" s="1" t="s">
+      <c r="B620" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C618" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A619" s="1" t="s">
+      <c r="B621" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B619" s="1" t="s">
+      <c r="B622" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C619" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A620" s="1" t="s">
+      <c r="B626" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B620" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C620" s="1" t="s">
+      <c r="B632" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B663" s="1" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A621" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C621" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A622" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C622" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A623" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A624" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A625" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C625" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A626" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C626" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A627" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C627" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A628" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C628" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A629" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C629" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A630" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C630" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A631" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C631" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A632" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C632" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A633" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C633" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A634" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C634" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A635" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C635" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A636" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C636" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A637" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A638" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C638" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A639" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C639" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A640" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C640" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A641" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A642" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C642" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A643" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C643" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A644" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C644" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A645" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C645" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A646" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C646" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A647" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C647" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A648" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C648" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A649" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C649" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A650" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C650" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A651" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C651" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A652" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C652" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A653" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A654" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C654" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A655" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A656" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A657" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A658" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B658" s="1" t="s">
+      <c r="C663" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="C658" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A659" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B659" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C659" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A660" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C660" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A661" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C661" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A662" s="1" t="s">
+    </row>
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B662" s="1" t="s">
+      <c r="B664" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C662" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A663" s="1" t="s">
+      <c r="C664" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C665" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B663" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C663" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A664" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B664" s="1" t="s">
+    </row>
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="C664" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A665" s="1" t="s">
+      <c r="B666" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B665" s="1" t="s">
+      <c r="B667" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C665" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A666" s="1" t="s">
+      <c r="C667" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="B666" s="1" t="s">
+      <c r="B668" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C666" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A667" s="1" t="s">
+      <c r="C668" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B667" s="1" t="s">
+      <c r="B669" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="C667" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A668" s="1" t="s">
+      <c r="C669" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B668" s="1" t="s">
+      <c r="B670" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C668" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A669" s="1" t="s">
+      <c r="C670" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B669" s="1" t="s">
+      <c r="B671" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C669" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A670" s="1" t="s">
+      <c r="C671" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B670" s="1" t="s">
+      <c r="B672" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="C670" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A671" s="1" t="s">
+      <c r="C672" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="B671" s="1" t="s">
+      <c r="B673" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="C671" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A672" s="1" t="s">
+      <c r="C673" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B672" s="1" t="s">
+      <c r="B674" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="C672" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A673" s="1" t="s">
+      <c r="C674" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B673" s="1" t="s">
+      <c r="B675" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C673" s="1" t="s">
-        <v>1182</v>
+      <c r="C675" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C614" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:C673">
     <filterColumn colId="2">
       <filters>
-        <filter val="발음"/>
+        <filter val="의미"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$673</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$685</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1233">
   <si>
     <t>질문</t>
   </si>
@@ -4205,6 +4205,62 @@
   </si>
   <si>
     <t>가려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[많이] 먹다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람이 [가볍게] 부는 날씨에 기분이 좋았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소인은 [없이] 사는 것을 부끄럽게 여긴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반죽이 [되게] 묽어 국수 만들기가 어렵다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그날 회의에는 회원이 [여남은]밖에 모이지 않았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들은 [여남은] 평이 되는 공간에 방을 꾸미고 살고 있었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관형사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[오랜] 가뭄 끝에 비가 내렸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관형사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4617,16 +4673,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C679"/>
+  <dimension ref="A1:C686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C679" sqref="C679"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B639" sqref="B639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -4675,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4686,7 +4742,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4697,7 +4753,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -4708,7 +4764,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4719,7 +4775,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -6347,7 +6403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>192</v>
       </c>
@@ -6358,7 +6414,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>194</v>
       </c>
@@ -6369,7 +6425,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>196</v>
       </c>
@@ -6380,7 +6436,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>198</v>
       </c>
@@ -6512,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>221</v>
       </c>
@@ -6523,7 +6579,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>223</v>
       </c>
@@ -6534,7 +6590,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>225</v>
       </c>
@@ -6545,7 +6601,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>227</v>
       </c>
@@ -8261,7 +8317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>478</v>
       </c>
@@ -8272,7 +8328,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>479</v>
       </c>
@@ -8283,7 +8339,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>480</v>
       </c>
@@ -8294,7 +8350,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>481</v>
       </c>
@@ -8360,7 +8416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>490</v>
       </c>
@@ -8371,7 +8427,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>491</v>
       </c>
@@ -8382,7 +8438,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>492</v>
       </c>
@@ -8393,7 +8449,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>493</v>
       </c>
@@ -8404,7 +8460,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>494</v>
       </c>
@@ -8492,7 +8548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>508</v>
       </c>
@@ -8503,7 +8559,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>510</v>
       </c>
@@ -8514,7 +8570,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>512</v>
       </c>
@@ -8525,7 +8581,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>514</v>
       </c>
@@ -8536,7 +8592,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>516</v>
       </c>
@@ -10054,7 +10110,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>797</v>
       </c>
@@ -10065,7 +10121,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>799</v>
       </c>
@@ -10076,7 +10132,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>801</v>
       </c>
@@ -10087,7 +10143,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>803</v>
       </c>
@@ -10098,7 +10154,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>805</v>
       </c>
@@ -11220,7 +11276,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>1045</v>
       </c>
@@ -11231,7 +11287,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>1047</v>
       </c>
@@ -11242,7 +11298,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>1049</v>
       </c>
@@ -11253,7 +11309,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>1051</v>
       </c>
@@ -11264,7 +11320,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>1053</v>
       </c>
@@ -11275,7 +11331,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>1055</v>
       </c>
@@ -11286,7 +11342,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>1057</v>
       </c>
@@ -11341,7 +11397,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>1067</v>
       </c>
@@ -11352,7 +11408,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>1069</v>
       </c>
@@ -11363,7 +11419,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>1071</v>
       </c>
@@ -11374,7 +11430,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>1073</v>
       </c>
@@ -11440,496 +11496,496 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B620" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B621" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B622" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B623" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B624" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B625" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B626" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>1135</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B627" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B628" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B629" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B630" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B631" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B632" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>1141</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B633" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B634" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B635" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B636" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B637" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B638" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B639" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>1148</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B640" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B641" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B642" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>1151</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B643" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B644" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B645" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B646" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B647" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>1156</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B648" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B649" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>1158</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B650" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B651" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>1160</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B652" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B653" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>1162</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="654" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B654" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B655" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B656" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>1165</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B657" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>1166</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B658" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B659" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B659" s="1" t="s">
-        <v>1168</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B660" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B661" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>1170</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B662" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>1173</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B663" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>1175</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B664" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="B664" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>1171</v>
@@ -12034,7 +12090,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>1197</v>
       </c>
@@ -12045,7 +12101,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>1199</v>
       </c>
@@ -12056,7 +12112,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>1201</v>
       </c>
@@ -12067,7 +12123,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>1203</v>
       </c>
@@ -12078,7 +12134,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>1217</v>
       </c>
@@ -12089,7 +12145,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>1216</v>
       </c>
@@ -12100,11 +12156,88 @@
         <v>1214</v>
       </c>
     </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C673">
+  <autoFilter ref="A1:C685">
     <filterColumn colId="2">
       <filters>
-        <filter val="의미"/>
+        <filter val="품사"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="2362">
   <si>
     <t>질문</t>
   </si>
@@ -7159,6 +7159,1160 @@
   <si>
     <t>어휘적 피동 vs 통사적 피동</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡식이나 장작 따위의 더미를 세는 단위 한 가리는 20단</t>
+  </si>
+  <si>
+    <t>굴비. 비웃 따위나 고비. 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리. 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+  </si>
+  <si>
+    <t>오이나 가지 따위를 묶어 세는 단위 한 거리는 50개</t>
+  </si>
+  <si>
+    <t>달걀 열 개를 묶어 세는 단위</t>
+  </si>
+  <si>
+    <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
+  </si>
+  <si>
+    <t>짚. 땔나무. 채소 따위의 묶음을 세는 단위</t>
+  </si>
+  <si>
+    <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
+  </si>
+  <si>
+    <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
+  </si>
+  <si>
+    <t>논밭 넓이의 단위 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로. 지방마다 다르나 논은 약 150～300평. 밭은 약 100평 정도</t>
+  </si>
+  <si>
+    <t>신발의 크기를 잴 때 쓰는 단위 1문은 약 24cm</t>
+  </si>
+  <si>
+    <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리. 미역 열 장</t>
+  </si>
+  <si>
+    <t>①길이의 단위 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른</t>
+  </si>
+  <si>
+    <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
+  </si>
+  <si>
+    <t>국수. 새끼. 실 따위의 뭉치를 세는 단위</t>
+  </si>
+  <si>
+    <t>부피의 단위 곡식. 가루. 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
+  </si>
+  <si>
+    <t>①한 손에 잡을 만한 분량을 세는 단위 조기. 고등어. 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
+② 미나리나 파 따위 한 손은 한 줌 분량을 이름</t>
+  </si>
+  <si>
+    <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
+  </si>
+  <si>
+    <t>① 바늘을 세는 단위 24개 
+② 옷감. 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
+③ 금의 무게를 나타내는 단위 한 쌈은 금 백 냥쭝</t>
+  </si>
+  <si>
+    <t>둘을 하나로 묶어 세는 단위</t>
+  </si>
+  <si>
+    <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
+  </si>
+  <si>
+    <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
+  </si>
+  <si>
+    <t>종이를 세는 단위 1연은 500장</t>
+  </si>
+  <si>
+    <t>기와를 세는 단위 한 우리는기와 2천 장</t>
+  </si>
+  <si>
+    <t>길이의 단위 한 자는 한 치의 열 배로 약 30.3cm에 해당 [비슷한 말] 척6(尺)</t>
+  </si>
+  <si>
+    <t>채소나 과일 따위를 묶어 세는 단위 한 접은 채소나 과일 백 개를 이름</t>
+  </si>
+  <si>
+    <t>한약의 분량을 나타내는 단위 한 제는 탕약스무 첩</t>
+  </si>
+  <si>
+    <t>옷. 그릇 따위의 열 벌을 묶어 이른 말</t>
+  </si>
+  <si>
+    <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
+  </si>
+  <si>
+    <t>길이의 단위 한 치는 한 자의 10분의 1 또는 약 30.3cm에 해당한다
+cf 촌(寸)</t>
+  </si>
+  <si>
+    <t>쾌(북어를 묶어 세는 단위 한 쾌는 북어 20마리)의 방언</t>
+  </si>
+  <si>
+    <t>북어 20마리를 묶은 단위</t>
+  </si>
+  <si>
+    <t>김을 세는 단위 100장</t>
+  </si>
+  <si>
+    <t>沖年(읽는 법)</t>
+  </si>
+  <si>
+    <t>志學(읽는 법)</t>
+  </si>
+  <si>
+    <t>弱冠(읽는 법)</t>
+  </si>
+  <si>
+    <t>而立(읽는 법)</t>
+  </si>
+  <si>
+    <t>不惑(읽는 법)</t>
+  </si>
+  <si>
+    <t>知命(읽는 법)</t>
+  </si>
+  <si>
+    <t>耳順(읽는 법)</t>
+  </si>
+  <si>
+    <t>換甲(읽는 법)</t>
+  </si>
+  <si>
+    <t>還甲(읽는 법)</t>
+  </si>
+  <si>
+    <t>回甲(읽는 법)</t>
+  </si>
+  <si>
+    <t>古稀(읽는 법)</t>
+  </si>
+  <si>
+    <t>喜壽(읽는 법)</t>
+  </si>
+  <si>
+    <t>米壽(읽는 법)</t>
+  </si>
+  <si>
+    <t>白壽(읽는 법)</t>
+  </si>
+  <si>
+    <t>沖年(00살)</t>
+  </si>
+  <si>
+    <t>志學(00살)</t>
+  </si>
+  <si>
+    <t>弱冠(00살)</t>
+  </si>
+  <si>
+    <t>而立(00살)</t>
+  </si>
+  <si>
+    <t>不惑(00살)</t>
+  </si>
+  <si>
+    <t>知命(00살)</t>
+  </si>
+  <si>
+    <t>耳順(00살)</t>
+  </si>
+  <si>
+    <t>換甲(00살)</t>
+  </si>
+  <si>
+    <t>還甲(00살)</t>
+  </si>
+  <si>
+    <t>回甲(00살)</t>
+  </si>
+  <si>
+    <t>古稀(00살)</t>
+  </si>
+  <si>
+    <t>喜壽(00살)</t>
+  </si>
+  <si>
+    <t>米壽(00살)</t>
+  </si>
+  <si>
+    <t>白壽(00살)</t>
+  </si>
+  <si>
+    <t>㉠곡식이나 장작 따위의 더미를 세는 단위 한 가리는 스무 단이다
+장작 한 가리</t>
+  </si>
+  <si>
+    <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비. 담배 대여섯 개비</t>
+  </si>
+  <si>
+    <t>㉠오이나 가지 따위를 묶어 세는 단위 한 거리는 오이나 가지 오십 개를 이른다
+가지 두 거리</t>
+  </si>
+  <si>
+    <t>㉡탈놀음. 꼭두각시놀음. 굿 따위에서. 장(場)을 세는 단위 
+한 거리 놀다</t>
+  </si>
+  <si>
+    <t>㉠무게의 단위 한 관은 한 근의 열 배로 375kg에 해당 한다
+감자 세 관</t>
+  </si>
+  <si>
+    <t>㉠식물. 특히 나무를 세는 단위 
+소나무 2천 그루</t>
+  </si>
+  <si>
+    <t>㉡한 해에 같은 땅에 농사짓는 횟수를 세는 단위 
+두 그루 심는 논농사</t>
+  </si>
+  <si>
+    <t>㉠무게의 단위 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고. 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
+쇠고기 한 근</t>
+  </si>
+  <si>
+    <t>㉠길이의 단위 한 길은 여덟 자 또는 열 자로 약 24미터 또는 3미터에 해당한다
+천 길</t>
+  </si>
+  <si>
+    <t>㉡길이의 단위 한 길은 사람의 키 정도의 길이이다 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다</t>
+  </si>
+  <si>
+    <t>㉠달걀 열 개를 묶어 세는 단위 
+달걀 한 꾸러미</t>
+  </si>
+  <si>
+    <t>㉠예전에. 엽전을 세던 단위 한 냥은 한 돈의 열 배이다 
+돈 천 냥. 돈 만 냥을 꾸다</t>
+  </si>
+  <si>
+    <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니. 멍석 따위를 셀 때 쓴다
+동전 한 닢</t>
+  </si>
+  <si>
+    <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’. ‘타(打)’로 순화 
+연필 한 다스</t>
+  </si>
+  <si>
+    <t>㉠짚. 땔나무. 채소 따위의 묶음을 세는 단위 
+볏짚 한 단</t>
+  </si>
+  <si>
+    <t>㉠화살 따위와 같이 가늘고 긴 물건을 세는 단위 
+화살 세 대</t>
+  </si>
+  <si>
+    <t>㉡이나 갈비를 세는 단위 
+삼촌은 교통사고로 갈비가 세 대나 나갔다</t>
+  </si>
+  <si>
+    <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
+담배 한 대 먼저 채우고 나서 이야기합시다</t>
+  </si>
+  <si>
+    <t>㉣때리는 횟수를 세는 단위 
+회초리로 몇 대 맞을래?</t>
+  </si>
+  <si>
+    <t>㉤주사를 놓는 횟수를 세는 단위 
+엉덩이에 주사를 한 대 맞다</t>
+  </si>
+  <si>
+    <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
+한 돈은 한 냥의 10분의 1. 한 푼의 열 배로 375 그램에 해당한다
+금 두 냥 서 돈</t>
+  </si>
+  <si>
+    <t>㉠부피의 단위 곡식. 가루. 액체 따위의 부피를 잴 때 쓴 다 한 되는 한 말의 10분의 1. 한 홉의 열 배로 약 1)8리 터에 해당한다
+쌀 한 되</t>
+  </si>
+  <si>
+    <t>㉠곡식이나 물. 술 따위를 되에 담아 그 분량을 세는 단위 
+한 되들이 술병</t>
+  </si>
+  <si>
+    <t>㉠논. 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
+땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
+  </si>
+  <si>
+    <t>㉠ 조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위 
+청어 한 두름</t>
+  </si>
+  <si>
+    <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
+고사리 한 두름</t>
+  </si>
+  <si>
+    <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
+바느질을 한 땀 한 땀 정성 들여 하다</t>
+  </si>
+  <si>
+    <t>㉠거리의 단위 1리는 약 0393km에 해당한다 
+예전에는 학교까지 오 리쯤 걸어 다녔다</t>
+  </si>
+  <si>
+    <t>㉠짐승이나 물고기. 벌레 따위를 세는 단위 
+소 한 마리</t>
+  </si>
+  <si>
+    <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평. 밭은 약 100평 정도이다
+논 다섯 마지기</t>
+  </si>
+  <si>
+    <t>㉠두부나 묵 따위를 세는 단위 
+두부 한 모</t>
+  </si>
+  <si>
+    <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
+물 한 모금. 담배 몇 모금</t>
+  </si>
+  <si>
+    <t>㉠길이의 단위 신발의 크기를 잴 때 쓴다 1문은 약 24cm에 해당한다
+십 문 반짜리 운동화</t>
+  </si>
+  <si>
+    <t>㉠짚. 장작. 채소 따위의 작은 묶음을 세는 단위 
+땔감은 아예 말똥. 소똥을 말려 쓰고. 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
+  </si>
+  <si>
+    <t>㉡볏단을 세는 단위</t>
+  </si>
+  <si>
+    <t>㉢생선을 묶어 세는 단위 한 뭇은 생선 열 마리를 이른다 
+삼치 다섯 뭇</t>
+  </si>
+  <si>
+    <t>㉣미역을 묶어 세는 단위 한 뭇은 미역 열 장을 이른다</t>
+  </si>
+  <si>
+    <t>하나둘. 한둘</t>
+  </si>
+  <si>
+    <t>두셋</t>
+  </si>
+  <si>
+    <t>서너</t>
+  </si>
+  <si>
+    <t>네댓</t>
+  </si>
+  <si>
+    <t>네다섯</t>
+  </si>
+  <si>
+    <t>예닐곱</t>
+  </si>
+  <si>
+    <t>두서너</t>
+  </si>
+  <si>
+    <t>두서넛</t>
+  </si>
+  <si>
+    <t>너더댓</t>
+  </si>
+  <si>
+    <t>대여섯</t>
+  </si>
+  <si>
+    <t>대엿</t>
+  </si>
+  <si>
+    <t>일여덟</t>
+  </si>
+  <si>
+    <t>열이 조금 넘는 수</t>
+  </si>
+  <si>
+    <t>엄지(손가락)</t>
+  </si>
+  <si>
+    <t>무지(拇指)</t>
+  </si>
+  <si>
+    <t>대무지(大拇指)</t>
+  </si>
+  <si>
+    <t>대지(大旨)</t>
+  </si>
+  <si>
+    <t>거지(巨指)</t>
+  </si>
+  <si>
+    <t>벽지(擘指)</t>
+  </si>
+  <si>
+    <t>검지</t>
+  </si>
+  <si>
+    <t>집게손가락</t>
+  </si>
+  <si>
+    <t>식지(食指)</t>
+  </si>
+  <si>
+    <t>염지(鹽指)</t>
+  </si>
+  <si>
+    <t>인지(人指)</t>
+  </si>
+  <si>
+    <t>가운뎃손가락</t>
+  </si>
+  <si>
+    <t>장지(長指)</t>
+  </si>
+  <si>
+    <t>중지(中指)</t>
+  </si>
+  <si>
+    <t>장짓가락</t>
+  </si>
+  <si>
+    <t>상지(上指)</t>
+  </si>
+  <si>
+    <t>약지(藥指)</t>
+  </si>
+  <si>
+    <t>약손가락</t>
+  </si>
+  <si>
+    <t>무명지(無名指)</t>
+  </si>
+  <si>
+    <t>새끼손(가락)</t>
+  </si>
+  <si>
+    <t>소지(小指)</t>
+  </si>
+  <si>
+    <t>계지(季指)</t>
+  </si>
+  <si>
+    <t>수소지(手小指)</t>
+  </si>
+  <si>
+    <t>㉠길이의 단위. 한 발은 두 팔을 양옆으로 펴서 벌 렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이 이다</t>
+  </si>
+  <si>
+    <t>열두 발 상모</t>
+  </si>
+  <si>
+    <t>㉠신발이나 구두의 옆면과 옆면 사이의 간격</t>
+  </si>
+  <si>
+    <t>보기보다 네 발의 볼이 넓지는 않구나</t>
+  </si>
+  <si>
+    <t>㉠국수. 새끼. 실 따위의 뭉치를 세는 단위로 감은 덩이 의 길이를 가리킴. 대개 30~50발이 한 사리</t>
+  </si>
+  <si>
+    <t>노끈 한 사리. 국수 한 사리</t>
+  </si>
+  <si>
+    <t>㉠부피의 단위. 곡식. 가루. 액체 따위의 부피를 잴 때 쓴다. 한 섬은 한 말의 열 배로 약 180리터에 해당한다.</t>
+  </si>
+  <si>
+    <t>벼 한 섬을 지게에 지다.</t>
+  </si>
+  <si>
+    <t>㉠논밭 넓이의 단위. 한 섬지기는 볍씨 한 섬의 모 또는 씨앗을 심을 만한 넓이로 한 마지기의 열 배 이며 논은 약 2.000평. 밭은 약 1.000평이다.</t>
+  </si>
+  <si>
+    <t>열 섬지기의 논</t>
+  </si>
+  <si>
+    <t>㉠밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
+  </si>
+  <si>
+    <t>밥 두어 술</t>
+  </si>
+  <si>
+    <t>㉠바늘을 묶어 세는 단위. 한 쌈은 바늘 스물네 개를 이른다</t>
+  </si>
+  <si>
+    <t>바늘 세 쌈</t>
+  </si>
+  <si>
+    <t>㉡옷감. 피혁 따위를 알맞은 분량으로 싸 놓은 덩이 를 세는 단위</t>
+  </si>
+  <si>
+    <t>빨랫감 두 쌈</t>
+  </si>
+  <si>
+    <t>㉢금의 무게를 나타내는 단위. 한 쌈은 금 백 냥쭝이다</t>
+  </si>
+  <si>
+    <t>㉠둘레의 길이를 나타내는 단위</t>
+  </si>
+  <si>
+    <t>두 아름 가까이 되는 느티나무</t>
+  </si>
+  <si>
+    <t>㉠작고 둥근 모양의 물건을 세는 단위</t>
+  </si>
+  <si>
+    <t>달걀 한 알</t>
+  </si>
+  <si>
+    <t>㉡작고 둥근 열매나 곡식의 낱개를 세는 단위</t>
+  </si>
+  <si>
+    <t>사과 세 알</t>
+  </si>
+  <si>
+    <t>㉠실이나 줄의 가닥을 세는 단위</t>
+  </si>
+  <si>
+    <t>세 올로 튼튼하게 줄을 꼬아라.</t>
+  </si>
+  <si>
+    <t>㉠기와를 세는 단위</t>
+  </si>
+  <si>
+    <t>한 우리는 기와 2천 장이다</t>
+  </si>
+  <si>
+    <t>㉠길이의 단위. 한 자는 한 치의 열 배로 약 30.3cm 에 해당한다.</t>
+  </si>
+  <si>
+    <t>비단 넉 자를 끊다.</t>
+  </si>
+  <si>
+    <t>㉠넓게 퍼진 안개나 구름. 어둠 따위</t>
+  </si>
+  <si>
+    <t>구름 한 자락이 산에 걸리다.</t>
+  </si>
+  <si>
+    <t>㉡ 한차례의 바람이나 빗줄기</t>
+  </si>
+  <si>
+    <t>바람 한 자락에 땀을 씻다.</t>
+  </si>
+  <si>
+    <t>㉢스치는 생각이나 말마디</t>
+  </si>
+  <si>
+    <t>한 자락 춘몽</t>
+  </si>
+  <si>
+    <t>㉠종이나 유리 따위의 얇고 넓적한 물건을 세는 단위</t>
+  </si>
+  <si>
+    <t>종이 한 장</t>
+  </si>
+  <si>
+    <t>㉡ 활. 쇠뇌. 금슬(琴瑟)을 세는 단위</t>
+  </si>
+  <si>
+    <t>㉢ 얇은 구름의 덩이를 세는 단위</t>
+  </si>
+  <si>
+    <t>구름 한 장 없이 맑은 하늘</t>
+  </si>
+  <si>
+    <t>㉠성적을 나타내는 단위</t>
+  </si>
+  <si>
+    <t>백 점을 맞다.</t>
+  </si>
+  <si>
+    <t>㉡그림. 옷 따위를 세는 단위</t>
+  </si>
+  <si>
+    <t>그림 한 점</t>
+  </si>
+  <si>
+    <t>㉢아주 적은 양을 나타내는 말</t>
+  </si>
+  <si>
+    <t>바람 한 점 없는 날씨</t>
+  </si>
+  <si>
+    <t>㉣잘라내거나 뜯어낸 고기 살점을 세는 단위</t>
+  </si>
+  <si>
+    <t>생선회 두 점</t>
+  </si>
+  <si>
+    <t>㉤떨어지는 물방울 따위를 세는 단위</t>
+  </si>
+  <si>
+    <t>빗방울이 한 점 두 점 떨어지기 시작했다.</t>
+  </si>
+  <si>
+    <t>㉠채소나 과일 따위를 묶어 세는 단위. 한 접은 채소나 과일 백 개를 이른다.</t>
+  </si>
+  <si>
+    <t>배추 두 접</t>
+  </si>
+  <si>
+    <t>㉠한약의 분량을 나타내는 단위. 한 제는 탕약(湯 藥) 스무 첩. 또는 그만한 분량으로 지은 환약(丸 藥) 따위를 이른다.</t>
+  </si>
+  <si>
+    <t>쌍화탕 한 제</t>
+  </si>
+  <si>
+    <t>㉠옷. 그릇 따위의 열 벌을 묶어 세는 단위</t>
+  </si>
+  <si>
+    <t>버선 한 죽</t>
+  </si>
+  <si>
+    <t>㉠집을 세는 단위</t>
+  </si>
+  <si>
+    <t>기와집 몇 채</t>
+  </si>
+  <si>
+    <t>㉡큰 기구. 기물. 가구 따위를 세는 단위</t>
+  </si>
+  <si>
+    <t>가마 두 채</t>
+  </si>
+  <si>
+    <t>㉢이불을 세는 단위</t>
+  </si>
+  <si>
+    <t>햇솜을 넣어 만든 두터운 솜이불 한 채</t>
+  </si>
+  <si>
+    <t>㉣가공하지 아니한 인삼을 묶어 세는 단위. 한 채는 인삼 100근이다</t>
+  </si>
+  <si>
+    <t>인삼 한 채</t>
+  </si>
+  <si>
+    <t>㉠길이의 단위 한 척=30.303cm</t>
+  </si>
+  <si>
+    <t>한약 세 첩 그 집 안방은 창문에서 창문까지 이십오 척 너비다.</t>
+  </si>
+  <si>
+    <t>㉠약봉지에 싼 약의 뭉치를 세는 단위</t>
+  </si>
+  <si>
+    <t>한약 세 첩</t>
+  </si>
+  <si>
+    <t>㉠길이의 단위. 한 치는 한 자의 10분의 1 또는 약 3.03cm에 해당한다.</t>
+  </si>
+  <si>
+    <t>세 치 혀도 잘못 놀리면 큰 망신을 당한다.</t>
+  </si>
+  <si>
+    <t>㉠사리어 뭉쳐 놓은 실이나 노끈 따위의 뭉치를 세는 단위</t>
+  </si>
+  <si>
+    <t>올가을에 쓸 가마니를 짜려면 새끼 몇 타래로는 어림없다.</t>
+  </si>
+  <si>
+    <t>㉠실몽당이를 세는 단위</t>
+  </si>
+  <si>
+    <t>명주실 두 토리</t>
+  </si>
+  <si>
+    <t>㉠밤이나 곡식의 낱알을 세는 단위</t>
+  </si>
+  <si>
+    <t>밤 한 톨</t>
+  </si>
+  <si>
+    <t>㉠김을 묶어 세는 단위. 한 톳은 김 100장을 이른다.</t>
+  </si>
+  <si>
+    <t>상점에 가서 김 세 톳을 사 오너라.</t>
+  </si>
+  <si>
+    <t>㉠편지나 서류. 전화 따위를 세는 단위</t>
+  </si>
+  <si>
+    <t>편지 세 통</t>
+  </si>
+  <si>
+    <t>㉠일정한 길이로 말아 놓은 피륙을 세는 단위</t>
+  </si>
+  <si>
+    <t>예물 단자를 적어 보면 황 모시 열 필. 흰 모시 스무 필. 검 은 마포 열 필. 면주 스무 필…</t>
+  </si>
+  <si>
+    <t>㉠말이나 소를 세는 단위</t>
+  </si>
+  <si>
+    <t>소 두 필</t>
+  </si>
+  <si>
+    <t>㉠새벽에 닭이 올라앉은 나무 막대를 치면서 우는 차례를 세는 단위</t>
+  </si>
+  <si>
+    <t>닭이 세 홰 울다.</t>
+  </si>
+  <si>
+    <t>충년(沖年)</t>
+  </si>
+  <si>
+    <t>지학(志學)</t>
+  </si>
+  <si>
+    <t>과년(瓜年)</t>
+  </si>
+  <si>
+    <t>과년(過年)</t>
+  </si>
+  <si>
+    <t>약관(弱冠)</t>
+  </si>
+  <si>
+    <t>방년(芳年). 묘년(妙年)</t>
+  </si>
+  <si>
+    <t>이립(而立)</t>
+  </si>
+  <si>
+    <t>이모(二毛)</t>
+  </si>
+  <si>
+    <t>불혹(不惑)</t>
+  </si>
+  <si>
+    <t>상년(桑年) 상수(桑壽)</t>
+  </si>
+  <si>
+    <t>지명(知命) 지천명(知天命)</t>
+  </si>
+  <si>
+    <t>이순(耳順)</t>
+  </si>
+  <si>
+    <t>화갑(華甲)</t>
+  </si>
+  <si>
+    <t>진갑(進甲)</t>
+  </si>
+  <si>
+    <t>종심(從心)</t>
+  </si>
+  <si>
+    <t>희수(喜壽)</t>
+  </si>
+  <si>
+    <t>산수(傘壽)</t>
+  </si>
+  <si>
+    <t>미수(米壽)</t>
+  </si>
+  <si>
+    <t>구질(九秩)</t>
+  </si>
+  <si>
+    <t>망백(望百)</t>
+  </si>
+  <si>
+    <t>백수(白壽)</t>
+  </si>
+  <si>
+    <t>상수(上壽)</t>
+  </si>
+  <si>
+    <t>紙婚式(지혼식)</t>
+  </si>
+  <si>
+    <t>花婚式(화혼식)</t>
+  </si>
+  <si>
+    <t>錫婚式(석혼식)</t>
+  </si>
+  <si>
+    <t>磁器婚式(자기혼식)</t>
+  </si>
+  <si>
+    <t>銀婚式(은혼식)</t>
+  </si>
+  <si>
+    <t>回婚式(회혼식)</t>
+  </si>
+  <si>
+    <t>가리</t>
+  </si>
+  <si>
+    <t>갓</t>
+  </si>
+  <si>
+    <t>거리</t>
+  </si>
+  <si>
+    <t>꾸러미</t>
+  </si>
+  <si>
+    <t>다스</t>
+  </si>
+  <si>
+    <t>단</t>
+  </si>
+  <si>
+    <t>두름</t>
+  </si>
+  <si>
+    <t>마름</t>
+  </si>
+  <si>
+    <t>마지기</t>
+  </si>
+  <si>
+    <t>문</t>
+  </si>
+  <si>
+    <t>뭇</t>
+  </si>
+  <si>
+    <t>발</t>
+  </si>
+  <si>
+    <t>벌</t>
+  </si>
+  <si>
+    <t>사리</t>
+  </si>
+  <si>
+    <t>섬</t>
+  </si>
+  <si>
+    <t>손</t>
+  </si>
+  <si>
+    <t>술</t>
+  </si>
+  <si>
+    <t>쌈</t>
+  </si>
+  <si>
+    <t>쌍</t>
+  </si>
+  <si>
+    <t>타</t>
+  </si>
+  <si>
+    <t>아름</t>
+  </si>
+  <si>
+    <t>연</t>
+  </si>
+  <si>
+    <t>우리</t>
+  </si>
+  <si>
+    <t>자</t>
+  </si>
+  <si>
+    <t>접</t>
+  </si>
+  <si>
+    <t>제</t>
+  </si>
+  <si>
+    <t>죽</t>
+  </si>
+  <si>
+    <t>축</t>
+  </si>
+  <si>
+    <t>치</t>
+  </si>
+  <si>
+    <t>코</t>
+  </si>
+  <si>
+    <t>쾌</t>
+  </si>
+  <si>
+    <t>톳</t>
+  </si>
+  <si>
+    <t>충년</t>
+  </si>
+  <si>
+    <t>지학</t>
+  </si>
+  <si>
+    <t>약관</t>
+  </si>
+  <si>
+    <t>이립</t>
+  </si>
+  <si>
+    <t>불혹</t>
+  </si>
+  <si>
+    <t>지명</t>
+  </si>
+  <si>
+    <t>이순</t>
+  </si>
+  <si>
+    <t>환갑</t>
+  </si>
+  <si>
+    <t>회갑</t>
+  </si>
+  <si>
+    <t>고희</t>
+  </si>
+  <si>
+    <t>희수</t>
+  </si>
+  <si>
+    <t>미수</t>
+  </si>
+  <si>
+    <t>백수</t>
+  </si>
+  <si>
+    <t>개비</t>
+  </si>
+  <si>
+    <t>관</t>
+  </si>
+  <si>
+    <t>그루</t>
+  </si>
+  <si>
+    <t>근</t>
+  </si>
+  <si>
+    <t>길</t>
+  </si>
+  <si>
+    <t>냥</t>
+  </si>
+  <si>
+    <t>닢</t>
+  </si>
+  <si>
+    <t>대</t>
+  </si>
+  <si>
+    <t>돈</t>
+  </si>
+  <si>
+    <t>되</t>
+  </si>
+  <si>
+    <t>되들이</t>
+  </si>
+  <si>
+    <t>되지기</t>
+  </si>
+  <si>
+    <t>땀</t>
+  </si>
+  <si>
+    <t>리</t>
+  </si>
+  <si>
+    <t>마리</t>
+  </si>
+  <si>
+    <t>모</t>
+  </si>
+  <si>
+    <t>모금</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>2 3 4</t>
+  </si>
+  <si>
+    <t>7 8</t>
+  </si>
+  <si>
+    <t>첫째 손가락</t>
+  </si>
+  <si>
+    <t>둘째 손가락</t>
+  </si>
+  <si>
+    <t>셋째 손가락</t>
+  </si>
+  <si>
+    <t>넷째 손가락</t>
+  </si>
+  <si>
+    <t>다섯째 손가락</t>
+  </si>
+  <si>
+    <t>볼</t>
+  </si>
+  <si>
+    <t>섬지기</t>
+  </si>
+  <si>
+    <t>알</t>
+  </si>
+  <si>
+    <t>올</t>
+  </si>
+  <si>
+    <t>자락</t>
+  </si>
+  <si>
+    <t>장</t>
+  </si>
+  <si>
+    <t>점</t>
+  </si>
+  <si>
+    <t>채</t>
+  </si>
+  <si>
+    <t>척</t>
+  </si>
+  <si>
+    <t>첩</t>
+  </si>
+  <si>
+    <t>타래</t>
+  </si>
+  <si>
+    <t>토리</t>
+  </si>
+  <si>
+    <t>톨</t>
+  </si>
+  <si>
+    <t>통</t>
+  </si>
+  <si>
+    <t>필</t>
+  </si>
+  <si>
+    <t>홰</t>
+  </si>
+  <si>
+    <t>10세 안팎의 어린 나이</t>
+  </si>
+  <si>
+    <t>15세</t>
+  </si>
+  <si>
+    <t>여자가 혼기에 이른 나이(여자 16세)</t>
+  </si>
+  <si>
+    <t>벼슬의 임기가 다한 나이</t>
+  </si>
+  <si>
+    <t>주로 여자의 나이가 보통 혼인할 시기를 지난 상태에 있음</t>
+  </si>
+  <si>
+    <t>남자 나이 20세</t>
+  </si>
+  <si>
+    <t>20세</t>
+  </si>
+  <si>
+    <t>30세</t>
+  </si>
+  <si>
+    <t>32세</t>
+  </si>
+  <si>
+    <t>40세</t>
+  </si>
+  <si>
+    <t>48세</t>
+  </si>
+  <si>
+    <t>50세</t>
+  </si>
+  <si>
+    <t>60세</t>
+  </si>
+  <si>
+    <t>61세</t>
+  </si>
+  <si>
+    <t>62세</t>
+  </si>
+  <si>
+    <t>70세</t>
+  </si>
+  <si>
+    <t>77세</t>
+  </si>
+  <si>
+    <t>88세</t>
+  </si>
+  <si>
+    <t>90세</t>
+  </si>
+  <si>
+    <t>91세</t>
+  </si>
+  <si>
+    <t>99세</t>
+  </si>
+  <si>
+    <t>100세</t>
+  </si>
+  <si>
+    <t>1주년</t>
+  </si>
+  <si>
+    <t>6주년</t>
+  </si>
+  <si>
+    <t>10주년</t>
+  </si>
+  <si>
+    <t>20주년</t>
+  </si>
+  <si>
+    <t>25주년</t>
+  </si>
+  <si>
+    <t>60주년</t>
+  </si>
+  <si>
+    <t>암기자료_단위</t>
+  </si>
+  <si>
+    <t>암기자료_나이_독음</t>
+  </si>
+  <si>
+    <t>암기자료_나이_숫자</t>
+  </si>
+  <si>
+    <t>암기자료_수사</t>
+  </si>
+  <si>
+    <t>암기자료_손가락</t>
+  </si>
+  <si>
+    <t>암기자료_나이_종합</t>
+  </si>
+  <si>
+    <t>암기자료_결혼기념일</t>
   </si>
 </sst>
 </file>
@@ -7571,11 +8725,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D1149"/>
+  <dimension ref="A1:D1398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1148" sqref="B1148"/>
+      <selection pane="bottomLeft" activeCell="C1150" sqref="C1150:C1398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20279,6 +21433,2745 @@
         <v>1989</v>
       </c>
     </row>
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1150" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C1150" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1151" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1151" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1152" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1152" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1153" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1153" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1154" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1154" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1155" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1155" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1156" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C1156" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1157" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1157" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1158" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1158" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1159" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1159" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1160" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1160" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1161" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1161" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1162" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1162" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1163" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C1163" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1164" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1164" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1165" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C1165" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1166" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1166" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1167" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1167" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1168" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1168" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1169" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1169" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1170" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1170" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1171" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1171" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1172" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1172" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1173" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1173" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1174" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1174" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1175" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1175" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1176" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1176" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1177" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1177" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1178" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1178" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1179" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1179" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1180" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1180" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1181" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1181" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1182" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1182" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1183" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1184" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1185" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1185" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1186" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1186" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1187" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1187" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1188" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C1188" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1189" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1189" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1190" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1190" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1191" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1191" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1192" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1192" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1193" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1193" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1194" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1194" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1195" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1195" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1196" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>10</v>
+      </c>
+      <c r="C1196" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1197" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>15</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1198" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>20</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1199" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1199" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1200" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>40</v>
+      </c>
+      <c r="C1200" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1201" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>50</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1202" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>60</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1203" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>61</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1204" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>61</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1205" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>61</v>
+      </c>
+      <c r="C1205" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1206" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>70</v>
+      </c>
+      <c r="C1206" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1207" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>77</v>
+      </c>
+      <c r="C1207" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1208" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>88</v>
+      </c>
+      <c r="C1208" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1209" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>99</v>
+      </c>
+      <c r="C1209" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1210" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C1210" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1211" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1211" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1212" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1213" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1213" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1214" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C1214" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1215" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1215" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C1215" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1216" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C1216" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1217" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1217" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C1217" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1218" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C1218" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1219" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C1219" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1220" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1220" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1221" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C1221" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1222" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C1222" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1223" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1224" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1224" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1225" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1225" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1226" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1226" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1227" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1228" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1229" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1230" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1231" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1232" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1233" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1233" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1234" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1235" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C1235" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1236" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1237" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1238" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1239" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1239" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1240" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1241" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C1241" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1242" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1242" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1243" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1243" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1244" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1244" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1245" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1246" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1246" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1247" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1248" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C1248" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1249" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C1249" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1250" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1250" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1251" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1251" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1252" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1252" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1253" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1253" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1254" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1254" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1255" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1255" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1256" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1256" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1257" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1257" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1258" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1258" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1259" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1259" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1260" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1260" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1261" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1261" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1261" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1262" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1262" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1262" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1263" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1263" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1263" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1264" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1265" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1265" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1266" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1266" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1267" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1267" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1268" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1268" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1269" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1269" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1270" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1270" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1271" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1271" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1272" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1272" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1273" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1273" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1274" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1274" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1275" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1275" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1276" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1276" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1277" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1277" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1278" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1278" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1279" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1279" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1280" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1280" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1281" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1281" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1282" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1282" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1283" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1283" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1284" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1284" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1285" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1285" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1286" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C1286" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1287" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C1287" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1288" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1288" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C1288" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1289" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1289" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C1289" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1290" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1290" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1290" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1291" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1291" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1292" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C1292" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1293" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C1293" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1294" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1294" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1295" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1295" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1296" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1296" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1296" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1297" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1297" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1297" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1298" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1298" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1298" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1299" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1299" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1299" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1300" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1300" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1301" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1301" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1302" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1302" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1303" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1303" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1304" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1304" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1305" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1305" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1306" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1306" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1307" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1307" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1308" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1308" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1309" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1309" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1310" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1310" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1311" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1311" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1312" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1312" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1313" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1313" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1314" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1314" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1315" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1315" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1316" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1316" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1317" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1317" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1317" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1318" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1318" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1318" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1319" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1319" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1319" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1320" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1320" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1320" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1321" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1321" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1321" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1322" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1322" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1322" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1323" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B1323" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1323" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1324" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1324" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1324" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1325" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1325" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1326" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1326" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1327" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1327" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1328" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1328" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1329" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1329" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1330" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1330" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1331" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1331" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1332" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1332" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1333" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1333" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1334" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1334" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1335" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1335" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1336" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1336" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1337" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1337" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1338" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1338" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1339" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1339" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1340" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1340" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1341" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1341" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1341" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1342" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1342" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1342" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1343" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1343" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1344" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1344" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1345" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1345" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1346" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1346" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1347" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1347" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1348" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1348" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1349" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1349" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1350" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1350" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1351" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1351" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1352" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1352" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1353" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1353" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1354" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1354" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1355" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1355" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1356" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1356" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1357" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1357" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1358" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1358" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1359" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1359" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1360" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1360" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1361" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1361" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1362" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1362" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1363" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1363" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1364" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1364" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1365" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1365" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1366" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1366" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1367" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1367" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1368" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1368" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1369" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C1369" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1370" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1370" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1371" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C1371" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1372" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1372" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1373" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C1373" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1374" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1374" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C1374" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1375" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1375" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C1375" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1376" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1376" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1376" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1377" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B1377" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1377" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1378" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1378" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C1378" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1379" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1379" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1380" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1380" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C1380" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1381" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1381" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1381" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1382" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C1382" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1383" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C1383" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1384" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1384" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1384" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1385" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1385" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C1385" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1386" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1386" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C1386" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1387" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1387" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1388" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1388" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1388" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1389" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B1389" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C1389" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1390" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1390" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C1390" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1391" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1391" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C1391" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1392" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C1392" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1393" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1393" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1393" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1394" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1394" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C1394" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1395" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1395" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1395" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1396" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1396" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C1396" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1397" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1397" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C1397" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1398" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1398" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C1398" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1060">
     <filterColumn colId="2">

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -8527,10 +8527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동사적 피동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8825,6 +8821,9 @@
   <si>
     <t>단답형</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통사적 피동</t>
   </si>
 </sst>
 </file>
@@ -24688,7 +24687,7 @@
         <v>2328</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="C1399" s="1" t="s">
         <v>2362</v>
@@ -24831,7 +24830,7 @@
         <v>2389</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="C1412" s="1" t="s">
         <v>2385</v>
@@ -24993,10 +24992,10 @@
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1427" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C1427" s="1" t="s">
         <v>2417</v>
@@ -25004,10 +25003,10 @@
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1428" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1428" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="B1428" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="C1428" s="1" t="s">
         <v>2417</v>
@@ -25018,7 +25017,7 @@
         <v>2418</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>2419</v>
+        <v>2493</v>
       </c>
       <c r="C1429" s="1" t="s">
         <v>2417</v>
@@ -25026,10 +25025,10 @@
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1430" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1430" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="B1430" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="C1430" s="1" t="s">
         <v>2417</v>
@@ -25037,10 +25036,10 @@
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1431" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1431" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="B1431" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="C1431" s="1" t="s">
         <v>2417</v>
@@ -25048,10 +25047,10 @@
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1432" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C1432" s="1" t="s">
         <v>2417</v>
@@ -25059,87 +25058,87 @@
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1433" s="4" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1433" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="B1433" s="1" t="s">
+      <c r="C1433" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="C1433" s="1" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1434" s="4" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1434" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="B1434" s="1" t="s">
-        <v>2439</v>
-      </c>
       <c r="C1434" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1435" s="4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1435" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="B1435" s="1" t="s">
-        <v>2441</v>
-      </c>
       <c r="C1435" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1436" s="4" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1436" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="B1436" s="1" t="s">
-        <v>2433</v>
-      </c>
       <c r="C1436" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1437" s="4" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C1437" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1438" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1438" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="B1438" s="1" t="s">
-        <v>2435</v>
-      </c>
       <c r="C1438" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1439" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1439" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="B1439" s="1" t="s">
-        <v>2437</v>
-      </c>
       <c r="C1439" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1440" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1440" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="B1440" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="C1440" s="1" t="s">
         <v>2385</v>
@@ -25147,10 +25146,10 @@
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1441" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1441" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="B1441" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="C1441" s="1" t="s">
         <v>2385</v>
@@ -25158,10 +25157,10 @@
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1442" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1442" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="B1442" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="C1442" s="1" t="s">
         <v>2385</v>
@@ -25169,10 +25168,10 @@
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1443" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1443" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="B1443" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="C1443" s="1" t="s">
         <v>2385</v>
@@ -25180,10 +25179,10 @@
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1444" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1444" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="B1444" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="C1444" s="1" t="s">
         <v>2385</v>
@@ -25191,10 +25190,10 @@
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1445" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1445" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="B1445" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="C1445" s="1" t="s">
         <v>2385</v>
@@ -25202,10 +25201,10 @@
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1446" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1446" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="B1446" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="C1446" s="1" t="s">
         <v>2385</v>
@@ -25213,10 +25212,10 @@
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1447" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1447" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="B1447" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="C1447" s="1" t="s">
         <v>1927</v>
@@ -25224,10 +25223,10 @@
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1448" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1448" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="B1448" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="C1448" s="1" t="s">
         <v>1927</v>
@@ -25235,10 +25234,10 @@
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1449" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1449" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="B1449" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="C1449" s="1" t="s">
         <v>1927</v>
@@ -25246,10 +25245,10 @@
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1450" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1450" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="B1450" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="C1450" s="1" t="s">
         <v>1927</v>
@@ -25257,10 +25256,10 @@
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1451" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C1451" s="1" t="s">
         <v>1927</v>
@@ -25268,10 +25267,10 @@
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1452" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="C1452" s="1" t="s">
         <v>1927</v>
@@ -25279,10 +25278,10 @@
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1453" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1453" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="B1453" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="C1453" s="1" t="s">
         <v>2376</v>
@@ -25290,10 +25289,10 @@
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1454" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1454" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="B1454" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="C1454" s="1" t="s">
         <v>2385</v>
@@ -25301,10 +25300,10 @@
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1455" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1455" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="B1455" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="C1455" s="1" t="s">
         <v>2385</v>
@@ -25312,10 +25311,10 @@
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1456" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1456" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="B1456" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="C1456" s="1" t="s">
         <v>2385</v>
@@ -25323,10 +25322,10 @@
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1457" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1457" s="1" t="s">
         <v>2477</v>
-      </c>
-      <c r="B1457" s="1" t="s">
-        <v>2478</v>
       </c>
       <c r="C1457" s="1" t="s">
         <v>2385</v>
@@ -25334,10 +25333,10 @@
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1458" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1458" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="B1458" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="C1458" s="1" t="s">
         <v>1927</v>
@@ -25345,10 +25344,10 @@
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1459" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1459" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="B1459" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="C1459" s="1" t="s">
         <v>1927</v>
@@ -25356,10 +25355,10 @@
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1460" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1460" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="B1460" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="C1460" s="1" t="s">
         <v>1927</v>
@@ -25367,10 +25366,10 @@
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1461" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1461" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="B1461" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="C1461" s="1" t="s">
         <v>1927</v>
@@ -25378,35 +25377,35 @@
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1462" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C1462" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1463" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C1463" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1464" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B1464" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1464" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="C1464" s="1" t="s">
-        <v>2493</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="2982">
   <si>
     <t>질문</t>
   </si>
@@ -10697,6 +10697,54 @@
   </si>
   <si>
     <t>벌써</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시가 [안되서] 일어났다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 돼서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단답형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피다 vs 피우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 본 행사를 통해 더 많은 국민들이 녹색 관광을 즐기고 [참여하는 계기가 되기를 바란다]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여하게 되기를 바란다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 모바일 서비스를 제공하여 [이용자들에게] 이 사업의 미래상에 대해 보다 쉽게 다가갈 수 있도록 하였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자들이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11109,11 +11157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1716"/>
+  <dimension ref="A1:C1721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1717" sqref="A1717"/>
+      <pane ySplit="1" topLeftCell="A1702" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1709" sqref="J1709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30000,6 +30048,61 @@
         <v>2957</v>
       </c>
     </row>
+    <row r="1717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1717" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1717" s="1" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1718" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1718" s="1" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1719" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1719" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1719" s="1" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1720" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1720" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1720" s="1" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1721" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1721" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1721" s="1" t="s">
+        <v>2972</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1556"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="2982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="2991">
   <si>
     <t>질문</t>
   </si>
@@ -10745,6 +10745,42 @@
   </si>
   <si>
     <t>이용자들이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 주에 [뵈요]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봬요, 뵈어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단답형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 자리를 [빌어] 감사의 말씀을 드립니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술을 마신 다음날 그는 [북어국]을 먹었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북엇국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 그 내용을 [요약토록] 해라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약도록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11157,11 +11193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1721"/>
+  <dimension ref="A1:C1725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1702" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1709" sqref="J1709"/>
+      <pane ySplit="1" topLeftCell="A1720" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1729" sqref="A1729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30103,6 +30139,50 @@
         <v>2972</v>
       </c>
     </row>
+    <row r="1722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1722" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C1722" s="1" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1723" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1723" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C1723" s="1" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1724" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1724" s="1" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1725" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C1725" s="1" t="s">
+        <v>2984</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1556"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="3187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="3704">
   <si>
     <t>질문</t>
   </si>
@@ -11562,6 +11562,2046 @@
   </si>
   <si>
     <t>[뼛 속/뼛속]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디귿//디읃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기역//기윽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시옷//시읏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지읒//지옺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키읔//키역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티읕//티긑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 순서가 앞에 있는 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅐ//ㅑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ//ㅒ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ//ㅔ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅔ//ㅕ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅘ//ㅚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅙ//ㅚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅚ//ㅛ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅘ//ㅛ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅝ//ㅟ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅝ//ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅟ//ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ//ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅢ//ㅣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소쩍새</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아끼다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해쓱하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 모음 사이에서 나는 된소리는 된소리로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산뜻하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔뜩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살짝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담뿍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움찔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽땅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㄴ,ㄹ,ㅁ,ㅇ' 받침 뒤에서 나는 소리는 된소리로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싹둑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몹시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㄱ, ㅂ' 받침 뒤에서 나는 된소리는, 같은 음절이나 비슷한 음절이 나는 경우가 아니면 된소리로 적지 아니한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된소리 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덧저고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돗자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇셈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃어른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무릇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㄷ' 소리로 나는 받침 중에서 'ㄷ'으로 적을 근거가 없는 것은 'ㅅ'으로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㄷ'과 'ㅅ' 받침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반짇고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흗날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼짇날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섣달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숟가락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이튿날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잗주름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푿소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섣부르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잗다듬다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잗다랗다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 바느질~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 사흘~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 삼질~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 설~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 술~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 이틀~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 잘~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 풀~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝소리가 'ㄹ'인 말과 딴 말이 어울릴 적에 'ㄹ'소리가 'ㄷ'소리로 나는 것은 'ㄷ'으로 적는다 | 잘~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑딱//똑닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짭짤하다/짭잘하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싹둑//싹뚝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법석//법썩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔뜩//잔득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깍두기//깍두기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거꾸로//꺼꾸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자음의 발음으로 옳은 것은? ㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자음의 발음으로 옳은 것은? ㄷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자음의 발음으로 옳은 것은? ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자음의 발음으로 옳은 것은? ㅈ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자음의 발음으로 옳은 것은? ㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자음의 발음으로 옳은 것은? ㅌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기로 옳은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">핑계//핑게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">으레//으례 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 책이오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이리로 오시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 책이 아니오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책이오//책이요 | 종결형에서 사용되는 어미 '-오'는 '요'로 소리나는 경우가 있더라도 그 원형을 밝혀 '오'로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오시오//오시요 | 종결형에서 사용되는 어미 '-오'는 '요'로 소리나는 경우가 있더라도 그 원형을 밝혀 '오'로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오//아니요 | 종결형에서 사용되는 어미 '-오'는 '요'로 소리나는 경우가 있더라도 그 원형을 밝혀 '오'로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 책이요, 저것은 붓이요, 또 저것은 먹이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이요//이오 | 연결형에서 사용되는 '이요'는 '이요'로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들러, 들러라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치러, 치러라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다다라, 다다랐다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잇따라, 잇따랐다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅡ' 탈락 | 어간의 'ㅡ'가 어미 '-아/-어' 앞에서 탈락한다, 다다르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅡ' 탈락 | 어간의 'ㅡ'가 어미 '-아/-어' 앞에서 탈락한다, 치르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅡ' 탈락 | 어간의 'ㅡ'가 어미 '-아/-어' 앞에서 탈락한다, 들르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅡ' 탈락 | 어간의 'ㅡ'가 어미 '-아/-어' 앞에서 탈락한다, 잇따르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈라, 갈랐다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 가르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불러, 불렀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 부르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸러, 걸렀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 거르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올라, 올랐다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 오르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굴러, 굴렀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 구르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일러, 일렀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 이르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별러, 별렀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 벼르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질러, 질렀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙 | 어간의 끝소리 'ㅡ'가 탈락하면서 'ㄹ'이 덧생긴다, 지르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅡ' 탈락 vs '르' 불규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기로 옳은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거친//거칠은 | 'ㄹ' 탈락, 어간 받침 'ㄹ' + 'ㄴ, ㅂ, ㅅ, -오, -ㄹ'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹슨//녹슬은 | 'ㄹ' 탈락, 어간 받침 'ㄹ' + 'ㄴ, ㅂ, ㅅ, -오, -ㄹ'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯선//낯설은 | 'ㄹ' 탈락, 어간 받침 'ㄹ' + 'ㄴ, ㅂ, ㅅ, -오, -ㄹ'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 자랑스러운 태극기 앞에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수들은 만족스러운 경기를 펼쳤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 방에서 책을 읽었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운 감자를 먹었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자랑스러운//자랑스런 | 'ㅂ' 불규칙에서 모음으로 시작되는 어미가 결합할 때 음이 탈락되지 않는 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족스러운//만족스런 | 'ㅂ' 불규칙에서 모음으로 시작되는 어미가 결합할 때 음이 탈락되지 않는 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운//어둔 | 'ㅂ' 불규칙에서 모음으로 시작되는 어미가 결합할 때 음이 탈락되지 않는 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운//군 | 'ㅂ' 불규칙에서 모음으로 시작되는 어미가 결합할 때 음이 탈락되지 않는 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담그다-담가-담가라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거칠다-거친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오르다-올라-올랐다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷다-걸어-걸었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돕다-도와-도와서-도왔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랗다-노란-노라니-노래지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅡ' 탈락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㄹ' 탈락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '르' 불규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㄷ' 불규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅂ' 불규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ㅎ' 불규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 정답//노라네//노랗네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기로 옳은 것은? '노랗다' 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용언의 불규칙 활용 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(으)ㄹ까?//-(으)ㄹ가? | 의문을 나타내는 어미는 된소리로 적는다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(으)ㄹ꼬?//-(으)ㄹ고? | 의문을 나타내는 어미는 된소리로 적는다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(스)ㅂ니까?//-(스)ㅂ가? | 의문을 나타내는 어미는 된소리로 적는다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(으)리까?//-(으)리가? | 의문을 나타내는 어미는 된소리로 적는다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(으)ㄹ쏘냐?//-(으)ㄹ소냐? | 의문을 나타내는 어미는 된소리로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(으)ㄹ걸//-(으)ㄹ껄 | 의문을 나타내지 않는 어미는 예사소리로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(으)ㄹ게//-(으)ㄹ께 | 의문을 나타내지 않는 어미는 예사소리로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -올시다//-올씨다 | 의문을 나타내지 않는 어미는 예사소리로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -(으)ㄹ진대//-(으)ㄹ찐대 | 의문을 나타내지 않는 어미는 예사소리로 적는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 놀다 가려무나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가려무나//가려므나 | -(으)려무나, 부드러운 명령이나 허락을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘은 손님이 전혀 없우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없우//없쑤 | -(으)우, 서술, 의문, 명령을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일을 하려면 제대로 해야지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하려면//할려면 | -(으)려면, 의도, 실현, 욕망 등을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 연인은 떼려야 뗄 수 없는 사이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떼려야//뗄려야 | -(으)려야, 의도, 실현, 욕망 등을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 하려고 한 것은 아니었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하려고//할려고 | -(으)려고, 의도, 실현, 욕망 등을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있어 보이기에/보이길래 사 왔단다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이기에/보이길래//보이기에 | -기애, -길래, 원인이나 근거를 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 예의를 지키고자 스승을 찾았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지키고자//지키고저 | -고자, 어떤 행동을 할 의도나 욕망을 가지고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 일진이 좋을는지 기분이 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사람이 과연 이 일을 맡을는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋을는지//좋을런지 | -(으)ㄹ는지, 어떤 일의 실현 가능성에 대한 의문, 또는 불확실한 사실의 실현 가능성에 대한 의문을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맡을는지//맡을런지 | -(으)ㄹ는지, 어떤 일의 실현 가능성에 대한 의문, 또는 불확실한 사실의 실현 가능성에 대한 의문을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시는 두말 못 하렷다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 하렷다//못 하렸다 | -(으)렷다, 추측이나 다짐, 또는 명령의 뜻을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 알다시피 내게 무슨 힘이 있니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알다시피//아다시피 | '-는 바와 같이'의 뜻을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 깨끗한 동네이구려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네이구려//동네이구료 | -구려, 새로 알게 된 사실에 대한 감탄 또는 상대에게 권하는 태도로 시키는 뜻을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 왔관데 이리 소란스러울까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왔관데//왔관대 | -관데, 예스러운 표현으로, 원인이나 근거를 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강이 깊으매 큰 고기가 살고 덕이 넓으매 인물이 모여드니라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으매//으메 | -(으)매, 어떤 일에 대한 원인이나 근거를 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알다 (동사) -&gt; 앎 (명사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들다 (동사) -&gt; 만듦 (명사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베풀다 (동사) -&gt; 베풂 (명사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀다 (동사) -&gt; 놂 (명사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앎//암 | 어간의 'ㄹ'은 생략하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만듦//만듬 | 어간의 'ㄹ'은 생략하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베풂//베품 | 어간의 'ㄹ'은 생략하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놂//놈 | 어간의 'ㄹ'은 생략하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알맞은 답을 고르라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고르라//골라라 | 간접 명령, 불특정 다수를 대상으로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘을 나는 비행기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는/날으는 | 용언 받침 'ㄹ' 뒤 매개 모음은 쓰지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름다운 서울에서 살렵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살렵니다//살으렵니다 | 용언 받침 'ㄹ' 뒤 매개 모음은 쓰지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 부부은 둘 다 돈을 벌므로 여유가 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌므로//벌으므로 | 용언 받침 'ㄹ' 뒤 매개 모음은 쓰지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 힘을 모아 차를 밉시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밉시다//밀읍시다 | 용언 받침 'ㄹ' 뒤 매개 모음은 쓰지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 방의 길이가 짧네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧네요//짧으네요 | 어미 '-네' 앞에는 매개 모음이 올 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 방은 참 넓네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓네요//넓으네요 | 어미 '-네' 앞에는 매개 모음이 올 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것은 의사로서 할 일이 아니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로서//로써 | (으)로서, 지위, 신분, 자격, 동작이 일어나는 곳을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 문제는 너로서 시작되었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩으로써 메주를 쑤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부를 시작한 지 올해로써 2년이 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로써//로서 | (으)로써, 재료, 수단, 도구, 시간을 셈할 때 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강물이 깊으므로 배 없이는 건널 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊으므로//깊음으로 | -(으)므로, 까닭, 근거를 나타내는 연결 어미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그가 나를 믿으므로 나도 그를 믿는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿으므로//믿음으로 | -(으)므로, 까닭, 근거를 나타내는 연결 어미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 믿음으로 산 보람을 느낀다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿음으로//믿으므로 | -음 으로(써), 명사격 + 부사격 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 부지런하다, 그러므로 잘 산다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러므로//그럼으로 | 그러므로, 그러니까, 그렇게 하기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 열심히 공부한다. 그럼으로 은혜에 보답한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼으로//그러므로 | 그럼으로(써), 그렇게 하는 것으로(수단, 방법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간간이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 | (첩어 또는 준첩어인) 명사 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹겹이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기웃이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나긋나긋이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 | 'ㅅ' 받침 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 | 'ㅂ' 불규칙 용언의 어간 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴로이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 | '-하다'가 붙지 않는 용언 어간 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굳이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰곰이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 | 부사 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더욱이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고요히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공평히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급급히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼼꼼히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히 | '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두둑이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느지막이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고즈넉이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야트막이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나지막이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊숙이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끔찍이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진득이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 | 예외 of '-하다'가 붙는 어근 뒤 (단, 'ㅅ' 받침 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀때기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼때기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판자때기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상판대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 | 예외 of '-때기', 비하의 뜻을 나타낼 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때기 | '-때기', 비하의 뜻을 나타낼 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때기 | '-때기', 비하의 뜻을 나타낼 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때기 | '-때기', 비하의 뜻을 나타낼 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 vs 히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때기 vs 대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이소박이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판박이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙박이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박이 | '박다'의 의미가 살아 있을 때 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박이 vs 배기 vs 빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이배기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜배기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배기 | [배기]로 발음되는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학배기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배기 | 한 형태소 안에서 'ㄱ, ㅂ' 받침 뒤에서 [빼기]로 발음되는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억척빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악착빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고들빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼룩빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대갈빼기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빼기 | 다른 형태소 뒤에서 [빼기]로 발음되는 것은 '빼기'로 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛적다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적다 | '적다[少]'의 뜻이 유지되고 있는 합성어는 '적다'로 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥쩍다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멋쩍다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객쩍다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겸언쩍다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쩍다 | '적다[少]'의 뜻이 없이 [쩍다]로 발음되는 경우는 '쩍다'로 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문을 꼭 잠가라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠가라//잠궈라 | 잘못된 사동 접사의 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치를 담갔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로에서 갑자기 끼어들기를 하면 위험하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띄어쓰기를 틀리지 않도록 주의하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨가 갠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음이 설레었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담갔다//담궜다 | 잘못된 사동 접사의 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끼어들기//끼여들기 | 잘못된 사동 접사의 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띄어쓰기//띠어쓰기 | 잘못된 사동 접사의 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갠//개인 | 잘못된 사동 접사의 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설레었다//설레였다 | 잘못된 사동 접사의 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온 산이 눈으로 덮이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 높이 구두를 신어 키를 높여라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덮이다//덮히다 | 피동 접사 '-히-'는 받침이 'ㄱ,ㄷ,ㅂ,ㄺ,ㄵ' 등인 어간에 붙음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높여라//높혀라 | 피동 접사 '-히-'는 받침이 'ㄱ,ㄷ,ㅂ,ㄺ,ㄵ' 등인 어간에 붙음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도가 바위에 부딪혀 부서졌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서졌다//부숴졌다 | 부서지다, 얇은 조각으로 흩어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 부숴 버리겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부숴//부서 | '부수다(망가뜨리다)'의 연결형 '부수+어 -&gt; 부숴'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학의 원리를 깨치다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글을 스스로 깨쳤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생의 잘못을 깨우쳐 주다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨치다//깨우치다 | '깨치다', 일의 이치 따위를 깨달아 알다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨쳤다//깨우쳤다 | '깨치다', 일의 이치 따위를 깨달아 알다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨우쳐//깨쳐 | '깨우치다', 깨달아 알게 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낫으로 벼를 벴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벴다/뱄다 | '베다', 날이 있는 연장 따위로 무엇을 끊거나 자르거나 가르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연필을 깎다가 칼날에 손을 베였다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베였다//벴다 | '베이다', '베다'의 피동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담배 냄새가 몸에 배어 있었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배어//배여 | '배다', 스며들거나 스며 나오다. 냄새가 스며들어 오래도록 남아 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냄새가 뱁니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱁니다//배입니다 | '배이다', '배다'의 잘못된 표기이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느덧 날이 새는지 창문이 뿌옇게 밝아 온다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새는지//세는지 | '새다', 날이 밝아오다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤을 꼬박 새웠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나기가 오려는지 먹구름이 검게 피었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피었다//피였다 | 구름이나 연기 따위가 커지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새웠다//샜다 | '새우다', 한숨도 자지 아니하고 밤을 지내다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담배를 피울 시간도 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피울//필 | '피다'의 사동사, 어떤 물질에 불을 붙여 연기를 빨아들이었다가 내보내다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴을 에는 듯한 슬픔이 몰아쳤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에는//에이는 | '에다', 칼 따위로 도려내듯 베다. 마음을 몹시 아프게 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴이 에이는 듯한 아픔이었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이는//에는 | '에이다', '에다'의 피동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌도 삭일 나이에 그렇게 소화를 못 시켜서 어떻게 하냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분을 삭이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생강차는 기침을 삭이는 데 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭일//삭힐 | '삭이다', '삭다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭이다//삭히다 | '삭이다', '삭다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭이는//삭히는 | '삭이다', '삭다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥을 삭혀 끓인 감주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭혀//삭여 | '삭히다', '삭다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치를 삭히다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭히다//삭이다 | '삭히다', '삭다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 부모 속 좀 작작 썩여라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩여라//썩혀라 | '썩다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식을 썩혀 거름을 만들다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩혀//썩여 | '썩다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 시골구석에서 재능을 썩히고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩히고//썩이고 | '썩다'의 사동사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기가 옳은 것은? 사이시옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기가 옳은 것은? 사이시옷, 보(湺) + 물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기가 옳은 것은? 사이시옷, 사사(私私) + 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장맛비//장마비</t>
+  </si>
+  <si>
+    <t>콧날//코날</t>
+  </si>
+  <si>
+    <t>깻잎//깨잎</t>
+  </si>
+  <si>
+    <t>건넛마을//건너마을</t>
+  </si>
+  <si>
+    <t>뱃놀이//배놀이</t>
+  </si>
+  <si>
+    <t>봇물//보물</t>
+  </si>
+  <si>
+    <t>나뭇잎//나무잎</t>
+  </si>
+  <si>
+    <t>가욋일//가외일</t>
+  </si>
+  <si>
+    <t>사삿일//사사일</t>
+  </si>
+  <si>
+    <t>전셋값//전세값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도맷값//도매값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나잇값//나이값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최댓값//최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최솟값//최소값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죗값//죄값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자릿세//자리세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가겟세//가게세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노잣돈//노자돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세뱃돈//세배돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종잣돈//종자돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셋돈//세돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹잇감//먹이감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리갯감//노리개감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안줏거리//안주거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화젯거리//화제거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야깃거리//이야기거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌고랫과//돌고래과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양잇과//고양이과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볏과//벼과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갯과//개과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북엇국//북어국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선짓국//선지국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만둣국//만두국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고깃국//고기국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순댓국//순대국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김칫국//김치국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시래깃국//시래기국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭇국//무국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등굣길//등교길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀갓길//귀가길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기찻길//기차길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샛길//새길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하굣길//하교길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골칫덩어리//골치덩어리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고깃덩어리//고기덩어리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏덩어리//피덩어리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주쳇덩어리//주체덩어리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애굣덩어리//애교덩어리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객짓밥//객지밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공깃밥//공기밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사잣밥//사자밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젯밥//제밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제삿밥//제사밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장밋빛//장미빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우윳빛//우유빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연둣빛//연두빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보랏빛//보라빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전셋집//전세집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셋집//세집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소줏집//소주집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥줏집//맥주집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟집//회집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처갓집//처가집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상갓집//상가집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔칫집//잔칫집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고깃집//고기집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가겟집//가게집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랫집//아래집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고춧가루//고추가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구둣주걱//구두주걱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구둣발//구두발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼭짓점//꼭지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">귓병//귀병 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콧방귀//코방귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콧방울//코방울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날갯짓//날개짓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날갯죽지//날개죽지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깻죽지//어깨죽지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱃가죽//배가죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배냇짓//배내짓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배냇저고리//배내저고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막냇동생//막내동생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨랫줄//빨래줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇳조각//쇠조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진돗개//진도개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건넛방//건너방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소싯적//소시적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시곗바늘//시계바늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해님//햇님 | 파생어이므로 사이시옷 표기하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라님//나랏님 | 파생어이므로 사이시옷 표기하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개펄//갯펄 | 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나루터//나룻터 | 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나기밥//소나깃밥 | 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤뜰//뒷뜰 | 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤편//뒷편 | 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위층//윗층 | 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위쪽//윗쪽 | 뒷말을 된소리로 발음하지 않거나, 발음할 수 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셋방//세방 | '한자어 + 한자어'이지만 'ㅅ'을 표기하는 예외적인 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자//수자 | '한자어 + 한자어'이지만 'ㅅ'을 표기하는 예외적인 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟수//회수 (count) | '한자어 + 한자어'이지만 'ㅅ'을 표기하는 예외적인 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곳간//고간 | '한자어 + 한자어'이지만 'ㅅ'을 표기하는 예외적인 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찻간//차간 | '한자어 + 한자어'이지만 'ㅅ'을 표기하는 예외적인 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툇간//퇴간 | '한자어 + 한자어'이지만 'ㅅ'을 표기하는 예외적인 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마구간//마굿간 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수//갯수 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>내과//냇과 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>백지장//백짓장 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>맥주잔//맥줏잔  | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>소주잔//소줏잔  | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>소주병//소줏병  | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>수라간//수랏간 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>시가//싯가 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>장미과//장밋과 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>전세방//전셋방 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>초점//촛점 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>총무과//총뭇과 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>화병//홧병 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>허점//헛점 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>호수//홋수 | '한자어 + 한자어'일 경우 사이시옷 표기하지 않음</t>
+  </si>
+  <si>
+    <t>거기에 가면 안 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안//않 | '안', (부사) '아니'의 준말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 학교에 가지 않았다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>않았다//안았다 | '않-', '아니하-'의 준말, 주로 '-지 않다'의 구성으로 쓰임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지 않은 -&gt; 그렇잖은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만만하지 않다 -&gt; 만만찮다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적지 않은 -&gt; 적잖은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇잖은//그렇찮은 | -지 + 않- = -잖-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적잖은//적찮은 | -지 + 않- = -잖-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변변하지 않다 -&gt; 변변찮다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만만찮다//만만잖다 | -하지 + 않- = -찮-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변변찮다//변변잖다 | -하지 + 않- = -찮-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간편하게 -&gt; 간편케</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정하다 -&gt; 다정타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간편케/간편게 | '하' 앞에 울림소리가 올 때 '하'의 'ㅏ'가 줄고, 'ㅎ'이 다음 음절의 첫소리와 어울려 거센소리가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정타//다정다 | '하' 앞에 울림소리가 올 때 '하'의 'ㅏ'가 줄고, 'ㅎ'이 다음 음절의 첫소리와 어울려 거센소리가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구하도록 -&gt; 연구토록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구토록//연구도록 | '하' 앞에 울림소리가 올 때 '하'의 'ㅏ'가 줄고, 'ㅎ'이 다음 음절의 첫소리와 어울려 거센소리가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정결하다 -&gt; 정결타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정결타//정결다 | '하' 앞에 울림소리가 올 때 '하'의 'ㅏ'가 줄고, 'ㅎ'이 다음 음절의 첫소리와 어울려 거센소리가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북하지 -&gt; 거북지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉넉하지 않다 -&gt; 넉넉지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북지//거북치 | '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉넉지//넉넉치 | '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각하건대 -&gt; 생각건대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각건대//생각컨대 | '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못하지 않다 -&gt; 못지않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못지않다//못치않다 | '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각하다 못해 -&gt; 생각다 못해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각다//생각타 | '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섭섭하지 않다 -&gt; 섭섭지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섭섭지//섭섭치 | '하' 앞에 안울림소리가 올 때 '하'가 탈락함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜이어요 -&gt; 지혜여요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜여요//지혜이여요 | 이어요 -&gt; 여요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜이에요 -&gt; 지혜예요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜예요//지혜이예요 | 이에요 -&gt; 예요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표기법으로 옳은 것은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책이에요//책예요 | 자음 뒤에서 '이에요 -&gt; 예요' 줄일 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책이어요//책여요 | 자음 뒤에서 '이어요 -&gt; 여요' 줄일 수 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니어요 -&gt; 아녀요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아녀요//아니요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니에요 -&gt; 아녜요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아녜요//아니요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11974,16 +14014,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1859"/>
+  <dimension ref="A1:C2211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1855" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1858" sqref="B1858"/>
+      <pane ySplit="1" topLeftCell="A2199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2189" sqref="C2189:C2211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
@@ -13694,7 +15734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>71</v>
       </c>
@@ -15465,7 +17505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>297</v>
       </c>
@@ -15520,7 +17560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>407</v>
       </c>
@@ -15663,7 +17703,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>324</v>
       </c>
@@ -16015,7 +18055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>377</v>
       </c>
@@ -18688,7 +20728,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>902</v>
       </c>
@@ -32436,6 +34476,3878 @@
       </c>
       <c r="C1859" s="1" t="s">
         <v>2990</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1860" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B1860" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1860" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1861" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1861" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C1861" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1862" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B1862" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1862" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1863" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1863" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1863" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1864" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B1864" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1864" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1865" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B1865" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C1865" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1866" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1866" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C1866" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1867" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1867" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1867" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1868" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1868" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C1868" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1869" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1869" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1869" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1870" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1870" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1870" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1871" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1871" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C1871" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1872" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1872" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C1872" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1873" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1873" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C1873" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1874" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1874" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1874" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1875" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1875" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C1875" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1876" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1876" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1876" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1877" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1877" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1877" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1878" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1878" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1878" s="1" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1879" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1879" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1879" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1880" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1880" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1880" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1881" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B1881" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1881" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1882" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B1882" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1882" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1883" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B1883" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1883" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1884" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B1884" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1884" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1885" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B1885" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1885" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1886" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B1886" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1886" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1887" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B1887" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1887" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1888" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B1888" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1888" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1889" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B1889" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1889" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1890" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B1890" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1890" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1891" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1891" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1891" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1892" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1892" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1892" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1893" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B1893" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1893" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1894" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B1894" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1894" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1895" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B1895" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1895" s="1" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1896" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1896" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1896" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1897" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B1897" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1897" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1898" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B1898" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1898" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1899" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1899" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1899" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1900" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B1900" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1900" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1901" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B1901" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1901" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1902" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1902" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C1902" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1903" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1903" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C1903" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1904" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B1904" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C1904" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1905" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1905" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C1905" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1906" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B1906" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C1906" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1907" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1907" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C1907" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1908" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B1908" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1908" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1909" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1909" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1909" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1910" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B1910" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C1910" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1911" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1911" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C1911" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1912" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1912" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1912" s="1" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1913" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1913" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C1913" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1914" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1914" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C1914" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1915" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1915" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C1915" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1916" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1916" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C1916" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1917" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1917" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C1917" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1918" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1918" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C1918" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1919" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1919" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1919" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1920" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1920" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C1920" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1921" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1921" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C1921" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1922" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B1922" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C1922" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1923" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B1923" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1923" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1924" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B1924" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C1924" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1925" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B1925" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C1925" s="1" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1926" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1926" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1926" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1927" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B1927" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1927" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1928" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B1928" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1928" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1929" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B1929" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C1929" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1930" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B1930" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C1930" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1931" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B1931" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C1931" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1932" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B1932" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1932" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1933" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B1933" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C1933" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1934" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B1934" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C1934" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1935" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B1935" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1935" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1936" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B1936" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C1936" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1937" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B1937" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C1937" s="1" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1938" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1938" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C1938" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1939" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1939" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1939" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1940" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1940" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C1940" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1941" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B1941" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C1941" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1942" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1942" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C1942" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1943" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B1943" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C1943" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1944" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1944" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C1944" s="1" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1945" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1945" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C1945" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1946" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B1946" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C1946" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1947" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1947" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1947" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1948" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B1948" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1948" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1949" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B1949" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C1949" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1950" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B1950" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C1950" s="1" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1951" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1951" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C1951" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1952" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1952" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1952" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1953" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1953" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C1953" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1954" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1954" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C1954" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1955" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1955" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C1955" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1956" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1956" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C1956" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1957" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1957" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C1957" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1958" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1958" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1958" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1959" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1959" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C1959" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1960" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1960" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C1960" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1961" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1961" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1961" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1962" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1962" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C1962" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1963" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1963" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C1963" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1964" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1964" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1964" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1965" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B1965" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C1965" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1966" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1966" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1966" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1967" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1967" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C1967" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1968" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1968" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C1968" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1969" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1969" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C1969" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1970" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1970" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C1970" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1971" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1971" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1971" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1972" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1972" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C1972" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1973" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1973" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C1973" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1974" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1974" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C1974" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1975" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1975" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1975" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1976" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1976" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C1976" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1977" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1977" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1977" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1978" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1978" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C1978" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1979" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1979" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C1979" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1980" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1980" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1980" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1981" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1981" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C1981" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1982" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B1982" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C1982" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1983" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B1983" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C1983" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1984" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B1984" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C1984" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1985" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B1985" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C1985" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1986" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B1986" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C1986" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1987" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B1987" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C1987" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1988" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1988" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C1988" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1989" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B1989" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C1989" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1990" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B1990" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C1990" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1991" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B1991" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C1991" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1992" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1992" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C1992" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1993" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B1993" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C1993" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1994" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B1994" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C1994" s="1" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1995" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B1995" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C1995" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1996" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B1996" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C1996" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1997" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1997" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C1997" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1998" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B1998" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C1998" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1999" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B1999" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C1999" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2000" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B2000" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C2000" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2001" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B2001" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C2001" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2002" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B2002" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C2002" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2003" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B2003" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C2003" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2004" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B2004" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C2004" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2005" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B2005" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C2005" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2006" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B2006" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C2006" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2007" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B2007" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C2007" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2008" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B2008" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C2008" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2009" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B2009" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2009" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2010" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B2010" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2010" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2011" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B2011" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2011" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2012" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B2012" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2012" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2013" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B2013" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2013" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2014" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B2014" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2014" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2015" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B2015" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2015" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2016" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B2016" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2016" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2017" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B2017" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C2017" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2018" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B2018" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C2018" s="1" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2019" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B2019" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C2019" s="1" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2020" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B2020" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C2020" s="1" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2021" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B2021" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C2021" s="1" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2022" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B2022" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C2022" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2023" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B2023" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C2023" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2024" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B2024" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C2024" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2025" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B2025" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C2025" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2026" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B2026" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C2026" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2027" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B2027" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C2027" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2028" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B2028" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C2028" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2029" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B2029" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C2029" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2030" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B2030" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C2030" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2031" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B2031" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C2031" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2032" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B2032" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C2032" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2033" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B2033" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C2033" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2034" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B2034" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C2034" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2035" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B2035" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C2035" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2036" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B2036" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C2036" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2037" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B2037" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C2037" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2038" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B2038" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C2038" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2039" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B2039" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C2039" s="1" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2040" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B2040" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C2040" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2041" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B2041" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C2041" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2042" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B2042" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C2042" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2043" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B2043" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C2043" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2044" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B2044" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C2044" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2045" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B2045" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C2045" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2046" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B2046" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C2046" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2047" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B2047" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C2047" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2048" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B2048" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C2048" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2049" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B2049" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C2049" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2050" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B2050" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C2050" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2051" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B2051" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C2051" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2052" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B2052" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C2052" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2053" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B2053" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C2053" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2054" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B2054" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C2054" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2055" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B2055" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C2055" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2056" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B2056" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C2056" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2057" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B2057" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C2057" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2058" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B2058" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C2058" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2059" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B2059" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C2059" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2060" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B2060" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C2060" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2061" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B2061" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C2061" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2062" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B2062" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C2062" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2063" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B2063" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C2063" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2064" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B2064" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C2064" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2065" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B2065" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C2065" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2066" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B2066" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C2066" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2067" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B2067" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C2067" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2068" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B2068" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C2068" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2069" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B2069" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C2069" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2070" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B2070" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C2070" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2071" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2071" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C2071" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2072" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2072" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C2072" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2073" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2073" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C2073" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2074" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2074" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C2074" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2075" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2075" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C2075" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2076" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B2076" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C2076" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2077" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2077" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C2077" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2078" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2078" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C2078" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2079" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B2079" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C2079" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2080" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2080" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C2080" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2081" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2081" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C2081" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2082" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2082" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C2082" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2083" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2083" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C2083" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2084" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2084" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C2084" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2085" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2085" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="C2085" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2086" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2086" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C2086" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2087" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2087" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C2087" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2088" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2088" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C2088" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2089" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2089" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C2089" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2090" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2090" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C2090" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2091" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2091" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C2091" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2092" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2092" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C2092" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2093" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2093" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C2093" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2094" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2094" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C2094" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2095" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2095" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C2095" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2096" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2096" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C2096" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2097" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2097" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C2097" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2098" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2098" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C2098" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2099" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2099" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C2099" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2100" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2100" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C2100" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2101" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2101" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C2101" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2102" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2102" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C2102" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2103" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2103" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C2103" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2104" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2104" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C2104" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2105" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2105" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C2105" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2106" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2106" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C2106" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2107" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2107" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2107" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2108" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2108" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C2108" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2109" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2109" s="1" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C2109" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2110" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2110" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C2110" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2111" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2111" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C2111" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2112" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2112" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C2112" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2113" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2113" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C2113" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2114" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2114" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C2114" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2115" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2115" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C2115" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2116" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2116" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C2116" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2117" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2117" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C2117" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2118" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2118" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C2118" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2119" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2119" s="1" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C2119" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2120" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2120" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C2120" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2121" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2121" s="1" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C2121" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2122" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2122" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C2122" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2123" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2123" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C2123" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2124" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2124" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C2124" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2125" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2125" s="1" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C2125" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2126" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2126" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C2126" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2127" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2127" s="1" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C2127" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2128" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2128" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C2128" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2129" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2129" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C2129" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2130" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2130" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C2130" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2131" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2131" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C2131" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2132" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2132" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C2132" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2133" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2133" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C2133" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2134" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2134" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C2134" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2135" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2135" s="1" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C2135" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2136" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2136" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C2136" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2137" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2137" s="1" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C2137" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2138" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2138" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C2138" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2139" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2139" s="1" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C2139" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2140" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2140" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C2140" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2141" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2141" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C2141" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2142" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2142" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="C2142" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2143" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2143" s="1" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C2143" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2144" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2144" s="1" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C2144" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2145" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2145" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C2145" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2146" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2146" s="1" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C2146" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2147" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2147" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C2147" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2148" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2148" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C2148" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2149" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2149" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C2149" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2150" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2150" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C2150" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2151" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2151" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C2151" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2152" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2152" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C2152" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2153" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2153" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C2153" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2154" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2154" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C2154" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2155" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2155" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C2155" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2156" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2156" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C2156" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2157" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2157" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C2157" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2158" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2158" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C2158" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2159" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2159" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C2159" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2160" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2160" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C2160" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2161" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2161" s="1" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C2161" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2162" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2162" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C2162" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2163" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2163" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C2163" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2164" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2164" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C2164" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2165" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2165" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C2165" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2166" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2166" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C2166" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2167" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2167" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C2167" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2168" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2168" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C2168" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2169" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2169" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C2169" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2170" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2170" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C2170" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2171" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2171" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C2171" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2172" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2172" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C2172" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2173" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2173" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C2173" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2174" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2174" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C2174" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2175" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2175" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C2175" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2176" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2176" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C2176" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2177" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2177" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C2177" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2178" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2178" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C2178" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2179" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2179" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C2179" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2180" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2180" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C2180" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2181" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2181" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C2181" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2182" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2182" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C2182" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2183" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2183" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C2183" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2184" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2184" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C2184" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2185" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2185" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C2185" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2186" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2186" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C2186" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2187" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2187" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C2187" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2188" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2188" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C2188" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2189" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2189" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="C2189" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2190" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B2190" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C2190" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2191" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B2191" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C2191" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2192" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B2192" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C2192" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2193" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B2193" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C2193" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2194" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B2194" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C2194" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2195" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B2195" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C2195" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2196" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B2196" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C2196" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2197" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B2197" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C2197" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2198" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B2198" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C2198" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2199" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B2199" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C2199" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2200" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B2200" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C2200" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2201" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B2201" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C2201" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2202" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B2202" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C2202" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2203" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B2203" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C2203" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2204" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B2204" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C2204" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2205" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B2205" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C2205" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2206" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B2206" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C2206" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2207" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B2207" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C2207" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2208" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B2208" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="C2208" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2209" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B2209" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C2209" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2210" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B2210" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C2210" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2211" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B2211" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C2211" s="1" t="s">
+        <v>3495</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_복습.xlsx
+++ b/학습자료/단답형/국어_복습.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7446" uniqueCount="4043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7458" uniqueCount="4052">
   <si>
     <t>질문</t>
   </si>
@@ -12511,6 +12511,34 @@
   </si>
   <si>
     <t>불가능한 일을 바라는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>率先</t>
+  </si>
+  <si>
+    <t>솔선|타고난 성질, 천성을 좇음</t>
+  </si>
+  <si>
+    <t>善交</t>
+  </si>
+  <si>
+    <t>선교|잘 사귐</t>
+  </si>
+  <si>
+    <t>遵法</t>
+  </si>
+  <si>
+    <t>준법|법률이나 규칙을 좇아 지킴</t>
+  </si>
+  <si>
+    <t>篤學</t>
+  </si>
+  <si>
+    <t>독학|학문에 충실함</t>
+  </si>
+  <si>
+    <t>한자어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12916,11 +12944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2482"/>
+  <dimension ref="A1:C2486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2482" sqref="C2482"/>
+      <pane ySplit="1" topLeftCell="A2475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2483" sqref="C2483:C2486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40232,6 +40260,50 @@
         <v>4032</v>
       </c>
     </row>
+    <row r="2483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2483" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B2483" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C2483" s="1" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2484" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B2484" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C2484" s="1" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2485" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B2485" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C2485" s="1" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2486" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B2486" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C2486" s="1" t="s">
+        <v>4051</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C2482"/>
   <phoneticPr fontId="1" type="noConversion"/>
